--- a/input/binomial-crosswalk.xlsx
+++ b/input/binomial-crosswalk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\R\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\wildlife-cameras\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9F66CE-ECED-43D4-B34C-C97C0DB22212}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E96044-ECC3-4BF5-9809-E52E1C52A248}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="2475" windowWidth="20085" windowHeight="7050" tabRatio="648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="2475" windowWidth="20085" windowHeight="7050" tabRatio="648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="photo-type_binomial_DEN" sheetId="12" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18657" uniqueCount="2836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18664" uniqueCount="2837">
   <si>
     <t>photo_type</t>
   </si>
@@ -8546,6 +8546,9 @@
   </si>
   <si>
     <t>Animal_Reptilia testudines emydidae</t>
+  </si>
+  <si>
+    <t>Needs ID_NA</t>
   </si>
 </sst>
 </file>
@@ -9387,7 +9390,67 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="95">
+  <dxfs count="101">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -10650,7 +10713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA0E98F-B7AC-403B-B8A6-7CBA949C628F}">
   <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -13944,23 +14007,23 @@
     <sortCondition ref="B2:B100"/>
   </sortState>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="94" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="93" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="91" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="90" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="89" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="88" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="13"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13969,11 +14032,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1033"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J1034"/>
   <sheetViews>
     <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A908" sqref="A908"/>
+      <selection pane="bottomLeft" activeCell="I1035" sqref="I1035"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14022,7 +14086,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>203</v>
       </c>
@@ -14046,7 +14110,7 @@
       <c r="I2" s="47"/>
       <c r="J2" s="27"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>633</v>
       </c>
@@ -14072,7 +14136,7 @@
       </c>
       <c r="J3" s="27"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
@@ -14098,7 +14162,7 @@
       <c r="I4" s="47"/>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>2</v>
       </c>
@@ -14124,7 +14188,7 @@
       <c r="I5" s="47"/>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>2</v>
       </c>
@@ -14150,7 +14214,7 @@
       <c r="I6" s="47"/>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>2</v>
       </c>
@@ -14178,7 +14242,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>2</v>
       </c>
@@ -14204,7 +14268,7 @@
       <c r="I8" s="47"/>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>2</v>
       </c>
@@ -14230,7 +14294,7 @@
       <c r="I9" s="47"/>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>2</v>
       </c>
@@ -14258,7 +14322,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>2</v>
       </c>
@@ -14284,7 +14348,7 @@
       <c r="I11" s="47"/>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>2</v>
       </c>
@@ -14312,7 +14376,7 @@
       </c>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>2</v>
       </c>
@@ -14340,7 +14404,7 @@
       </c>
       <c r="J13" s="27"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>2</v>
       </c>
@@ -14366,7 +14430,7 @@
       <c r="I14" s="47"/>
       <c r="J14" s="27"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>2</v>
       </c>
@@ -14394,7 +14458,7 @@
       </c>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>2</v>
       </c>
@@ -14422,7 +14486,7 @@
       </c>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>2</v>
       </c>
@@ -14450,7 +14514,7 @@
       <c r="I17" s="47"/>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>2</v>
       </c>
@@ -14480,7 +14544,7 @@
       </c>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>2</v>
       </c>
@@ -14508,7 +14572,7 @@
       </c>
       <c r="J19" s="27"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>2</v>
       </c>
@@ -14534,7 +14598,7 @@
       <c r="I20" s="47"/>
       <c r="J20" s="27"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>2</v>
       </c>
@@ -14560,7 +14624,7 @@
       <c r="I21" s="47"/>
       <c r="J21" s="27"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>2</v>
       </c>
@@ -14588,7 +14652,7 @@
       </c>
       <c r="J22" s="27"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>2</v>
       </c>
@@ -14612,7 +14676,7 @@
       <c r="I23" s="47"/>
       <c r="J23" s="27"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>2</v>
       </c>
@@ -14636,7 +14700,7 @@
       <c r="I24" s="47"/>
       <c r="J24" s="27"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>2</v>
       </c>
@@ -14662,7 +14726,7 @@
       <c r="I25" s="47"/>
       <c r="J25" s="27"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>2</v>
       </c>
@@ -14688,7 +14752,7 @@
       <c r="I26" s="47"/>
       <c r="J26" s="27"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>2</v>
       </c>
@@ -14716,7 +14780,7 @@
       </c>
       <c r="J27" s="27"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>2</v>
       </c>
@@ -14742,7 +14806,7 @@
       <c r="I28" s="47"/>
       <c r="J28" s="27"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>2</v>
       </c>
@@ -14770,7 +14834,7 @@
       </c>
       <c r="J29" s="27"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>2</v>
       </c>
@@ -14798,7 +14862,7 @@
       </c>
       <c r="J30" s="27"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>2</v>
       </c>
@@ -14824,7 +14888,7 @@
       <c r="I31" s="47"/>
       <c r="J31" s="27"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>2</v>
       </c>
@@ -14850,7 +14914,7 @@
       <c r="I32" s="47"/>
       <c r="J32" s="27"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
         <v>2</v>
       </c>
@@ -14878,7 +14942,7 @@
       </c>
       <c r="J33" s="27"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>2</v>
       </c>
@@ -14904,7 +14968,7 @@
       <c r="I34" s="47"/>
       <c r="J34" s="27"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
         <v>2</v>
       </c>
@@ -14932,7 +14996,7 @@
       </c>
       <c r="J35" s="27"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
         <v>2</v>
       </c>
@@ -14958,7 +15022,7 @@
       <c r="I36" s="47"/>
       <c r="J36" s="27"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
         <v>2</v>
       </c>
@@ -14986,7 +15050,7 @@
       </c>
       <c r="J37" s="27"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
         <v>2</v>
       </c>
@@ -15012,7 +15076,7 @@
       <c r="I38" s="47"/>
       <c r="J38" s="27"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
         <v>2</v>
       </c>
@@ -15038,7 +15102,7 @@
       <c r="I39" s="47"/>
       <c r="J39" s="27"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
         <v>2</v>
       </c>
@@ -15064,7 +15128,7 @@
       <c r="I40" s="47"/>
       <c r="J40" s="27"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
         <v>2</v>
       </c>
@@ -15092,7 +15156,7 @@
       </c>
       <c r="J41" s="27"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
         <v>2</v>
       </c>
@@ -15120,7 +15184,7 @@
       </c>
       <c r="J42" s="27"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
         <v>2</v>
       </c>
@@ -15146,7 +15210,7 @@
       <c r="I43" s="47"/>
       <c r="J43" s="27"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
         <v>2</v>
       </c>
@@ -15172,7 +15236,7 @@
       <c r="I44" s="47"/>
       <c r="J44" s="27"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
         <v>2</v>
       </c>
@@ -15198,7 +15262,7 @@
       <c r="I45" s="47"/>
       <c r="J45" s="27"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
         <v>2</v>
       </c>
@@ -15224,7 +15288,7 @@
       <c r="I46" s="47"/>
       <c r="J46" s="27"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
         <v>2</v>
       </c>
@@ -15250,7 +15314,7 @@
       <c r="I47" s="47"/>
       <c r="J47" s="27"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
         <v>2</v>
       </c>
@@ -15276,7 +15340,7 @@
       <c r="I48" s="47"/>
       <c r="J48" s="27"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="27" t="s">
         <v>2</v>
       </c>
@@ -15304,7 +15368,7 @@
       </c>
       <c r="J49" s="27"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
         <v>2</v>
       </c>
@@ -15330,7 +15394,7 @@
       <c r="I50" s="47"/>
       <c r="J50" s="27"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="27" t="s">
         <v>2</v>
       </c>
@@ -15358,7 +15422,7 @@
       </c>
       <c r="J51" s="27"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
         <v>2</v>
       </c>
@@ -15384,7 +15448,7 @@
       <c r="I52" s="47"/>
       <c r="J52" s="27"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="27" t="s">
         <v>2</v>
       </c>
@@ -15414,7 +15478,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
         <v>2</v>
       </c>
@@ -15442,7 +15506,7 @@
       </c>
       <c r="J54" s="27"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="27" t="s">
         <v>2</v>
       </c>
@@ -15470,7 +15534,7 @@
       </c>
       <c r="J55" s="27"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
         <v>2</v>
       </c>
@@ -15498,7 +15562,7 @@
       </c>
       <c r="J56" s="27"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="27" t="s">
         <v>2</v>
       </c>
@@ -15526,7 +15590,7 @@
       </c>
       <c r="J57" s="27"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="27" t="s">
         <v>2</v>
       </c>
@@ -15552,7 +15616,7 @@
       <c r="I58" s="47"/>
       <c r="J58" s="27"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="27" t="s">
         <v>2</v>
       </c>
@@ -15578,7 +15642,7 @@
       <c r="I59" s="47"/>
       <c r="J59" s="27"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="27" t="s">
         <v>2</v>
       </c>
@@ -15606,7 +15670,7 @@
       </c>
       <c r="J60" s="27"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="27" t="s">
         <v>2</v>
       </c>
@@ -15634,7 +15698,7 @@
       </c>
       <c r="J61" s="27"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="27" t="s">
         <v>2</v>
       </c>
@@ -15662,7 +15726,7 @@
       </c>
       <c r="J62" s="27"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="27" t="s">
         <v>2</v>
       </c>
@@ -15688,7 +15752,7 @@
       <c r="I63" s="47"/>
       <c r="J63" s="27"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
         <v>2</v>
       </c>
@@ -15714,7 +15778,7 @@
       <c r="I64" s="47"/>
       <c r="J64" s="27"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="27" t="s">
         <v>2</v>
       </c>
@@ -15740,7 +15804,7 @@
       <c r="I65" s="47"/>
       <c r="J65" s="27"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="27" t="s">
         <v>2</v>
       </c>
@@ -15766,7 +15830,7 @@
       <c r="I66" s="47"/>
       <c r="J66" s="27"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="27" t="s">
         <v>2</v>
       </c>
@@ -15792,7 +15856,7 @@
       <c r="I67" s="47"/>
       <c r="J67" s="27"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
         <v>2</v>
       </c>
@@ -15818,7 +15882,7 @@
       <c r="I68" s="47"/>
       <c r="J68" s="27"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="27" t="s">
         <v>2</v>
       </c>
@@ -15844,7 +15908,7 @@
       <c r="I69" s="47"/>
       <c r="J69" s="27"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="27" t="s">
         <v>2</v>
       </c>
@@ -15870,7 +15934,7 @@
       <c r="I70" s="47"/>
       <c r="J70" s="27"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
         <v>2</v>
       </c>
@@ -15898,7 +15962,7 @@
       </c>
       <c r="J71" s="27"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="27" t="s">
         <v>2</v>
       </c>
@@ -15924,7 +15988,7 @@
       <c r="I72" s="47"/>
       <c r="J72" s="27"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="27" t="s">
         <v>2</v>
       </c>
@@ -15950,7 +16014,7 @@
       <c r="I73" s="47"/>
       <c r="J73" s="27"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="27" t="s">
         <v>2</v>
       </c>
@@ -15976,7 +16040,7 @@
       <c r="I74" s="47"/>
       <c r="J74" s="27"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="27" t="s">
         <v>2</v>
       </c>
@@ -16002,7 +16066,7 @@
       <c r="I75" s="47"/>
       <c r="J75" s="27"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="27" t="s">
         <v>2</v>
       </c>
@@ -16028,7 +16092,7 @@
       <c r="I76" s="47"/>
       <c r="J76" s="27"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="27" t="s">
         <v>2</v>
       </c>
@@ -16054,7 +16118,7 @@
       <c r="I77" s="47"/>
       <c r="J77" s="27"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="27" t="s">
         <v>2</v>
       </c>
@@ -16080,7 +16144,7 @@
       <c r="I78" s="47"/>
       <c r="J78" s="27"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="27" t="s">
         <v>2</v>
       </c>
@@ -16106,7 +16170,7 @@
       <c r="I79" s="47"/>
       <c r="J79" s="27"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="27" t="s">
         <v>2</v>
       </c>
@@ -16132,7 +16196,7 @@
       <c r="I80" s="47"/>
       <c r="J80" s="27"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="27" t="s">
         <v>2</v>
       </c>
@@ -16158,7 +16222,7 @@
       <c r="I81" s="47"/>
       <c r="J81" s="27"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="27" t="s">
         <v>2</v>
       </c>
@@ -16184,7 +16248,7 @@
       <c r="I82" s="47"/>
       <c r="J82" s="27"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="27" t="s">
         <v>2</v>
       </c>
@@ -16212,7 +16276,7 @@
       </c>
       <c r="J83" s="27"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="27" t="s">
         <v>2</v>
       </c>
@@ -16240,7 +16304,7 @@
       </c>
       <c r="J84" s="27"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="27" t="s">
         <v>2</v>
       </c>
@@ -16268,7 +16332,7 @@
       </c>
       <c r="J85" s="27"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="27" t="s">
         <v>2</v>
       </c>
@@ -16296,7 +16360,7 @@
       </c>
       <c r="J86" s="27"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="27" t="s">
         <v>2</v>
       </c>
@@ -16324,7 +16388,7 @@
       </c>
       <c r="J87" s="27"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="27" t="s">
         <v>2</v>
       </c>
@@ -16352,7 +16416,7 @@
       </c>
       <c r="J88" s="27"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
         <v>820</v>
       </c>
@@ -16380,7 +16444,7 @@
       </c>
       <c r="J89" s="27"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="27" t="s">
         <v>2</v>
       </c>
@@ -16406,7 +16470,7 @@
       <c r="I90" s="47"/>
       <c r="J90" s="27"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="27" t="s">
         <v>2</v>
       </c>
@@ -16434,7 +16498,7 @@
       </c>
       <c r="J91" s="27"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
         <v>2</v>
       </c>
@@ -16460,7 +16524,7 @@
       <c r="I92" s="47"/>
       <c r="J92" s="27"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="27" t="s">
         <v>2</v>
       </c>
@@ -16486,7 +16550,7 @@
       <c r="I93" s="47"/>
       <c r="J93" s="27"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="27" t="s">
         <v>2</v>
       </c>
@@ -16510,7 +16574,7 @@
       <c r="I94" s="47"/>
       <c r="J94" s="27"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="27" t="s">
         <v>2</v>
       </c>
@@ -16536,7 +16600,7 @@
       </c>
       <c r="J95" s="27"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="27" t="s">
         <v>2</v>
       </c>
@@ -16562,7 +16626,7 @@
       </c>
       <c r="J96" s="27"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="27" t="s">
         <v>2</v>
       </c>
@@ -16586,7 +16650,7 @@
       <c r="I97" s="47"/>
       <c r="J97" s="27"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="27" t="s">
         <v>2</v>
       </c>
@@ -16610,7 +16674,7 @@
       <c r="I98" s="47"/>
       <c r="J98" s="27"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="27" t="s">
         <v>2</v>
       </c>
@@ -16636,7 +16700,7 @@
       </c>
       <c r="J99" s="27"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="27" t="s">
         <v>2</v>
       </c>
@@ -16662,7 +16726,7 @@
       </c>
       <c r="J100" s="27"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="27" t="s">
         <v>2</v>
       </c>
@@ -16686,7 +16750,7 @@
       <c r="I101" s="47"/>
       <c r="J101" s="27"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="27" t="s">
         <v>2</v>
       </c>
@@ -16714,7 +16778,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="27" t="s">
         <v>2</v>
       </c>
@@ -16740,7 +16804,7 @@
       </c>
       <c r="J103" s="27"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="27" t="s">
         <v>2</v>
       </c>
@@ -16766,7 +16830,7 @@
       </c>
       <c r="J104" s="27"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="27" t="s">
         <v>2</v>
       </c>
@@ -16792,7 +16856,7 @@
       </c>
       <c r="J105" s="27"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="27" t="s">
         <v>2</v>
       </c>
@@ -16818,7 +16882,7 @@
       </c>
       <c r="J106" s="27"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="27" t="s">
         <v>2</v>
       </c>
@@ -16844,7 +16908,7 @@
       </c>
       <c r="J107" s="27"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="27" t="s">
         <v>820</v>
       </c>
@@ -16870,7 +16934,7 @@
       </c>
       <c r="J108" s="27"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="27" t="s">
         <v>2</v>
       </c>
@@ -16896,7 +16960,7 @@
       </c>
       <c r="J109" s="27"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="27" t="s">
         <v>2</v>
       </c>
@@ -16920,7 +16984,7 @@
       <c r="I110" s="47"/>
       <c r="J110" s="27"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="27" t="s">
         <v>2</v>
       </c>
@@ -16946,7 +17010,7 @@
       </c>
       <c r="J111" s="27"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="27" t="s">
         <v>2</v>
       </c>
@@ -16972,7 +17036,7 @@
       </c>
       <c r="J112" s="27"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="27" t="s">
         <v>2</v>
       </c>
@@ -16996,7 +17060,7 @@
       <c r="I113" s="47"/>
       <c r="J113" s="27"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="27" t="s">
         <v>2</v>
       </c>
@@ -17020,7 +17084,7 @@
       <c r="I114" s="47"/>
       <c r="J114" s="27"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="27" t="s">
         <v>2</v>
       </c>
@@ -17048,7 +17112,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="27" t="s">
         <v>2</v>
       </c>
@@ -17072,7 +17136,7 @@
       <c r="I116" s="47"/>
       <c r="J116" s="27"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="27" t="s">
         <v>2</v>
       </c>
@@ -17096,7 +17160,7 @@
       <c r="I117" s="47"/>
       <c r="J117" s="27"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="27" t="s">
         <v>2</v>
       </c>
@@ -17124,7 +17188,7 @@
       </c>
       <c r="J118" s="27"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="27" t="s">
         <v>2</v>
       </c>
@@ -17152,7 +17216,7 @@
       </c>
       <c r="J119" s="27"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="27" t="s">
         <v>2</v>
       </c>
@@ -17180,7 +17244,7 @@
       </c>
       <c r="J120" s="27"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="27" t="s">
         <v>2</v>
       </c>
@@ -17208,7 +17272,7 @@
       </c>
       <c r="J121" s="27"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="27" t="s">
         <v>2</v>
       </c>
@@ -17236,7 +17300,7 @@
       </c>
       <c r="J122" s="27"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="27" t="s">
         <v>2</v>
       </c>
@@ -17262,7 +17326,7 @@
       </c>
       <c r="J123" s="27"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="27" t="s">
         <v>2</v>
       </c>
@@ -17288,7 +17352,7 @@
       </c>
       <c r="J124" s="27"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="27" t="s">
         <v>2</v>
       </c>
@@ -17314,7 +17378,7 @@
       </c>
       <c r="J125" s="27"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="27" t="s">
         <v>2</v>
       </c>
@@ -17340,7 +17404,7 @@
       </c>
       <c r="J126" s="27"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="27" t="s">
         <v>2</v>
       </c>
@@ -17366,7 +17430,7 @@
       </c>
       <c r="J127" s="27"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="27" t="s">
         <v>2</v>
       </c>
@@ -17390,7 +17454,7 @@
       <c r="I128" s="47"/>
       <c r="J128" s="27"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="27" t="s">
         <v>2</v>
       </c>
@@ -17414,7 +17478,7 @@
       <c r="I129" s="47"/>
       <c r="J129" s="27"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="27" t="s">
         <v>2</v>
       </c>
@@ -17440,7 +17504,7 @@
       </c>
       <c r="J130" s="27"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="27" t="s">
         <v>2</v>
       </c>
@@ -17464,7 +17528,7 @@
       <c r="I131" s="47"/>
       <c r="J131" s="27"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="27" t="s">
         <v>2</v>
       </c>
@@ -17488,7 +17552,7 @@
       <c r="I132" s="47"/>
       <c r="J132" s="27"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="27" t="s">
         <v>2</v>
       </c>
@@ -17514,7 +17578,7 @@
       </c>
       <c r="J133" s="27"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="27" t="s">
         <v>2</v>
       </c>
@@ -17538,7 +17602,7 @@
       <c r="I134" s="47"/>
       <c r="J134" s="27"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="27" t="s">
         <v>2</v>
       </c>
@@ -17566,7 +17630,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="27" t="s">
         <v>2</v>
       </c>
@@ -17594,7 +17658,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="27" t="s">
         <v>2</v>
       </c>
@@ -17618,7 +17682,7 @@
       <c r="I137" s="47"/>
       <c r="J137" s="27"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="27" t="s">
         <v>2</v>
       </c>
@@ -17644,7 +17708,7 @@
       </c>
       <c r="J138" s="27"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="27" t="s">
         <v>2</v>
       </c>
@@ -17670,7 +17734,7 @@
       </c>
       <c r="J139" s="27"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="27" t="s">
         <v>2</v>
       </c>
@@ -17696,7 +17760,7 @@
       </c>
       <c r="J140" s="27"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="27" t="s">
         <v>2</v>
       </c>
@@ -17722,7 +17786,7 @@
       </c>
       <c r="J141" s="27"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="27" t="s">
         <v>2</v>
       </c>
@@ -17748,7 +17812,7 @@
       </c>
       <c r="J142" s="27"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="27" t="s">
         <v>2</v>
       </c>
@@ -17774,7 +17838,7 @@
       </c>
       <c r="J143" s="27"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="27" t="s">
         <v>2</v>
       </c>
@@ -17798,7 +17862,7 @@
       <c r="I144" s="47"/>
       <c r="J144" s="27"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="27" t="s">
         <v>2</v>
       </c>
@@ -17822,7 +17886,7 @@
       <c r="I145" s="47"/>
       <c r="J145" s="27"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="27" t="s">
         <v>2</v>
       </c>
@@ -17846,7 +17910,7 @@
       <c r="I146" s="47"/>
       <c r="J146" s="27"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="27" t="s">
         <v>2</v>
       </c>
@@ -17876,7 +17940,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="27" t="s">
         <v>2</v>
       </c>
@@ -17902,7 +17966,7 @@
       </c>
       <c r="J148" s="27"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="27" t="s">
         <v>2</v>
       </c>
@@ -17928,7 +17992,7 @@
       </c>
       <c r="J149" s="27"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="27" t="s">
         <v>2</v>
       </c>
@@ -17954,7 +18018,7 @@
       </c>
       <c r="J150" s="27"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="27" t="s">
         <v>2</v>
       </c>
@@ -17980,7 +18044,7 @@
       </c>
       <c r="J151" s="27"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="27" t="s">
         <v>2</v>
       </c>
@@ -18006,7 +18070,7 @@
       </c>
       <c r="J152" s="27"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="27" t="s">
         <v>2</v>
       </c>
@@ -18032,7 +18096,7 @@
       </c>
       <c r="J153" s="27"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="27" t="s">
         <v>2</v>
       </c>
@@ -18058,7 +18122,7 @@
       </c>
       <c r="J154" s="27"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="27" t="s">
         <v>2</v>
       </c>
@@ -18084,7 +18148,7 @@
       </c>
       <c r="J155" s="27"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="27" t="s">
         <v>2</v>
       </c>
@@ -18110,7 +18174,7 @@
       </c>
       <c r="J156" s="27"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="27" t="s">
         <v>2</v>
       </c>
@@ -18136,7 +18200,7 @@
       </c>
       <c r="J157" s="27"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="27" t="s">
         <v>2</v>
       </c>
@@ -18160,7 +18224,7 @@
       <c r="I158" s="47"/>
       <c r="J158" s="27"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="27" t="s">
         <v>2</v>
       </c>
@@ -18184,7 +18248,7 @@
       <c r="I159" s="47"/>
       <c r="J159" s="27"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="27" t="s">
         <v>2</v>
       </c>
@@ -18210,7 +18274,7 @@
       </c>
       <c r="J160" s="27"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="27" t="s">
         <v>2</v>
       </c>
@@ -18238,7 +18302,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="27" t="s">
         <v>2</v>
       </c>
@@ -18266,7 +18330,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="27" t="s">
         <v>2</v>
       </c>
@@ -18294,7 +18358,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="27" t="s">
         <v>2</v>
       </c>
@@ -18320,7 +18384,7 @@
       </c>
       <c r="J164" s="27"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="27" t="s">
         <v>2</v>
       </c>
@@ -18346,7 +18410,7 @@
       </c>
       <c r="J165" s="27"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="27" t="s">
         <v>2</v>
       </c>
@@ -18370,7 +18434,7 @@
       <c r="I166" s="47"/>
       <c r="J166" s="27"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="27" t="s">
         <v>2</v>
       </c>
@@ -18394,7 +18458,7 @@
       <c r="I167" s="47"/>
       <c r="J167" s="27"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="27" t="s">
         <v>2</v>
       </c>
@@ -18420,7 +18484,7 @@
       </c>
       <c r="J168" s="27"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="27" t="s">
         <v>2</v>
       </c>
@@ -18446,7 +18510,7 @@
       </c>
       <c r="J169" s="27"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="27" t="s">
         <v>2</v>
       </c>
@@ -18470,7 +18534,7 @@
       <c r="I170" s="47"/>
       <c r="J170" s="27"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="27" t="s">
         <v>2</v>
       </c>
@@ -18498,7 +18562,7 @@
       </c>
       <c r="J171" s="27"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="27" t="s">
         <v>2</v>
       </c>
@@ -18526,7 +18590,7 @@
       </c>
       <c r="J172" s="27"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="27" t="s">
         <v>2</v>
       </c>
@@ -18554,7 +18618,7 @@
       </c>
       <c r="J173" s="27"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="27" t="s">
         <v>2</v>
       </c>
@@ -18582,7 +18646,7 @@
       </c>
       <c r="J174" s="27"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="27" t="s">
         <v>2</v>
       </c>
@@ -18610,7 +18674,7 @@
       </c>
       <c r="J175" s="27"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="27" t="s">
         <v>2</v>
       </c>
@@ -18636,7 +18700,7 @@
       <c r="I176" s="47"/>
       <c r="J176" s="27"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="27" t="s">
         <v>2</v>
       </c>
@@ -18664,7 +18728,7 @@
       </c>
       <c r="J177" s="27"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="27" t="s">
         <v>2</v>
       </c>
@@ -18692,7 +18756,7 @@
       </c>
       <c r="J178" s="27"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="27" t="s">
         <v>2</v>
       </c>
@@ -18716,7 +18780,7 @@
       <c r="I179" s="47"/>
       <c r="J179" s="27"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="27" t="s">
         <v>2</v>
       </c>
@@ -18744,7 +18808,7 @@
       </c>
       <c r="J180" s="27"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="27" t="s">
         <v>2</v>
       </c>
@@ -18772,7 +18836,7 @@
       </c>
       <c r="J181" s="27"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="27" t="s">
         <v>2</v>
       </c>
@@ -18798,7 +18862,7 @@
       </c>
       <c r="J182" s="27"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="27" t="s">
         <v>2</v>
       </c>
@@ -18824,7 +18888,7 @@
       </c>
       <c r="J183" s="27"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="27" t="s">
         <v>2</v>
       </c>
@@ -18850,7 +18914,7 @@
       </c>
       <c r="J184" s="27"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="27" t="s">
         <v>2</v>
       </c>
@@ -18876,7 +18940,7 @@
       </c>
       <c r="J185" s="27"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="27" t="s">
         <v>2</v>
       </c>
@@ -18900,7 +18964,7 @@
       <c r="I186" s="47"/>
       <c r="J186" s="27"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="27" t="s">
         <v>2</v>
       </c>
@@ -18924,7 +18988,7 @@
       <c r="I187" s="47"/>
       <c r="J187" s="27"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="27" t="s">
         <v>2</v>
       </c>
@@ -18948,7 +19012,7 @@
       <c r="I188" s="47"/>
       <c r="J188" s="27"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="27" t="s">
         <v>2</v>
       </c>
@@ -18972,7 +19036,7 @@
       <c r="I189" s="47"/>
       <c r="J189" s="27"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="27" t="s">
         <v>2</v>
       </c>
@@ -18996,7 +19060,7 @@
       <c r="I190" s="47"/>
       <c r="J190" s="27"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="27" t="s">
         <v>2</v>
       </c>
@@ -19022,7 +19086,7 @@
       </c>
       <c r="J191" s="27"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="27" t="s">
         <v>2</v>
       </c>
@@ -19048,7 +19112,7 @@
       </c>
       <c r="J192" s="27"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="27" t="s">
         <v>2</v>
       </c>
@@ -19074,7 +19138,7 @@
       </c>
       <c r="J193" s="27"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="27" t="s">
         <v>2</v>
       </c>
@@ -19098,7 +19162,7 @@
       <c r="I194" s="47"/>
       <c r="J194" s="27"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="27" t="s">
         <v>2</v>
       </c>
@@ -19122,7 +19186,7 @@
       <c r="I195" s="47"/>
       <c r="J195" s="27"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="27" t="s">
         <v>2</v>
       </c>
@@ -19148,7 +19212,7 @@
       </c>
       <c r="J196" s="27"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="27" t="s">
         <v>2</v>
       </c>
@@ -19172,7 +19236,7 @@
       <c r="I197" s="47"/>
       <c r="J197" s="27"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="27" t="s">
         <v>2</v>
       </c>
@@ -19198,7 +19262,7 @@
       </c>
       <c r="J198" s="27"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="27" t="s">
         <v>2</v>
       </c>
@@ -19224,7 +19288,7 @@
       </c>
       <c r="J199" s="27"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="27" t="s">
         <v>2</v>
       </c>
@@ -19250,7 +19314,7 @@
       </c>
       <c r="J200" s="27"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="27" t="s">
         <v>2</v>
       </c>
@@ -19276,7 +19340,7 @@
       </c>
       <c r="J201" s="27"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="27" t="s">
         <v>2</v>
       </c>
@@ -19302,7 +19366,7 @@
       </c>
       <c r="J202" s="27"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="27" t="s">
         <v>2</v>
       </c>
@@ -19328,7 +19392,7 @@
       </c>
       <c r="J203" s="27"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="27" t="s">
         <v>2</v>
       </c>
@@ -19354,7 +19418,7 @@
       </c>
       <c r="J204" s="27"/>
     </row>
-    <row r="205" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="27" t="s">
         <v>2</v>
       </c>
@@ -19380,7 +19444,7 @@
       </c>
       <c r="J205" s="27"/>
     </row>
-    <row r="206" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="27" t="s">
         <v>2</v>
       </c>
@@ -19406,7 +19470,7 @@
       </c>
       <c r="J206" s="27"/>
     </row>
-    <row r="207" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="27" t="s">
         <v>2</v>
       </c>
@@ -19432,7 +19496,7 @@
       </c>
       <c r="J207" s="27"/>
     </row>
-    <row r="208" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="27" t="s">
         <v>2</v>
       </c>
@@ -19458,7 +19522,7 @@
       </c>
       <c r="J208" s="27"/>
     </row>
-    <row r="209" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="27" t="s">
         <v>2</v>
       </c>
@@ -19484,7 +19548,7 @@
       </c>
       <c r="J209" s="27"/>
     </row>
-    <row r="210" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="27" t="s">
         <v>2</v>
       </c>
@@ -19510,7 +19574,7 @@
       </c>
       <c r="J210" s="27"/>
     </row>
-    <row r="211" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="27" t="s">
         <v>2</v>
       </c>
@@ -19536,7 +19600,7 @@
       </c>
       <c r="J211" s="27"/>
     </row>
-    <row r="212" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="27" t="s">
         <v>2</v>
       </c>
@@ -19562,7 +19626,7 @@
       </c>
       <c r="J212" s="27"/>
     </row>
-    <row r="213" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="27" t="s">
         <v>2</v>
       </c>
@@ -19588,7 +19652,7 @@
       </c>
       <c r="J213" s="27"/>
     </row>
-    <row r="214" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="27" t="s">
         <v>820</v>
       </c>
@@ -19614,7 +19678,7 @@
       </c>
       <c r="J214" s="27"/>
     </row>
-    <row r="215" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="27" t="s">
         <v>2</v>
       </c>
@@ -19640,7 +19704,7 @@
       </c>
       <c r="J215" s="27"/>
     </row>
-    <row r="216" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="27" t="s">
         <v>2</v>
       </c>
@@ -19664,7 +19728,7 @@
       <c r="I216" s="47"/>
       <c r="J216" s="27"/>
     </row>
-    <row r="217" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="27" t="s">
         <v>2</v>
       </c>
@@ -19688,7 +19752,7 @@
       <c r="I217" s="47"/>
       <c r="J217" s="27"/>
     </row>
-    <row r="218" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="27" t="s">
         <v>2</v>
       </c>
@@ -19712,7 +19776,7 @@
       <c r="I218" s="47"/>
       <c r="J218" s="27"/>
     </row>
-    <row r="219" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="27" t="s">
         <v>2</v>
       </c>
@@ -19736,7 +19800,7 @@
       <c r="I219" s="47"/>
       <c r="J219" s="27"/>
     </row>
-    <row r="220" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="27" t="s">
         <v>2</v>
       </c>
@@ -19760,7 +19824,7 @@
       <c r="I220" s="47"/>
       <c r="J220" s="27"/>
     </row>
-    <row r="221" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="27" t="s">
         <v>2</v>
       </c>
@@ -19784,7 +19848,7 @@
       <c r="I221" s="47"/>
       <c r="J221" s="27"/>
     </row>
-    <row r="222" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="27" t="s">
         <v>2</v>
       </c>
@@ -19808,7 +19872,7 @@
       <c r="I222" s="47"/>
       <c r="J222" s="27"/>
     </row>
-    <row r="223" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="27" t="s">
         <v>2</v>
       </c>
@@ -19832,7 +19896,7 @@
       <c r="I223" s="47"/>
       <c r="J223" s="27"/>
     </row>
-    <row r="224" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="27" t="s">
         <v>2</v>
       </c>
@@ -19856,7 +19920,7 @@
       <c r="I224" s="47"/>
       <c r="J224" s="27"/>
     </row>
-    <row r="225" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="27" t="s">
         <v>2</v>
       </c>
@@ -19882,7 +19946,7 @@
       </c>
       <c r="J225" s="27"/>
     </row>
-    <row r="226" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="27" t="s">
         <v>2</v>
       </c>
@@ -19908,7 +19972,7 @@
       </c>
       <c r="J226" s="27"/>
     </row>
-    <row r="227" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="27" t="s">
         <v>2</v>
       </c>
@@ -19934,7 +19998,7 @@
       </c>
       <c r="J227" s="27"/>
     </row>
-    <row r="228" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="27" t="s">
         <v>2</v>
       </c>
@@ -19960,7 +20024,7 @@
       </c>
       <c r="J228" s="27"/>
     </row>
-    <row r="229" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="27" t="s">
         <v>2</v>
       </c>
@@ -19988,7 +20052,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="230" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="27" t="s">
         <v>2</v>
       </c>
@@ -20016,7 +20080,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="231" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="27" t="s">
         <v>2</v>
       </c>
@@ -20044,7 +20108,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="232" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="27" t="s">
         <v>591</v>
       </c>
@@ -20072,7 +20136,7 @@
       </c>
       <c r="J232" s="27"/>
     </row>
-    <row r="233" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="27" t="s">
         <v>668</v>
       </c>
@@ -20100,7 +20164,7 @@
       </c>
       <c r="J233" s="27"/>
     </row>
-    <row r="234" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="27" t="s">
         <v>35</v>
       </c>
@@ -20128,7 +20192,7 @@
       </c>
       <c r="J234" s="27"/>
     </row>
-    <row r="235" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="27" t="s">
         <v>35</v>
       </c>
@@ -20154,7 +20218,7 @@
       </c>
       <c r="J235" s="27"/>
     </row>
-    <row r="236" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="27" t="s">
         <v>35</v>
       </c>
@@ -20180,7 +20244,7 @@
       </c>
       <c r="J236" s="27"/>
     </row>
-    <row r="237" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="27" t="s">
         <v>35</v>
       </c>
@@ -20206,7 +20270,7 @@
       </c>
       <c r="J237" s="27"/>
     </row>
-    <row r="238" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="27" t="s">
         <v>35</v>
       </c>
@@ -20232,7 +20296,7 @@
       </c>
       <c r="J238" s="27"/>
     </row>
-    <row r="239" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="27" t="s">
         <v>786</v>
       </c>
@@ -20256,7 +20320,7 @@
       <c r="I239" s="47"/>
       <c r="J239" s="27"/>
     </row>
-    <row r="240" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="27" t="s">
         <v>49</v>
       </c>
@@ -20282,7 +20346,7 @@
       </c>
       <c r="J240" s="27"/>
     </row>
-    <row r="241" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="27" t="s">
         <v>34</v>
       </c>
@@ -20312,7 +20376,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="27" t="s">
         <v>34</v>
       </c>
@@ -20344,7 +20408,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="243" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="27" t="s">
         <v>34</v>
       </c>
@@ -20374,7 +20438,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="244" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="27" t="s">
         <v>34</v>
       </c>
@@ -20404,7 +20468,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="27" t="s">
         <v>34</v>
       </c>
@@ -20434,7 +20498,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="27" t="s">
         <v>34</v>
       </c>
@@ -20464,7 +20528,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="27" t="s">
         <v>34</v>
       </c>
@@ -20494,7 +20558,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="27" t="s">
         <v>34</v>
       </c>
@@ -20524,7 +20588,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="27" t="s">
         <v>34</v>
       </c>
@@ -20554,7 +20618,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="27" t="s">
         <v>34</v>
       </c>
@@ -20586,7 +20650,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="27" t="s">
         <v>34</v>
       </c>
@@ -20616,7 +20680,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="27" t="s">
         <v>34</v>
       </c>
@@ -20646,7 +20710,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="253" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="27" t="s">
         <v>34</v>
       </c>
@@ -20676,7 +20740,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="27" t="s">
         <v>34</v>
       </c>
@@ -20706,7 +20770,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="27" t="s">
         <v>34</v>
       </c>
@@ -20736,7 +20800,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="27" t="s">
         <v>34</v>
       </c>
@@ -20766,7 +20830,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="27" t="s">
         <v>34</v>
       </c>
@@ -20796,7 +20860,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="27" t="s">
         <v>34</v>
       </c>
@@ -20828,7 +20892,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="27" t="s">
         <v>34</v>
       </c>
@@ -20860,7 +20924,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="27" t="s">
         <v>34</v>
       </c>
@@ -20892,7 +20956,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="27" t="s">
         <v>34</v>
       </c>
@@ -20924,7 +20988,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="27" t="s">
         <v>34</v>
       </c>
@@ -20956,7 +21020,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="27" t="s">
         <v>34</v>
       </c>
@@ -20984,7 +21048,7 @@
       </c>
       <c r="J263" s="27"/>
     </row>
-    <row r="264" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="27" t="s">
         <v>34</v>
       </c>
@@ -21012,7 +21076,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="27" t="s">
         <v>34</v>
       </c>
@@ -21040,7 +21104,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="27" t="s">
         <v>34</v>
       </c>
@@ -21068,7 +21132,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="27" t="s">
         <v>34</v>
       </c>
@@ -21098,7 +21162,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="27" t="s">
         <v>34</v>
       </c>
@@ -21128,7 +21192,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="27" t="s">
         <v>34</v>
       </c>
@@ -21158,7 +21222,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="27" t="s">
         <v>34</v>
       </c>
@@ -21188,7 +21252,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="27" t="s">
         <v>34</v>
       </c>
@@ -21218,7 +21282,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="27" t="s">
         <v>34</v>
       </c>
@@ -21248,7 +21312,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="27" t="s">
         <v>34</v>
       </c>
@@ -21278,7 +21342,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="27" t="s">
         <v>34</v>
       </c>
@@ -21308,7 +21372,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="27" t="s">
         <v>34</v>
       </c>
@@ -21338,7 +21402,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="27" t="s">
         <v>34</v>
       </c>
@@ -21368,7 +21432,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="27" t="s">
         <v>34</v>
       </c>
@@ -21398,7 +21462,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="278" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="27" t="s">
         <v>34</v>
       </c>
@@ -21428,7 +21492,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="279" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="27" t="s">
         <v>34</v>
       </c>
@@ -21458,7 +21522,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="27" t="s">
         <v>34</v>
       </c>
@@ -21488,7 +21552,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="27" t="s">
         <v>34</v>
       </c>
@@ -21518,7 +21582,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="27" t="s">
         <v>34</v>
       </c>
@@ -21548,7 +21612,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="27" t="s">
         <v>34</v>
       </c>
@@ -21578,7 +21642,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="27" t="s">
         <v>34</v>
       </c>
@@ -21608,7 +21672,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="285" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="27" t="s">
         <v>34</v>
       </c>
@@ -21638,7 +21702,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="286" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="27" t="s">
         <v>34</v>
       </c>
@@ -21668,7 +21732,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="27" t="s">
         <v>34</v>
       </c>
@@ -21698,7 +21762,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="288" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="27" t="s">
         <v>34</v>
       </c>
@@ -21728,7 +21792,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="289" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="27" t="s">
         <v>34</v>
       </c>
@@ -21758,7 +21822,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="290" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="27" t="s">
         <v>34</v>
       </c>
@@ -21788,7 +21852,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="27" t="s">
         <v>34</v>
       </c>
@@ -21818,7 +21882,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="27" t="s">
         <v>34</v>
       </c>
@@ -21848,7 +21912,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="27" t="s">
         <v>34</v>
       </c>
@@ -21878,7 +21942,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="27" t="s">
         <v>34</v>
       </c>
@@ -21908,7 +21972,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="27" t="s">
         <v>34</v>
       </c>
@@ -21938,7 +22002,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="27" t="s">
         <v>34</v>
       </c>
@@ -21968,7 +22032,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="27" t="s">
         <v>34</v>
       </c>
@@ -21998,7 +22062,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="27" t="s">
         <v>34</v>
       </c>
@@ -22028,7 +22092,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="27" t="s">
         <v>34</v>
       </c>
@@ -22058,7 +22122,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="27" t="s">
         <v>34</v>
       </c>
@@ -22088,7 +22152,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="301" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="27" t="s">
         <v>34</v>
       </c>
@@ -22118,7 +22182,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="27" t="s">
         <v>34</v>
       </c>
@@ -22148,7 +22212,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="27" t="s">
         <v>34</v>
       </c>
@@ -22178,7 +22242,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="27" t="s">
         <v>34</v>
       </c>
@@ -22208,7 +22272,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="27" t="s">
         <v>34</v>
       </c>
@@ -22238,7 +22302,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="27" t="s">
         <v>34</v>
       </c>
@@ -22268,7 +22332,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="27" t="s">
         <v>34</v>
       </c>
@@ -22298,7 +22362,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="308" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="27" t="s">
         <v>34</v>
       </c>
@@ -22328,7 +22392,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="27" t="s">
         <v>34</v>
       </c>
@@ -22358,7 +22422,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="27" t="s">
         <v>34</v>
       </c>
@@ -22388,7 +22452,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="27" t="s">
         <v>34</v>
       </c>
@@ -22418,7 +22482,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="27" t="s">
         <v>34</v>
       </c>
@@ -22448,7 +22512,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="27" t="s">
         <v>34</v>
       </c>
@@ -22478,7 +22542,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="314" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="27" t="s">
         <v>34</v>
       </c>
@@ -22508,7 +22572,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="315" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="27" t="s">
         <v>34</v>
       </c>
@@ -22538,7 +22602,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="316" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="27" t="s">
         <v>34</v>
       </c>
@@ -22568,7 +22632,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="317" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="27" t="s">
         <v>34</v>
       </c>
@@ -22598,7 +22662,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="27" t="s">
         <v>34</v>
       </c>
@@ -22628,7 +22692,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="27" t="s">
         <v>34</v>
       </c>
@@ -22658,7 +22722,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="320" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="27" t="s">
         <v>34</v>
       </c>
@@ -22688,7 +22752,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="321" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="27" t="s">
         <v>34</v>
       </c>
@@ -22718,7 +22782,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="27" t="s">
         <v>34</v>
       </c>
@@ -22748,7 +22812,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="323" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="27" t="s">
         <v>34</v>
       </c>
@@ -22778,7 +22842,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="324" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="27" t="s">
         <v>34</v>
       </c>
@@ -22808,7 +22872,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="325" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="27" t="s">
         <v>34</v>
       </c>
@@ -22838,7 +22902,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="326" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="27" t="s">
         <v>34</v>
       </c>
@@ -22868,7 +22932,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="327" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="27" t="s">
         <v>34</v>
       </c>
@@ -22898,7 +22962,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="328" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="27" t="s">
         <v>34</v>
       </c>
@@ -22928,7 +22992,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="329" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="27" t="s">
         <v>34</v>
       </c>
@@ -22958,7 +23022,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="330" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="27" t="s">
         <v>34</v>
       </c>
@@ -22988,7 +23052,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="27" t="s">
         <v>34</v>
       </c>
@@ -23018,7 +23082,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="332" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="27" t="s">
         <v>34</v>
       </c>
@@ -23048,7 +23112,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="27" t="s">
         <v>34</v>
       </c>
@@ -23078,7 +23142,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="334" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="27" t="s">
         <v>34</v>
       </c>
@@ -23108,7 +23172,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="335" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="27" t="s">
         <v>34</v>
       </c>
@@ -23138,7 +23202,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="336" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="27" t="s">
         <v>34</v>
       </c>
@@ -23168,7 +23232,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="337" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="27" t="s">
         <v>34</v>
       </c>
@@ -23198,7 +23262,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="27" t="s">
         <v>34</v>
       </c>
@@ -23228,7 +23292,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="339" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="27" t="s">
         <v>34</v>
       </c>
@@ -23258,7 +23322,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="340" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="27" t="s">
         <v>34</v>
       </c>
@@ -23288,7 +23352,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="341" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="27" t="s">
         <v>34</v>
       </c>
@@ -23318,7 +23382,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="342" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="27" t="s">
         <v>34</v>
       </c>
@@ -23348,7 +23412,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="343" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="27" t="s">
         <v>34</v>
       </c>
@@ -23378,7 +23442,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="344" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="27" t="s">
         <v>34</v>
       </c>
@@ -23408,7 +23472,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="345" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="27" t="s">
         <v>34</v>
       </c>
@@ -23438,7 +23502,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="346" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="27" t="s">
         <v>34</v>
       </c>
@@ -23468,7 +23532,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="347" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="27" t="s">
         <v>34</v>
       </c>
@@ -23498,7 +23562,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="348" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="27" t="s">
         <v>34</v>
       </c>
@@ -23528,7 +23592,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="349" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="27" t="s">
         <v>34</v>
       </c>
@@ -23558,7 +23622,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="350" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="27" t="s">
         <v>34</v>
       </c>
@@ -23588,7 +23652,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="351" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="27" t="s">
         <v>34</v>
       </c>
@@ -23618,7 +23682,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="352" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="27" t="s">
         <v>34</v>
       </c>
@@ -23648,7 +23712,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="353" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="27" t="s">
         <v>34</v>
       </c>
@@ -23678,7 +23742,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="354" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="27" t="s">
         <v>34</v>
       </c>
@@ -23708,7 +23772,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="355" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="27" t="s">
         <v>34</v>
       </c>
@@ -23738,7 +23802,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="356" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="27" t="s">
         <v>34</v>
       </c>
@@ -23768,7 +23832,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="357" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="27" t="s">
         <v>34</v>
       </c>
@@ -23798,7 +23862,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="358" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="27" t="s">
         <v>34</v>
       </c>
@@ -23828,7 +23892,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="359" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="27" t="s">
         <v>34</v>
       </c>
@@ -23858,7 +23922,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="360" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="27" t="s">
         <v>34</v>
       </c>
@@ -23884,7 +23948,7 @@
       </c>
       <c r="J360" s="27"/>
     </row>
-    <row r="361" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="27" t="s">
         <v>34</v>
       </c>
@@ -23912,7 +23976,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="362" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="27" t="s">
         <v>34</v>
       </c>
@@ -23940,7 +24004,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="363" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="27" t="s">
         <v>34</v>
       </c>
@@ -23970,7 +24034,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="364" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="27" t="s">
         <v>34</v>
       </c>
@@ -24000,7 +24064,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="365" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="27" t="s">
         <v>34</v>
       </c>
@@ -24030,7 +24094,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="366" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="27" t="s">
         <v>34</v>
       </c>
@@ -24060,7 +24124,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="367" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="27" t="s">
         <v>34</v>
       </c>
@@ -24090,7 +24154,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="368" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="27" t="s">
         <v>34</v>
       </c>
@@ -24120,7 +24184,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="369" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="27" t="s">
         <v>34</v>
       </c>
@@ -24150,7 +24214,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="370" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="27" t="s">
         <v>34</v>
       </c>
@@ -24180,7 +24244,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="371" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="27" t="s">
         <v>34</v>
       </c>
@@ -24210,7 +24274,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="372" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="27" t="s">
         <v>34</v>
       </c>
@@ -24240,7 +24304,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="373" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="27" t="s">
         <v>34</v>
       </c>
@@ -24270,7 +24334,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="374" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="27" t="s">
         <v>34</v>
       </c>
@@ -24300,7 +24364,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="375" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="27" t="s">
         <v>34</v>
       </c>
@@ -24330,7 +24394,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="376" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="27" t="s">
         <v>34</v>
       </c>
@@ -24360,7 +24424,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="377" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="27" t="s">
         <v>34</v>
       </c>
@@ -24390,7 +24454,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="378" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="27" t="s">
         <v>34</v>
       </c>
@@ -24420,7 +24484,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="379" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="27" t="s">
         <v>34</v>
       </c>
@@ -24450,7 +24514,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="380" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="27" t="s">
         <v>34</v>
       </c>
@@ -24478,7 +24542,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="381" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="27" t="s">
         <v>34</v>
       </c>
@@ -24506,7 +24570,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="382" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="27" t="s">
         <v>34</v>
       </c>
@@ -24536,7 +24600,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="383" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="27" t="s">
         <v>34</v>
       </c>
@@ -24566,7 +24630,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="384" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="27" t="s">
         <v>34</v>
       </c>
@@ -24596,7 +24660,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="385" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="27" t="s">
         <v>34</v>
       </c>
@@ -24626,7 +24690,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="386" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="27" t="s">
         <v>34</v>
       </c>
@@ -24656,7 +24720,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="387" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="27" t="s">
         <v>34</v>
       </c>
@@ -24686,7 +24750,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="388" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="27" t="s">
         <v>34</v>
       </c>
@@ -24716,7 +24780,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="389" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="27" t="s">
         <v>34</v>
       </c>
@@ -24746,7 +24810,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="390" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="27" t="s">
         <v>34</v>
       </c>
@@ -24776,7 +24840,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="391" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="27" t="s">
         <v>34</v>
       </c>
@@ -24806,7 +24870,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="392" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="27" t="s">
         <v>34</v>
       </c>
@@ -24836,7 +24900,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="393" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="27" t="s">
         <v>34</v>
       </c>
@@ -24866,7 +24930,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="394" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="27" t="s">
         <v>34</v>
       </c>
@@ -24896,7 +24960,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="395" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="27" t="s">
         <v>34</v>
       </c>
@@ -24924,7 +24988,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="396" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="27" t="s">
         <v>34</v>
       </c>
@@ -24954,7 +25018,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="397" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="27" t="s">
         <v>34</v>
       </c>
@@ -24984,7 +25048,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="398" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="27" t="s">
         <v>34</v>
       </c>
@@ -25014,7 +25078,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="399" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="27" t="s">
         <v>34</v>
       </c>
@@ -25044,7 +25108,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="400" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="27" t="s">
         <v>34</v>
       </c>
@@ -25074,7 +25138,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="401" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="27" t="s">
         <v>34</v>
       </c>
@@ -25104,7 +25168,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="402" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="27" t="s">
         <v>34</v>
       </c>
@@ -25134,7 +25198,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="403" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="27" t="s">
         <v>34</v>
       </c>
@@ -25164,7 +25228,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="404" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="27" t="s">
         <v>34</v>
       </c>
@@ -25194,7 +25258,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="405" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="27" t="s">
         <v>34</v>
       </c>
@@ -25224,7 +25288,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="406" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="27" t="s">
         <v>34</v>
       </c>
@@ -25254,7 +25318,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="407" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="27" t="s">
         <v>34</v>
       </c>
@@ -25284,7 +25348,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="408" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="27" t="s">
         <v>34</v>
       </c>
@@ -25314,7 +25378,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="409" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="27" t="s">
         <v>34</v>
       </c>
@@ -25344,7 +25408,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="410" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="27" t="s">
         <v>34</v>
       </c>
@@ -25374,7 +25438,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="411" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="27" t="s">
         <v>34</v>
       </c>
@@ -25404,7 +25468,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="412" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="27" t="s">
         <v>34</v>
       </c>
@@ -25434,7 +25498,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="413" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="27" t="s">
         <v>34</v>
       </c>
@@ -25464,7 +25528,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="414" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="27" t="s">
         <v>34</v>
       </c>
@@ -25494,7 +25558,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="415" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="27" t="s">
         <v>34</v>
       </c>
@@ -25524,7 +25588,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="416" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="27" t="s">
         <v>34</v>
       </c>
@@ -25554,7 +25618,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="417" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="27" t="s">
         <v>34</v>
       </c>
@@ -25584,7 +25648,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="418" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="27" t="s">
         <v>34</v>
       </c>
@@ -25614,7 +25678,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="419" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="27" t="s">
         <v>34</v>
       </c>
@@ -25644,7 +25708,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="420" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="27" t="s">
         <v>34</v>
       </c>
@@ -25674,7 +25738,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="421" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="27" t="s">
         <v>34</v>
       </c>
@@ -25704,7 +25768,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="422" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="27" t="s">
         <v>34</v>
       </c>
@@ -25734,7 +25798,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="423" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="27" t="s">
         <v>34</v>
       </c>
@@ -25764,7 +25828,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="424" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="27" t="s">
         <v>34</v>
       </c>
@@ -25794,7 +25858,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="425" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="27" t="s">
         <v>34</v>
       </c>
@@ -25824,7 +25888,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="426" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="27" t="s">
         <v>34</v>
       </c>
@@ -25854,7 +25918,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="427" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="27" t="s">
         <v>34</v>
       </c>
@@ -25884,7 +25948,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="428" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="27" t="s">
         <v>34</v>
       </c>
@@ -25914,7 +25978,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="429" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="27" t="s">
         <v>34</v>
       </c>
@@ -25944,7 +26008,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="430" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="27" t="s">
         <v>34</v>
       </c>
@@ -25974,7 +26038,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="431" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="27" t="s">
         <v>34</v>
       </c>
@@ -26004,7 +26068,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="432" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="27" t="s">
         <v>34</v>
       </c>
@@ -26034,7 +26098,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="433" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="27" t="s">
         <v>34</v>
       </c>
@@ -26064,7 +26128,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="434" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="27" t="s">
         <v>34</v>
       </c>
@@ -26094,7 +26158,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="435" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="27" t="s">
         <v>34</v>
       </c>
@@ -26124,7 +26188,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="436" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="27" t="s">
         <v>34</v>
       </c>
@@ -26154,7 +26218,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="437" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="27" t="s">
         <v>34</v>
       </c>
@@ -26184,7 +26248,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="438" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="27" t="s">
         <v>34</v>
       </c>
@@ -26214,7 +26278,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="439" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="27" t="s">
         <v>34</v>
       </c>
@@ -26244,7 +26308,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="440" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="27" t="s">
         <v>34</v>
       </c>
@@ -26274,7 +26338,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="441" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="27" t="s">
         <v>34</v>
       </c>
@@ -26304,7 +26368,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="442" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="27" t="s">
         <v>34</v>
       </c>
@@ -26334,7 +26398,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="443" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="27" t="s">
         <v>34</v>
       </c>
@@ -26364,7 +26428,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="444" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="27" t="s">
         <v>34</v>
       </c>
@@ -26392,7 +26456,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="445" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="27" t="s">
         <v>34</v>
       </c>
@@ -26420,7 +26484,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="446" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="27" t="s">
         <v>34</v>
       </c>
@@ -26448,7 +26512,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="447" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="27" t="s">
         <v>34</v>
       </c>
@@ -26478,7 +26542,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="448" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="27" t="s">
         <v>34</v>
       </c>
@@ -26508,7 +26572,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="449" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="27" t="s">
         <v>34</v>
       </c>
@@ -26538,7 +26602,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="450" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="27" t="s">
         <v>34</v>
       </c>
@@ -26566,7 +26630,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="451" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="27" t="s">
         <v>34</v>
       </c>
@@ -26596,7 +26660,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="452" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="27" t="s">
         <v>34</v>
       </c>
@@ -26626,7 +26690,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="453" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="27" t="s">
         <v>34</v>
       </c>
@@ -26656,7 +26720,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="454" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="27" t="s">
         <v>34</v>
       </c>
@@ -26686,7 +26750,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="455" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="27" t="s">
         <v>34</v>
       </c>
@@ -26716,7 +26780,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="456" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="27" t="s">
         <v>34</v>
       </c>
@@ -26746,7 +26810,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="457" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="27" t="s">
         <v>34</v>
       </c>
@@ -26776,7 +26840,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="458" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="27" t="s">
         <v>34</v>
       </c>
@@ -26806,7 +26870,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="459" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="27" t="s">
         <v>34</v>
       </c>
@@ -26836,7 +26900,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="460" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="27" t="s">
         <v>34</v>
       </c>
@@ -26866,7 +26930,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="461" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="27" t="s">
         <v>34</v>
       </c>
@@ -26896,7 +26960,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="462" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="27" t="s">
         <v>34</v>
       </c>
@@ -26926,7 +26990,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="463" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="27" t="s">
         <v>34</v>
       </c>
@@ -26956,7 +27020,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="464" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="27" t="s">
         <v>34</v>
       </c>
@@ -26986,7 +27050,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="465" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="27" t="s">
         <v>34</v>
       </c>
@@ -27016,7 +27080,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="466" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="27" t="s">
         <v>34</v>
       </c>
@@ -27046,7 +27110,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="467" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="27" t="s">
         <v>34</v>
       </c>
@@ -27076,7 +27140,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="468" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="27" t="s">
         <v>34</v>
       </c>
@@ -27106,7 +27170,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="469" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="27" t="s">
         <v>34</v>
       </c>
@@ -27136,7 +27200,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="470" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="27" t="s">
         <v>34</v>
       </c>
@@ -27166,7 +27230,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="471" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="27" t="s">
         <v>34</v>
       </c>
@@ -27196,7 +27260,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="472" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="27" t="s">
         <v>34</v>
       </c>
@@ -27226,7 +27290,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="473" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="27" t="s">
         <v>34</v>
       </c>
@@ -27256,7 +27320,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="474" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="27" t="s">
         <v>34</v>
       </c>
@@ -27286,7 +27350,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="475" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="27" t="s">
         <v>34</v>
       </c>
@@ -27316,7 +27380,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="476" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="27" t="s">
         <v>34</v>
       </c>
@@ -27346,7 +27410,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="477" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="27" t="s">
         <v>34</v>
       </c>
@@ -27376,7 +27440,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="478" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="27" t="s">
         <v>34</v>
       </c>
@@ -27406,7 +27470,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="479" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="27" t="s">
         <v>34</v>
       </c>
@@ -27436,7 +27500,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="480" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="27" t="s">
         <v>34</v>
       </c>
@@ -27466,7 +27530,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="481" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="27" t="s">
         <v>34</v>
       </c>
@@ -27496,7 +27560,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="482" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="27" t="s">
         <v>34</v>
       </c>
@@ -27526,7 +27590,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="483" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="27" t="s">
         <v>34</v>
       </c>
@@ -27556,7 +27620,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="484" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="27" t="s">
         <v>34</v>
       </c>
@@ -27586,7 +27650,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="485" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="27" t="s">
         <v>34</v>
       </c>
@@ -27616,7 +27680,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="486" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="27" t="s">
         <v>34</v>
       </c>
@@ -27646,7 +27710,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="487" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="27" t="s">
         <v>34</v>
       </c>
@@ -27676,7 +27740,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="488" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="27" t="s">
         <v>34</v>
       </c>
@@ -27706,7 +27770,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="489" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="27" t="s">
         <v>34</v>
       </c>
@@ -27734,7 +27798,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="490" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="27" t="s">
         <v>34</v>
       </c>
@@ -27764,7 +27828,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="491" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="27" t="s">
         <v>34</v>
       </c>
@@ -27794,7 +27858,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="492" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="27" t="s">
         <v>34</v>
       </c>
@@ -27824,7 +27888,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="493" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="27" t="s">
         <v>34</v>
       </c>
@@ -27854,7 +27918,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="494" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="27" t="s">
         <v>34</v>
       </c>
@@ -27884,7 +27948,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="495" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="27" t="s">
         <v>34</v>
       </c>
@@ -27914,7 +27978,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="496" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="27" t="s">
         <v>34</v>
       </c>
@@ -27944,7 +28008,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="497" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="27" t="s">
         <v>34</v>
       </c>
@@ -27974,7 +28038,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="498" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="27" t="s">
         <v>34</v>
       </c>
@@ -28004,7 +28068,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="499" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="27" t="s">
         <v>34</v>
       </c>
@@ -28034,7 +28098,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="500" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="27" t="s">
         <v>34</v>
       </c>
@@ -28064,7 +28128,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="501" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="27" t="s">
         <v>34</v>
       </c>
@@ -28094,7 +28158,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="502" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="27" t="s">
         <v>34</v>
       </c>
@@ -28124,7 +28188,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="503" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="27" t="s">
         <v>34</v>
       </c>
@@ -28154,7 +28218,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="504" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="27" t="s">
         <v>34</v>
       </c>
@@ -28184,7 +28248,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="505" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="27" t="s">
         <v>34</v>
       </c>
@@ -28214,7 +28278,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="506" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="27" t="s">
         <v>34</v>
       </c>
@@ -28244,7 +28308,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="507" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="27" t="s">
         <v>34</v>
       </c>
@@ -28274,7 +28338,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="508" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="27" t="s">
         <v>34</v>
       </c>
@@ -28304,7 +28368,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="509" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="27" t="s">
         <v>34</v>
       </c>
@@ -28334,7 +28398,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="510" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="27" t="s">
         <v>34</v>
       </c>
@@ -28364,7 +28428,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="511" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="27" t="s">
         <v>34</v>
       </c>
@@ -28394,7 +28458,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="512" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="27" t="s">
         <v>34</v>
       </c>
@@ -28424,7 +28488,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="513" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="27" t="s">
         <v>34</v>
       </c>
@@ -28454,7 +28518,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="514" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="27" t="s">
         <v>34</v>
       </c>
@@ -28484,7 +28548,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="515" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="27" t="s">
         <v>34</v>
       </c>
@@ -28514,7 +28578,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="516" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="27" t="s">
         <v>34</v>
       </c>
@@ -28544,7 +28608,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="517" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="27" t="s">
         <v>34</v>
       </c>
@@ -28574,7 +28638,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="518" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="27" t="s">
         <v>34</v>
       </c>
@@ -28602,7 +28666,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="519" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="27" t="s">
         <v>34</v>
       </c>
@@ -28632,7 +28696,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="520" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="27" t="s">
         <v>34</v>
       </c>
@@ -28662,7 +28726,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="521" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="27" t="s">
         <v>34</v>
       </c>
@@ -28692,7 +28756,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="522" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="27" t="s">
         <v>34</v>
       </c>
@@ -28722,7 +28786,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="523" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="27" t="s">
         <v>34</v>
       </c>
@@ -28752,7 +28816,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="524" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="27" t="s">
         <v>34</v>
       </c>
@@ -28782,7 +28846,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="525" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="27" t="s">
         <v>34</v>
       </c>
@@ -28812,7 +28876,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="526" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="27" t="s">
         <v>34</v>
       </c>
@@ -28842,7 +28906,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="527" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="27" t="s">
         <v>34</v>
       </c>
@@ -28872,7 +28936,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="528" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="27" t="s">
         <v>34</v>
       </c>
@@ -28902,7 +28966,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="529" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="27" t="s">
         <v>34</v>
       </c>
@@ -28932,7 +28996,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="530" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="27" t="s">
         <v>34</v>
       </c>
@@ -28962,7 +29026,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="531" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="27" t="s">
         <v>34</v>
       </c>
@@ -28992,7 +29056,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="532" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="27" t="s">
         <v>34</v>
       </c>
@@ -29022,7 +29086,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="533" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="27" t="s">
         <v>34</v>
       </c>
@@ -29052,7 +29116,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="534" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="27" t="s">
         <v>34</v>
       </c>
@@ -29082,7 +29146,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="535" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="27" t="s">
         <v>34</v>
       </c>
@@ -29112,7 +29176,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="536" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="27" t="s">
         <v>34</v>
       </c>
@@ -29142,7 +29206,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="537" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="27" t="s">
         <v>34</v>
       </c>
@@ -29172,7 +29236,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="538" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="27" t="s">
         <v>34</v>
       </c>
@@ -29202,7 +29266,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="539" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="27" t="s">
         <v>34</v>
       </c>
@@ -29232,7 +29296,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="540" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="27" t="s">
         <v>34</v>
       </c>
@@ -29262,7 +29326,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="541" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="27" t="s">
         <v>34</v>
       </c>
@@ -29292,7 +29356,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="542" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="27" t="s">
         <v>34</v>
       </c>
@@ -29322,7 +29386,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="543" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="27" t="s">
         <v>34</v>
       </c>
@@ -29352,7 +29416,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="544" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="27" t="s">
         <v>34</v>
       </c>
@@ -29382,7 +29446,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="545" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="27" t="s">
         <v>34</v>
       </c>
@@ -29412,7 +29476,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="546" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="27" t="s">
         <v>34</v>
       </c>
@@ -29442,7 +29506,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="547" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="27" t="s">
         <v>34</v>
       </c>
@@ -29470,7 +29534,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="548" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="27" t="s">
         <v>34</v>
       </c>
@@ -29500,7 +29564,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="549" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="27" t="s">
         <v>34</v>
       </c>
@@ -29530,7 +29594,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="550" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="27" t="s">
         <v>34</v>
       </c>
@@ -29560,7 +29624,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="551" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="27" t="s">
         <v>34</v>
       </c>
@@ -29590,7 +29654,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="552" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="27" t="s">
         <v>34</v>
       </c>
@@ -29620,7 +29684,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="553" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="27" t="s">
         <v>34</v>
       </c>
@@ -29650,7 +29714,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="554" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="27" t="s">
         <v>34</v>
       </c>
@@ -29680,7 +29744,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="555" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="27" t="s">
         <v>34</v>
       </c>
@@ -29710,7 +29774,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="556" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="27" t="s">
         <v>34</v>
       </c>
@@ -29740,7 +29804,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="557" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="27" t="s">
         <v>34</v>
       </c>
@@ -29764,7 +29828,7 @@
       <c r="I557" s="47"/>
       <c r="J557" s="27"/>
     </row>
-    <row r="558" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="27" t="s">
         <v>34</v>
       </c>
@@ -29792,7 +29856,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="559" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="27" t="s">
         <v>34</v>
       </c>
@@ -29820,7 +29884,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="560" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="27" t="s">
         <v>34</v>
       </c>
@@ -29850,7 +29914,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="561" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="27" t="s">
         <v>34</v>
       </c>
@@ -29880,7 +29944,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="562" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="27" t="s">
         <v>34</v>
       </c>
@@ -29910,7 +29974,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="563" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="27" t="s">
         <v>34</v>
       </c>
@@ -29940,7 +30004,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="564" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="27" t="s">
         <v>34</v>
       </c>
@@ -29970,7 +30034,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="565" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="27" t="s">
         <v>34</v>
       </c>
@@ -29998,7 +30062,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="566" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="27" t="s">
         <v>34</v>
       </c>
@@ -30026,7 +30090,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="567" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="27" t="s">
         <v>34</v>
       </c>
@@ -30056,7 +30120,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="568" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="27" t="s">
         <v>34</v>
       </c>
@@ -30086,7 +30150,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="569" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="27" t="s">
         <v>34</v>
       </c>
@@ -30116,7 +30180,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="570" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="27" t="s">
         <v>34</v>
       </c>
@@ -30146,7 +30210,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="571" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="27" t="s">
         <v>34</v>
       </c>
@@ -30176,7 +30240,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="572" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="27" t="s">
         <v>34</v>
       </c>
@@ -30206,7 +30270,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="573" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="27" t="s">
         <v>34</v>
       </c>
@@ -30236,7 +30300,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="574" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="27" t="s">
         <v>34</v>
       </c>
@@ -30266,7 +30330,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="575" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="27" t="s">
         <v>34</v>
       </c>
@@ -30296,7 +30360,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="576" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="27" t="s">
         <v>34</v>
       </c>
@@ -30326,7 +30390,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="577" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="27" t="s">
         <v>34</v>
       </c>
@@ -30356,7 +30420,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="578" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="27" t="s">
         <v>34</v>
       </c>
@@ -30386,7 +30450,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="579" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="27" t="s">
         <v>34</v>
       </c>
@@ -30416,7 +30480,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="580" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="27" t="s">
         <v>34</v>
       </c>
@@ -30446,7 +30510,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="581" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="27" t="s">
         <v>34</v>
       </c>
@@ -30476,7 +30540,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="582" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="27" t="s">
         <v>34</v>
       </c>
@@ -30506,7 +30570,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="583" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="27" t="s">
         <v>34</v>
       </c>
@@ -30536,7 +30600,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="584" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="27" t="s">
         <v>34</v>
       </c>
@@ -30566,7 +30630,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="585" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="27" t="s">
         <v>34</v>
       </c>
@@ -30596,7 +30660,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="586" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="27" t="s">
         <v>34</v>
       </c>
@@ -30626,7 +30690,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="587" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="27" t="s">
         <v>34</v>
       </c>
@@ -30656,7 +30720,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="588" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="27" t="s">
         <v>34</v>
       </c>
@@ -30686,7 +30750,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="589" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="27" t="s">
         <v>34</v>
       </c>
@@ -30716,7 +30780,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="590" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="27" t="s">
         <v>34</v>
       </c>
@@ -30746,7 +30810,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="591" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="27" t="s">
         <v>34</v>
       </c>
@@ -30776,7 +30840,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="592" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="27" t="s">
         <v>34</v>
       </c>
@@ -30806,7 +30870,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="593" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="27" t="s">
         <v>34</v>
       </c>
@@ -30836,7 +30900,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="594" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="27" t="s">
         <v>34</v>
       </c>
@@ -30862,7 +30926,7 @@
       </c>
       <c r="J594" s="27"/>
     </row>
-    <row r="595" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="27" t="s">
         <v>34</v>
       </c>
@@ -30890,7 +30954,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="596" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="27" t="s">
         <v>34</v>
       </c>
@@ -30918,7 +30982,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="597" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="27" t="s">
         <v>34</v>
       </c>
@@ -30946,7 +31010,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="598" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="27" t="s">
         <v>191</v>
       </c>
@@ -30972,7 +31036,7 @@
       <c r="I598" s="47"/>
       <c r="J598" s="27"/>
     </row>
-    <row r="599" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="27" t="s">
         <v>23</v>
       </c>
@@ -31000,7 +31064,7 @@
       </c>
       <c r="J599" s="27"/>
     </row>
-    <row r="600" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="27" t="s">
         <v>23</v>
       </c>
@@ -31026,7 +31090,7 @@
       <c r="I600" s="47"/>
       <c r="J600" s="27"/>
     </row>
-    <row r="601" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="27" t="s">
         <v>26</v>
       </c>
@@ -31054,7 +31118,7 @@
       </c>
       <c r="J601" s="27"/>
     </row>
-    <row r="602" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="27" t="s">
         <v>26</v>
       </c>
@@ -31082,7 +31146,7 @@
       </c>
       <c r="J602" s="27"/>
     </row>
-    <row r="603" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="27" t="s">
         <v>26</v>
       </c>
@@ -31110,7 +31174,7 @@
       </c>
       <c r="J603" s="27"/>
     </row>
-    <row r="604" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="27" t="s">
         <v>26</v>
       </c>
@@ -31138,7 +31202,7 @@
       </c>
       <c r="J604" s="27"/>
     </row>
-    <row r="605" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="27" t="s">
         <v>26</v>
       </c>
@@ -31166,7 +31230,7 @@
       </c>
       <c r="J605" s="27"/>
     </row>
-    <row r="606" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="27" t="s">
         <v>254</v>
       </c>
@@ -31192,7 +31256,7 @@
       </c>
       <c r="J606" s="27"/>
     </row>
-    <row r="607" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="27" t="s">
         <v>254</v>
       </c>
@@ -31220,7 +31284,7 @@
       </c>
       <c r="J607" s="27"/>
     </row>
-    <row r="608" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="27" t="s">
         <v>254</v>
       </c>
@@ -31248,7 +31312,7 @@
       </c>
       <c r="J608" s="27"/>
     </row>
-    <row r="609" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="27" t="s">
         <v>254</v>
       </c>
@@ -31274,7 +31338,7 @@
       <c r="I609" s="47"/>
       <c r="J609" s="27"/>
     </row>
-    <row r="610" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="27" t="s">
         <v>254</v>
       </c>
@@ -31300,7 +31364,7 @@
       </c>
       <c r="J610" s="27"/>
     </row>
-    <row r="611" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="27" t="s">
         <v>665</v>
       </c>
@@ -31326,7 +31390,7 @@
       </c>
       <c r="J611" s="27"/>
     </row>
-    <row r="612" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="27" t="s">
         <v>169</v>
       </c>
@@ -31352,7 +31416,7 @@
       </c>
       <c r="J612" s="27"/>
     </row>
-    <row r="613" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="27" t="s">
         <v>35</v>
       </c>
@@ -31378,7 +31442,7 @@
       </c>
       <c r="J613" s="27"/>
     </row>
-    <row r="614" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="27" t="s">
         <v>35</v>
       </c>
@@ -31402,7 +31466,7 @@
       <c r="I614" s="47"/>
       <c r="J614" s="27"/>
     </row>
-    <row r="615" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="27" t="s">
         <v>169</v>
       </c>
@@ -31426,7 +31490,7 @@
       <c r="I615" s="47"/>
       <c r="J615" s="27"/>
     </row>
-    <row r="616" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="27" t="s">
         <v>35</v>
       </c>
@@ -31454,7 +31518,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="617" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="27" t="s">
         <v>201</v>
       </c>
@@ -31480,7 +31544,7 @@
       </c>
       <c r="J617" s="27"/>
     </row>
-    <row r="618" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="27" t="s">
         <v>49</v>
       </c>
@@ -31506,7 +31570,7 @@
       </c>
       <c r="J618" s="27"/>
     </row>
-    <row r="619" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="27" t="s">
         <v>34</v>
       </c>
@@ -31538,7 +31602,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="620" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="27" t="s">
         <v>34</v>
       </c>
@@ -31570,7 +31634,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="621" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="27" t="s">
         <v>34</v>
       </c>
@@ -31602,7 +31666,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="622" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="27" t="s">
         <v>34</v>
       </c>
@@ -31634,7 +31698,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="623" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="27" t="s">
         <v>34</v>
       </c>
@@ -31666,7 +31730,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="624" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="27" t="s">
         <v>34</v>
       </c>
@@ -31698,7 +31762,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="625" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="27" t="s">
         <v>34</v>
       </c>
@@ -31730,7 +31794,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="626" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="27" t="s">
         <v>34</v>
       </c>
@@ -31762,7 +31826,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="627" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="27" t="s">
         <v>34</v>
       </c>
@@ -31794,7 +31858,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="628" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="27" t="s">
         <v>34</v>
       </c>
@@ -31826,7 +31890,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="629" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="27" t="s">
         <v>34</v>
       </c>
@@ -31858,7 +31922,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="630" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="27" t="s">
         <v>34</v>
       </c>
@@ -31890,7 +31954,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="631" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="27" t="s">
         <v>34</v>
       </c>
@@ -31922,7 +31986,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="632" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="27" t="s">
         <v>34</v>
       </c>
@@ -31954,7 +32018,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="633" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="27" t="s">
         <v>34</v>
       </c>
@@ -31986,7 +32050,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="634" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="27" t="s">
         <v>34</v>
       </c>
@@ -32018,7 +32082,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="635" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="27" t="s">
         <v>34</v>
       </c>
@@ -32050,7 +32114,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="636" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="27" t="s">
         <v>34</v>
       </c>
@@ -32082,7 +32146,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="637" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="27" t="s">
         <v>34</v>
       </c>
@@ -32114,7 +32178,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="638" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="27" t="s">
         <v>34</v>
       </c>
@@ -32144,7 +32208,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="639" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="27" t="s">
         <v>34</v>
       </c>
@@ -32174,7 +32238,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="640" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="27" t="s">
         <v>34</v>
       </c>
@@ -32204,7 +32268,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="641" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="27" t="s">
         <v>34</v>
       </c>
@@ -32234,7 +32298,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="642" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="27" t="s">
         <v>34</v>
       </c>
@@ -32264,7 +32328,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="643" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="27" t="s">
         <v>34</v>
       </c>
@@ -32294,7 +32358,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="644" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="27" t="s">
         <v>34</v>
       </c>
@@ -32324,7 +32388,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="645" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="27" t="s">
         <v>34</v>
       </c>
@@ -32354,7 +32418,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="646" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="27" t="s">
         <v>34</v>
       </c>
@@ -32384,7 +32448,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="647" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="27" t="s">
         <v>34</v>
       </c>
@@ -32414,7 +32478,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="648" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="27" t="s">
         <v>34</v>
       </c>
@@ -32444,7 +32508,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="649" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="27" t="s">
         <v>34</v>
       </c>
@@ -32474,7 +32538,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="650" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="27" t="s">
         <v>34</v>
       </c>
@@ -32504,7 +32568,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="651" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="27" t="s">
         <v>34</v>
       </c>
@@ -32534,7 +32598,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="652" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="27" t="s">
         <v>34</v>
       </c>
@@ -32564,7 +32628,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="653" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="27" t="s">
         <v>34</v>
       </c>
@@ -32594,7 +32658,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="654" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="27" t="s">
         <v>34</v>
       </c>
@@ -32624,7 +32688,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="655" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="27" t="s">
         <v>34</v>
       </c>
@@ -32648,7 +32712,7 @@
       <c r="I655" s="47"/>
       <c r="J655" s="27"/>
     </row>
-    <row r="656" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="27" t="s">
         <v>34</v>
       </c>
@@ -32676,7 +32740,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="657" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="27" t="s">
         <v>34</v>
       </c>
@@ -32704,7 +32768,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="658" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="27" t="s">
         <v>34</v>
       </c>
@@ -32732,7 +32796,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="659" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="27" t="s">
         <v>34</v>
       </c>
@@ -32760,7 +32824,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="660" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="27" t="s">
         <v>152</v>
       </c>
@@ -32788,7 +32852,7 @@
       </c>
       <c r="J660" s="27"/>
     </row>
-    <row r="661" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="27" t="s">
         <v>152</v>
       </c>
@@ -32814,7 +32878,7 @@
       <c r="I661" s="47"/>
       <c r="J661" s="27"/>
     </row>
-    <row r="662" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="27" t="s">
         <v>34</v>
       </c>
@@ -32844,7 +32908,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="663" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="27" t="s">
         <v>36</v>
       </c>
@@ -32870,7 +32934,7 @@
       <c r="I663" s="47"/>
       <c r="J663" s="27"/>
     </row>
-    <row r="664" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="27" t="s">
         <v>36</v>
       </c>
@@ -32898,7 +32962,7 @@
       </c>
       <c r="J664" s="27"/>
     </row>
-    <row r="665" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="27" t="s">
         <v>36</v>
       </c>
@@ -32926,7 +32990,7 @@
       </c>
       <c r="J665" s="27"/>
     </row>
-    <row r="666" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="27" t="s">
         <v>36</v>
       </c>
@@ -32952,7 +33016,7 @@
       </c>
       <c r="J666" s="27"/>
     </row>
-    <row r="667" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="27" t="s">
         <v>36</v>
       </c>
@@ -32978,7 +33042,7 @@
       </c>
       <c r="J667" s="27"/>
     </row>
-    <row r="668" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="27" t="s">
         <v>36</v>
       </c>
@@ -33004,7 +33068,7 @@
       </c>
       <c r="J668" s="27"/>
     </row>
-    <row r="669" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="27" t="s">
         <v>36</v>
       </c>
@@ -33030,7 +33094,7 @@
       </c>
       <c r="J669" s="27"/>
     </row>
-    <row r="670" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="27" t="s">
         <v>36</v>
       </c>
@@ -33058,7 +33122,7 @@
       </c>
       <c r="J670" s="27"/>
     </row>
-    <row r="671" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="27" t="s">
         <v>36</v>
       </c>
@@ -33084,7 +33148,7 @@
       <c r="I671" s="47"/>
       <c r="J671" s="27"/>
     </row>
-    <row r="672" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="27" t="s">
         <v>36</v>
       </c>
@@ -33110,7 +33174,7 @@
       </c>
       <c r="J672" s="27"/>
     </row>
-    <row r="673" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="27" t="s">
         <v>36</v>
       </c>
@@ -33136,7 +33200,7 @@
       </c>
       <c r="J673" s="27"/>
     </row>
-    <row r="674" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="27" t="s">
         <v>36</v>
       </c>
@@ -33162,7 +33226,7 @@
       </c>
       <c r="J674" s="27"/>
     </row>
-    <row r="675" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="27" t="s">
         <v>36</v>
       </c>
@@ -33186,7 +33250,7 @@
       <c r="I675" s="47"/>
       <c r="J675" s="27"/>
     </row>
-    <row r="676" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="27" t="s">
         <v>36</v>
       </c>
@@ -33210,7 +33274,7 @@
       <c r="I676" s="47"/>
       <c r="J676" s="27"/>
     </row>
-    <row r="677" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="27" t="s">
         <v>36</v>
       </c>
@@ -33236,7 +33300,7 @@
       </c>
       <c r="J677" s="27"/>
     </row>
-    <row r="678" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="27" t="s">
         <v>36</v>
       </c>
@@ -33262,7 +33326,7 @@
       </c>
       <c r="J678" s="27"/>
     </row>
-    <row r="679" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="27" t="s">
         <v>36</v>
       </c>
@@ -33286,7 +33350,7 @@
       <c r="I679" s="47"/>
       <c r="J679" s="27"/>
     </row>
-    <row r="680" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="27" t="s">
         <v>36</v>
       </c>
@@ -33310,7 +33374,7 @@
       <c r="I680" s="47"/>
       <c r="J680" s="27"/>
     </row>
-    <row r="681" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="27" t="s">
         <v>36</v>
       </c>
@@ -33334,7 +33398,7 @@
       <c r="I681" s="47"/>
       <c r="J681" s="27"/>
     </row>
-    <row r="682" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="27" t="s">
         <v>36</v>
       </c>
@@ -33360,7 +33424,7 @@
       </c>
       <c r="J682" s="27"/>
     </row>
-    <row r="683" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="27" t="s">
         <v>728</v>
       </c>
@@ -33386,7 +33450,7 @@
       </c>
       <c r="J683" s="27"/>
     </row>
-    <row r="684" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="27" t="s">
         <v>531</v>
       </c>
@@ -33414,7 +33478,7 @@
       </c>
       <c r="J684" s="27"/>
     </row>
-    <row r="685" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="27" t="s">
         <v>531</v>
       </c>
@@ -33442,7 +33506,7 @@
       </c>
       <c r="J685" s="27"/>
     </row>
-    <row r="686" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="27" t="s">
         <v>1154</v>
       </c>
@@ -33470,7 +33534,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="687" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="27" t="s">
         <v>1153</v>
       </c>
@@ -33498,7 +33562,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="688" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="27" t="s">
         <v>1153</v>
       </c>
@@ -33526,7 +33590,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="689" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="27" t="s">
         <v>1154</v>
       </c>
@@ -33554,7 +33618,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="690" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="27" t="s">
         <v>34</v>
       </c>
@@ -33584,7 +33648,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="691" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="27" t="s">
         <v>34</v>
       </c>
@@ -33614,7 +33678,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="692" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="27" t="s">
         <v>34</v>
       </c>
@@ -33644,7 +33708,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="693" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="27" t="s">
         <v>34</v>
       </c>
@@ -33674,7 +33738,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="694" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="27" t="s">
         <v>34</v>
       </c>
@@ -33704,7 +33768,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="695" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="27" t="s">
         <v>34</v>
       </c>
@@ -33734,7 +33798,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="696" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="27" t="s">
         <v>34</v>
       </c>
@@ -33764,7 +33828,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="697" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="27" t="s">
         <v>34</v>
       </c>
@@ -33792,7 +33856,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="698" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="27" t="s">
         <v>34</v>
       </c>
@@ -33820,7 +33884,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="699" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="27" t="s">
         <v>34</v>
       </c>
@@ -33848,7 +33912,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="700" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="27" t="s">
         <v>34</v>
       </c>
@@ -33876,7 +33940,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="701" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="27" t="s">
         <v>34</v>
       </c>
@@ -33904,7 +33968,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="702" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="27" t="s">
         <v>34</v>
       </c>
@@ -33932,7 +33996,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="703" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="27" t="s">
         <v>34</v>
       </c>
@@ -33962,7 +34026,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="704" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="27" t="s">
         <v>34</v>
       </c>
@@ -33990,7 +34054,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="705" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="27" t="s">
         <v>34</v>
       </c>
@@ -34018,7 +34082,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="706" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="27" t="s">
         <v>34</v>
       </c>
@@ -34046,7 +34110,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="707" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="27" t="s">
         <v>34</v>
       </c>
@@ -34074,7 +34138,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="708" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="27" t="s">
         <v>34</v>
       </c>
@@ -34102,7 +34166,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="709" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="27" t="s">
         <v>34</v>
       </c>
@@ -34132,7 +34196,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="710" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="27" t="s">
         <v>34</v>
       </c>
@@ -34162,7 +34226,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="711" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="27" t="s">
         <v>34</v>
       </c>
@@ -34192,7 +34256,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="712" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="27" t="s">
         <v>34</v>
       </c>
@@ -34222,7 +34286,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="713" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="27" t="s">
         <v>34</v>
       </c>
@@ -34252,7 +34316,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="714" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="27" t="s">
         <v>34</v>
       </c>
@@ -34282,7 +34346,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="715" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="27" t="s">
         <v>34</v>
       </c>
@@ -34312,7 +34376,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="716" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="27" t="s">
         <v>2</v>
       </c>
@@ -34342,7 +34406,7 @@
       </c>
       <c r="J716" s="27"/>
     </row>
-    <row r="717" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="27" t="s">
         <v>35</v>
       </c>
@@ -34372,7 +34436,7 @@
       </c>
       <c r="J717" s="27"/>
     </row>
-    <row r="718" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="27" t="s">
         <v>35</v>
       </c>
@@ -34400,7 +34464,7 @@
       <c r="I718" s="47"/>
       <c r="J718" s="27"/>
     </row>
-    <row r="719" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="27" t="s">
         <v>35</v>
       </c>
@@ -34430,7 +34494,7 @@
       </c>
       <c r="J719" s="27"/>
     </row>
-    <row r="720" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="27" t="s">
         <v>35</v>
       </c>
@@ -34460,7 +34524,7 @@
       </c>
       <c r="J720" s="27"/>
     </row>
-    <row r="721" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="27" t="s">
         <v>35</v>
       </c>
@@ -34488,7 +34552,7 @@
       <c r="I721" s="47"/>
       <c r="J721" s="27"/>
     </row>
-    <row r="722" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="27" t="s">
         <v>35</v>
       </c>
@@ -34518,7 +34582,7 @@
       </c>
       <c r="J722" s="27"/>
     </row>
-    <row r="723" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="27" t="s">
         <v>35</v>
       </c>
@@ -34548,7 +34612,7 @@
       </c>
       <c r="J723" s="27"/>
     </row>
-    <row r="724" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="27" t="s">
         <v>35</v>
       </c>
@@ -34578,7 +34642,7 @@
       </c>
       <c r="J724" s="27"/>
     </row>
-    <row r="725" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="27" t="s">
         <v>35</v>
       </c>
@@ -34608,7 +34672,7 @@
       </c>
       <c r="J725" s="27"/>
     </row>
-    <row r="726" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="27" t="s">
         <v>35</v>
       </c>
@@ -34638,7 +34702,7 @@
       </c>
       <c r="J726" s="27"/>
     </row>
-    <row r="727" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="27" t="s">
         <v>35</v>
       </c>
@@ -34668,7 +34732,7 @@
       </c>
       <c r="J727" s="27"/>
     </row>
-    <row r="728" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="27" t="s">
         <v>35</v>
       </c>
@@ -34698,7 +34762,7 @@
       </c>
       <c r="J728" s="27"/>
     </row>
-    <row r="729" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="27" t="s">
         <v>35</v>
       </c>
@@ -34726,7 +34790,7 @@
       </c>
       <c r="J729" s="27"/>
     </row>
-    <row r="730" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="27" t="s">
         <v>35</v>
       </c>
@@ -34754,7 +34818,7 @@
       </c>
       <c r="J730" s="27"/>
     </row>
-    <row r="731" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="27" t="s">
         <v>49</v>
       </c>
@@ -34782,7 +34846,7 @@
       </c>
       <c r="J731" s="27"/>
     </row>
-    <row r="732" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="27" t="s">
         <v>34</v>
       </c>
@@ -34814,7 +34878,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="733" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="27" t="s">
         <v>34</v>
       </c>
@@ -34846,7 +34910,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="734" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="27" t="s">
         <v>34</v>
       </c>
@@ -34878,7 +34942,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="735" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="27" t="s">
         <v>34</v>
       </c>
@@ -34910,7 +34974,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="736" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="27" t="s">
         <v>34</v>
       </c>
@@ -34942,7 +35006,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="737" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="27" t="s">
         <v>34</v>
       </c>
@@ -34974,7 +35038,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="738" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="27" t="s">
         <v>34</v>
       </c>
@@ -35006,7 +35070,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="739" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="27" t="s">
         <v>34</v>
       </c>
@@ -35058,7 +35122,7 @@
       <c r="I740" s="47"/>
       <c r="J740" s="27"/>
     </row>
-    <row r="741" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="27" t="s">
         <v>612</v>
       </c>
@@ -35086,7 +35150,7 @@
       </c>
       <c r="J741" s="27"/>
     </row>
-    <row r="742" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="27" t="s">
         <v>23</v>
       </c>
@@ -35114,7 +35178,7 @@
       <c r="I742" s="47"/>
       <c r="J742" s="27"/>
     </row>
-    <row r="743" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="27" t="s">
         <v>34</v>
       </c>
@@ -35144,7 +35208,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="744" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="27" t="s">
         <v>34</v>
       </c>
@@ -35174,7 +35238,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="745" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="27" t="s">
         <v>34</v>
       </c>
@@ -35204,7 +35268,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="746" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="27" t="s">
         <v>34</v>
       </c>
@@ -35234,7 +35298,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="747" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="27" t="s">
         <v>553</v>
       </c>
@@ -35260,7 +35324,7 @@
       </c>
       <c r="J747" s="27"/>
     </row>
-    <row r="748" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="27" t="s">
         <v>37</v>
       </c>
@@ -35286,7 +35350,7 @@
       <c r="I748" s="47"/>
       <c r="J748" s="27"/>
     </row>
-    <row r="749" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="27" t="s">
         <v>37</v>
       </c>
@@ -35312,7 +35376,7 @@
       </c>
       <c r="J749" s="27"/>
     </row>
-    <row r="750" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="27" t="s">
         <v>37</v>
       </c>
@@ -35340,7 +35404,7 @@
       </c>
       <c r="J750" s="27"/>
     </row>
-    <row r="751" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="27" t="s">
         <v>37</v>
       </c>
@@ -35366,7 +35430,7 @@
       <c r="I751" s="47"/>
       <c r="J751" s="27"/>
     </row>
-    <row r="752" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="27" t="s">
         <v>37</v>
       </c>
@@ -35392,7 +35456,7 @@
       </c>
       <c r="J752" s="27"/>
     </row>
-    <row r="753" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="27" t="s">
         <v>37</v>
       </c>
@@ -35416,7 +35480,7 @@
       <c r="I753" s="47"/>
       <c r="J753" s="27"/>
     </row>
-    <row r="754" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="27" t="s">
         <v>859</v>
       </c>
@@ -35440,7 +35504,7 @@
       </c>
       <c r="J754" s="27"/>
     </row>
-    <row r="755" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="27" t="s">
         <v>34</v>
       </c>
@@ -35470,7 +35534,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="756" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="27" t="s">
         <v>34</v>
       </c>
@@ -35500,7 +35564,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="757" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="27" t="s">
         <v>34</v>
       </c>
@@ -35530,7 +35594,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="758" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="27" t="s">
         <v>34</v>
       </c>
@@ -35560,7 +35624,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="759" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="27" t="s">
         <v>34</v>
       </c>
@@ -35590,7 +35654,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="760" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="27" t="s">
         <v>34</v>
       </c>
@@ -35620,7 +35684,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="761" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="27" t="s">
         <v>34</v>
       </c>
@@ -35648,7 +35712,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="762" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="27" t="s">
         <v>555</v>
       </c>
@@ -35674,7 +35738,7 @@
       </c>
       <c r="J762" s="27"/>
     </row>
-    <row r="763" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="27" t="s">
         <v>557</v>
       </c>
@@ -35700,7 +35764,7 @@
       </c>
       <c r="J763" s="27"/>
     </row>
-    <row r="764" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="27" t="s">
         <v>38</v>
       </c>
@@ -35728,7 +35792,7 @@
       </c>
       <c r="J764" s="27"/>
     </row>
-    <row r="765" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="27" t="s">
         <v>38</v>
       </c>
@@ -35756,7 +35820,7 @@
       </c>
       <c r="J765" s="27"/>
     </row>
-    <row r="766" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="27" t="s">
         <v>38</v>
       </c>
@@ -35784,7 +35848,7 @@
       </c>
       <c r="J766" s="27"/>
     </row>
-    <row r="767" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="27" t="s">
         <v>38</v>
       </c>
@@ -35808,7 +35872,7 @@
       <c r="I767" s="47"/>
       <c r="J767" s="27"/>
     </row>
-    <row r="768" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="27" t="s">
         <v>273</v>
       </c>
@@ -35834,7 +35898,7 @@
       </c>
       <c r="J768" s="27"/>
     </row>
-    <row r="769" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="27" t="s">
         <v>38</v>
       </c>
@@ -35860,7 +35924,7 @@
       </c>
       <c r="J769" s="27"/>
     </row>
-    <row r="770" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="27" t="s">
         <v>856</v>
       </c>
@@ -35884,7 +35948,7 @@
       </c>
       <c r="J770" s="27"/>
     </row>
-    <row r="771" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="27" t="s">
         <v>38</v>
       </c>
@@ -35908,7 +35972,7 @@
       <c r="I771" s="47"/>
       <c r="J771" s="27"/>
     </row>
-    <row r="772" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="27" t="s">
         <v>2</v>
       </c>
@@ -35934,7 +35998,7 @@
       </c>
       <c r="J772" s="27"/>
     </row>
-    <row r="773" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="27" t="s">
         <v>34</v>
       </c>
@@ -35964,7 +36028,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="774" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="27" t="s">
         <v>34</v>
       </c>
@@ -35994,7 +36058,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="775" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="27" t="s">
         <v>34</v>
       </c>
@@ -36024,7 +36088,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="776" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="27" t="s">
         <v>34</v>
       </c>
@@ -36054,7 +36118,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="777" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="27" t="s">
         <v>34</v>
       </c>
@@ -36084,7 +36148,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="778" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="27" t="s">
         <v>34</v>
       </c>
@@ -36114,7 +36178,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="779" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="27" t="s">
         <v>34</v>
       </c>
@@ -36144,7 +36208,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="780" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="27" t="s">
         <v>191</v>
       </c>
@@ -36172,7 +36236,7 @@
       </c>
       <c r="J780" s="27"/>
     </row>
-    <row r="781" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="27" t="s">
         <v>191</v>
       </c>
@@ -36198,7 +36262,7 @@
       </c>
       <c r="J781" s="27"/>
     </row>
-    <row r="782" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="27" t="s">
         <v>191</v>
       </c>
@@ -36224,7 +36288,7 @@
       </c>
       <c r="J782" s="27"/>
     </row>
-    <row r="783" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="27" t="s">
         <v>191</v>
       </c>
@@ -36250,7 +36314,7 @@
       </c>
       <c r="J783" s="27"/>
     </row>
-    <row r="784" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="27" t="s">
         <v>512</v>
       </c>
@@ -36276,7 +36340,7 @@
       </c>
       <c r="J784" s="27"/>
     </row>
-    <row r="785" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="27" t="s">
         <v>39</v>
       </c>
@@ -36304,7 +36368,7 @@
       </c>
       <c r="J785" s="27"/>
     </row>
-    <row r="786" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="27" t="s">
         <v>39</v>
       </c>
@@ -36332,7 +36396,7 @@
       </c>
       <c r="J786" s="27"/>
     </row>
-    <row r="787" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="27" t="s">
         <v>39</v>
       </c>
@@ -36358,7 +36422,7 @@
       </c>
       <c r="J787" s="27"/>
     </row>
-    <row r="788" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="27" t="s">
         <v>39</v>
       </c>
@@ -36382,7 +36446,7 @@
       <c r="I788" s="47"/>
       <c r="J788" s="27"/>
     </row>
-    <row r="789" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="27" t="s">
         <v>2</v>
       </c>
@@ -36412,7 +36476,7 @@
       </c>
       <c r="J789" s="27"/>
     </row>
-    <row r="790" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="27" t="s">
         <v>2</v>
       </c>
@@ -36442,7 +36506,7 @@
       </c>
       <c r="J790" s="27"/>
     </row>
-    <row r="791" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="27" t="s">
         <v>2</v>
       </c>
@@ -36472,7 +36536,7 @@
       </c>
       <c r="J791" s="27"/>
     </row>
-    <row r="792" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="27" t="s">
         <v>2</v>
       </c>
@@ -36500,7 +36564,7 @@
       <c r="I792" s="47"/>
       <c r="J792" s="27"/>
     </row>
-    <row r="793" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="27" t="s">
         <v>2</v>
       </c>
@@ -36530,7 +36594,7 @@
       </c>
       <c r="J793" s="27"/>
     </row>
-    <row r="794" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="27" t="s">
         <v>2</v>
       </c>
@@ -36556,7 +36620,7 @@
       <c r="I794" s="47"/>
       <c r="J794" s="27"/>
     </row>
-    <row r="795" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="27" t="s">
         <v>2</v>
       </c>
@@ -36582,7 +36646,7 @@
       <c r="I795" s="47"/>
       <c r="J795" s="27"/>
     </row>
-    <row r="796" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="27" t="s">
         <v>2</v>
       </c>
@@ -36608,7 +36672,7 @@
       <c r="I796" s="47"/>
       <c r="J796" s="27"/>
     </row>
-    <row r="797" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="27" t="s">
         <v>2</v>
       </c>
@@ -36634,7 +36698,7 @@
       <c r="I797" s="47"/>
       <c r="J797" s="27"/>
     </row>
-    <row r="798" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="27" t="s">
         <v>2</v>
       </c>
@@ -36660,7 +36724,7 @@
       <c r="I798" s="47"/>
       <c r="J798" s="27"/>
     </row>
-    <row r="799" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="27" t="s">
         <v>2</v>
       </c>
@@ -36688,7 +36752,7 @@
       </c>
       <c r="J799" s="27"/>
     </row>
-    <row r="800" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="27" t="s">
         <v>2</v>
       </c>
@@ -36716,7 +36780,7 @@
       </c>
       <c r="J800" s="27"/>
     </row>
-    <row r="801" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="27" t="s">
         <v>2</v>
       </c>
@@ -36742,7 +36806,7 @@
       <c r="I801" s="47"/>
       <c r="J801" s="27"/>
     </row>
-    <row r="802" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="27" t="s">
         <v>2</v>
       </c>
@@ -36768,7 +36832,7 @@
       <c r="I802" s="47"/>
       <c r="J802" s="27"/>
     </row>
-    <row r="803" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="27" t="s">
         <v>2</v>
       </c>
@@ -36794,7 +36858,7 @@
       <c r="I803" s="47"/>
       <c r="J803" s="27"/>
     </row>
-    <row r="804" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="27" t="s">
         <v>2</v>
       </c>
@@ -36820,7 +36884,7 @@
       <c r="I804" s="47"/>
       <c r="J804" s="27"/>
     </row>
-    <row r="805" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="27" t="s">
         <v>2</v>
       </c>
@@ -36848,7 +36912,7 @@
       </c>
       <c r="J805" s="27"/>
     </row>
-    <row r="806" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="27" t="s">
         <v>34</v>
       </c>
@@ -36880,7 +36944,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="807" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="27" t="s">
         <v>34</v>
       </c>
@@ -36912,7 +36976,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="808" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="27" t="s">
         <v>34</v>
       </c>
@@ -36944,7 +37008,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="809" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="27" t="s">
         <v>34</v>
       </c>
@@ -36976,7 +37040,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="810" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="27" t="s">
         <v>34</v>
       </c>
@@ -37008,7 +37072,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="811" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="27" t="s">
         <v>34</v>
       </c>
@@ -37040,7 +37104,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="812" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="27" t="s">
         <v>34</v>
       </c>
@@ -37072,7 +37136,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="813" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="27" t="s">
         <v>34</v>
       </c>
@@ -37104,7 +37168,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="814" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="27" t="s">
         <v>34</v>
       </c>
@@ -37136,7 +37200,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="815" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="27" t="s">
         <v>34</v>
       </c>
@@ -37168,7 +37232,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="816" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="27" t="s">
         <v>34</v>
       </c>
@@ -37200,7 +37264,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="817" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="27" t="s">
         <v>34</v>
       </c>
@@ -37232,7 +37296,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="818" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="27" t="s">
         <v>34</v>
       </c>
@@ -37264,7 +37328,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="819" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="27" t="s">
         <v>34</v>
       </c>
@@ -37296,7 +37360,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="820" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="27" t="s">
         <v>34</v>
       </c>
@@ -37328,7 +37392,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="821" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="27" t="s">
         <v>34</v>
       </c>
@@ -37360,7 +37424,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="822" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="27" t="s">
         <v>34</v>
       </c>
@@ -37392,7 +37456,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="823" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="27" t="s">
         <v>34</v>
       </c>
@@ -37424,7 +37488,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="824" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="27" t="s">
         <v>34</v>
       </c>
@@ -37456,7 +37520,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="825" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="27" t="s">
         <v>34</v>
       </c>
@@ -37488,7 +37552,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="826" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="27" t="s">
         <v>34</v>
       </c>
@@ -37520,7 +37584,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="827" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="27" t="s">
         <v>34</v>
       </c>
@@ -37552,7 +37616,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="828" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="27" t="s">
         <v>34</v>
       </c>
@@ -37584,7 +37648,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="829" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="27" t="s">
         <v>34</v>
       </c>
@@ -37616,7 +37680,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="830" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="27" t="s">
         <v>34</v>
       </c>
@@ -37648,7 +37712,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="831" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="27" t="s">
         <v>34</v>
       </c>
@@ -37680,7 +37744,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="832" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="27" t="s">
         <v>34</v>
       </c>
@@ -37712,7 +37776,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="833" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="27" t="s">
         <v>34</v>
       </c>
@@ -37744,7 +37808,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="834" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="27" t="s">
         <v>34</v>
       </c>
@@ -37776,7 +37840,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="835" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="27" t="s">
         <v>34</v>
       </c>
@@ -37808,7 +37872,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="836" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="27" t="s">
         <v>34</v>
       </c>
@@ -37840,7 +37904,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="837" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="27" t="s">
         <v>34</v>
       </c>
@@ -37872,7 +37936,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="838" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="27" t="s">
         <v>34</v>
       </c>
@@ -37904,7 +37968,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="839" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="27" t="s">
         <v>34</v>
       </c>
@@ -37936,7 +38000,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="840" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="27" t="s">
         <v>34</v>
       </c>
@@ -37968,7 +38032,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="841" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="27" t="s">
         <v>34</v>
       </c>
@@ -38000,7 +38064,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="842" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="27" t="s">
         <v>34</v>
       </c>
@@ -38032,7 +38096,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="843" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="27" t="s">
         <v>34</v>
       </c>
@@ -38064,7 +38128,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="844" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="27" t="s">
         <v>34</v>
       </c>
@@ -38096,7 +38160,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="845" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="27" t="s">
         <v>34</v>
       </c>
@@ -38128,7 +38192,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="846" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="27" t="s">
         <v>34</v>
       </c>
@@ -38160,7 +38224,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="847" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="27" t="s">
         <v>34</v>
       </c>
@@ -38192,7 +38256,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="848" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="27" t="s">
         <v>34</v>
       </c>
@@ -38224,7 +38288,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="849" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="27" t="s">
         <v>34</v>
       </c>
@@ -38256,7 +38320,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="850" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="27" t="s">
         <v>34</v>
       </c>
@@ -38288,7 +38352,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="851" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="27" t="s">
         <v>34</v>
       </c>
@@ -38320,7 +38384,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="852" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="27" t="s">
         <v>34</v>
       </c>
@@ -38352,7 +38416,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="853" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="27" t="s">
         <v>34</v>
       </c>
@@ -38384,7 +38448,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="854" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="27" t="s">
         <v>34</v>
       </c>
@@ -38416,7 +38480,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="855" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="27" t="s">
         <v>34</v>
       </c>
@@ -38448,7 +38512,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="856" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="27" t="s">
         <v>34</v>
       </c>
@@ -38480,7 +38544,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="857" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="27" t="s">
         <v>34</v>
       </c>
@@ -38512,7 +38576,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="858" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="27" t="s">
         <v>34</v>
       </c>
@@ -38544,7 +38608,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="859" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="27" t="s">
         <v>34</v>
       </c>
@@ -38576,7 +38640,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="860" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="27" t="s">
         <v>34</v>
       </c>
@@ -38608,7 +38672,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="861" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="27" t="s">
         <v>34</v>
       </c>
@@ -38640,7 +38704,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="862" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="27" t="s">
         <v>34</v>
       </c>
@@ -38672,7 +38736,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="863" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="27" t="s">
         <v>34</v>
       </c>
@@ -38704,7 +38768,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="864" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="27" t="s">
         <v>34</v>
       </c>
@@ -38736,7 +38800,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="865" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="27" t="s">
         <v>34</v>
       </c>
@@ -38768,7 +38832,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="866" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="27" t="s">
         <v>34</v>
       </c>
@@ -38800,7 +38864,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="867" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="27" t="s">
         <v>34</v>
       </c>
@@ -38832,7 +38896,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="868" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="27" t="s">
         <v>34</v>
       </c>
@@ -38864,7 +38928,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="869" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="27" t="s">
         <v>34</v>
       </c>
@@ -38896,7 +38960,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="870" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="27" t="s">
         <v>34</v>
       </c>
@@ -38928,7 +38992,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="871" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="27" t="s">
         <v>34</v>
       </c>
@@ -38960,7 +39024,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="872" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="27" t="s">
         <v>34</v>
       </c>
@@ -38992,7 +39056,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="873" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="27" t="s">
         <v>34</v>
       </c>
@@ -39024,7 +39088,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="874" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="27" t="s">
         <v>34</v>
       </c>
@@ -39056,7 +39120,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="875" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="27" t="s">
         <v>34</v>
       </c>
@@ -39088,7 +39152,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="876" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="27" t="s">
         <v>34</v>
       </c>
@@ -39120,7 +39184,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="877" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="27" t="s">
         <v>34</v>
       </c>
@@ -39152,7 +39216,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="878" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="27" t="s">
         <v>34</v>
       </c>
@@ -39184,7 +39248,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="879" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="27" t="s">
         <v>34</v>
       </c>
@@ -39216,7 +39280,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="880" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="27" t="s">
         <v>34</v>
       </c>
@@ -39248,7 +39312,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="881" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="27" t="s">
         <v>34</v>
       </c>
@@ -39280,7 +39344,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="882" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="27" t="s">
         <v>34</v>
       </c>
@@ -39312,7 +39376,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="883" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="27" t="s">
         <v>34</v>
       </c>
@@ -39344,7 +39408,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="884" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="27" t="s">
         <v>34</v>
       </c>
@@ -39376,7 +39440,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="885" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="27" t="s">
         <v>34</v>
       </c>
@@ -39408,7 +39472,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="886" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="27" t="s">
         <v>34</v>
       </c>
@@ -39440,7 +39504,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="887" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="27" t="s">
         <v>34</v>
       </c>
@@ -39472,7 +39536,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="888" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="27" t="s">
         <v>34</v>
       </c>
@@ -39504,7 +39568,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="889" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="27" t="s">
         <v>34</v>
       </c>
@@ -39536,7 +39600,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="890" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="27" t="s">
         <v>34</v>
       </c>
@@ -39568,7 +39632,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="891" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="27" t="s">
         <v>34</v>
       </c>
@@ -39600,7 +39664,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="892" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="27" t="s">
         <v>34</v>
       </c>
@@ -39632,7 +39696,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="893" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="27" t="s">
         <v>34</v>
       </c>
@@ -39664,7 +39728,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="894" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="27" t="s">
         <v>34</v>
       </c>
@@ -39696,7 +39760,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="895" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="27" t="s">
         <v>34</v>
       </c>
@@ -39728,7 +39792,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="896" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="27" t="s">
         <v>34</v>
       </c>
@@ -39760,7 +39824,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="897" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="27" t="s">
         <v>34</v>
       </c>
@@ -39792,7 +39856,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="898" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="27" t="s">
         <v>34</v>
       </c>
@@ -39824,7 +39888,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="899" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="27" t="s">
         <v>34</v>
       </c>
@@ -39856,7 +39920,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="900" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="27" t="s">
         <v>34</v>
       </c>
@@ -39888,7 +39952,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="901" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="27" t="s">
         <v>34</v>
       </c>
@@ -39920,7 +39984,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="902" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="27" t="s">
         <v>34</v>
       </c>
@@ -39952,7 +40016,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="903" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="27" t="s">
         <v>34</v>
       </c>
@@ -39984,7 +40048,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="904" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="27" t="s">
         <v>34</v>
       </c>
@@ -40016,7 +40080,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="905" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="27" t="s">
         <v>34</v>
       </c>
@@ -40048,7 +40112,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="906" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="27" t="s">
         <v>34</v>
       </c>
@@ -40080,7 +40144,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="907" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="27" t="s">
         <v>34</v>
       </c>
@@ -40112,7 +40176,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="908" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="27" t="s">
         <v>34</v>
       </c>
@@ -40144,7 +40208,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="909" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="27" t="s">
         <v>34</v>
       </c>
@@ -40176,7 +40240,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="910" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="27" t="s">
         <v>34</v>
       </c>
@@ -40208,7 +40272,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="911" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="27" t="s">
         <v>34</v>
       </c>
@@ -40240,7 +40304,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="912" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="27" t="s">
         <v>34</v>
       </c>
@@ -40272,7 +40336,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="913" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="27" t="s">
         <v>34</v>
       </c>
@@ -40304,7 +40368,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="914" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="27" t="s">
         <v>34</v>
       </c>
@@ -40336,7 +40400,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="915" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="27" t="s">
         <v>34</v>
       </c>
@@ -40368,7 +40432,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="916" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="27" t="s">
         <v>34</v>
       </c>
@@ -40400,7 +40464,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="917" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="27" t="s">
         <v>34</v>
       </c>
@@ -40432,7 +40496,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="918" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="27" t="s">
         <v>34</v>
       </c>
@@ -40464,7 +40528,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="919" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="27" t="s">
         <v>34</v>
       </c>
@@ -40496,7 +40560,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="920" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="27" t="s">
         <v>34</v>
       </c>
@@ -40528,7 +40592,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="921" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="27" t="s">
         <v>34</v>
       </c>
@@ -40560,7 +40624,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="922" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="27" t="s">
         <v>34</v>
       </c>
@@ -40592,7 +40656,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="923" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="27" t="s">
         <v>34</v>
       </c>
@@ -40624,7 +40688,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="924" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="27" t="s">
         <v>34</v>
       </c>
@@ -40656,7 +40720,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="925" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="27" t="s">
         <v>34</v>
       </c>
@@ -40688,7 +40752,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="926" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="27" t="s">
         <v>34</v>
       </c>
@@ -40720,7 +40784,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="927" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="27" t="s">
         <v>34</v>
       </c>
@@ -40752,7 +40816,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="928" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="27" t="s">
         <v>34</v>
       </c>
@@ -40784,7 +40848,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="929" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="27" t="s">
         <v>34</v>
       </c>
@@ -40816,7 +40880,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="930" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="27" t="s">
         <v>34</v>
       </c>
@@ -40848,7 +40912,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="931" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="27" t="s">
         <v>34</v>
       </c>
@@ -40880,7 +40944,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="932" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="27" t="s">
         <v>34</v>
       </c>
@@ -40912,7 +40976,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="933" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="27" t="s">
         <v>34</v>
       </c>
@@ -40944,7 +41008,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="934" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="27" t="s">
         <v>34</v>
       </c>
@@ -40976,7 +41040,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="935" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="27" t="s">
         <v>34</v>
       </c>
@@ -41008,7 +41072,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="936" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="27" t="s">
         <v>34</v>
       </c>
@@ -41040,7 +41104,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="937" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="27" t="s">
         <v>34</v>
       </c>
@@ -41072,7 +41136,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="938" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="27" t="s">
         <v>34</v>
       </c>
@@ -41104,7 +41168,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="939" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="27" t="s">
         <v>34</v>
       </c>
@@ -41136,7 +41200,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="940" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="27" t="s">
         <v>34</v>
       </c>
@@ -41168,7 +41232,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="941" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="27" t="s">
         <v>34</v>
       </c>
@@ -41200,7 +41264,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="942" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="27" t="s">
         <v>34</v>
       </c>
@@ -41232,7 +41296,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="943" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="27" t="s">
         <v>34</v>
       </c>
@@ -41264,7 +41328,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="944" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="27" t="s">
         <v>34</v>
       </c>
@@ -41296,7 +41360,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="945" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="27" t="s">
         <v>34</v>
       </c>
@@ -41328,7 +41392,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="946" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="27" t="s">
         <v>34</v>
       </c>
@@ -41360,7 +41424,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="947" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="27" t="s">
         <v>34</v>
       </c>
@@ -41392,7 +41456,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="948" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="27" t="s">
         <v>34</v>
       </c>
@@ -41424,7 +41488,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="949" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="27" t="s">
         <v>34</v>
       </c>
@@ -41456,7 +41520,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="950" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="27" t="s">
         <v>34</v>
       </c>
@@ -41488,7 +41552,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="951" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="27" t="s">
         <v>34</v>
       </c>
@@ -41520,7 +41584,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="952" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="27" t="s">
         <v>34</v>
       </c>
@@ -41552,7 +41616,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="953" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="27" t="s">
         <v>34</v>
       </c>
@@ -41584,7 +41648,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="954" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="27" t="s">
         <v>34</v>
       </c>
@@ -41616,7 +41680,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="955" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="27" t="s">
         <v>34</v>
       </c>
@@ -41648,7 +41712,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="956" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="27" t="s">
         <v>34</v>
       </c>
@@ -41680,7 +41744,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="957" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="27" t="s">
         <v>34</v>
       </c>
@@ -41712,7 +41776,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="958" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="27" t="s">
         <v>34</v>
       </c>
@@ -41744,7 +41808,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="959" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="27" t="s">
         <v>34</v>
       </c>
@@ -41776,7 +41840,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="960" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="27" t="s">
         <v>34</v>
       </c>
@@ -41808,7 +41872,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="961" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="27" t="s">
         <v>34</v>
       </c>
@@ -41840,7 +41904,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="962" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="27" t="s">
         <v>34</v>
       </c>
@@ -41870,7 +41934,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="963" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="27" t="s">
         <v>34</v>
       </c>
@@ -41900,7 +41964,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="964" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="27" t="s">
         <v>34</v>
       </c>
@@ -41930,7 +41994,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="965" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="27" t="s">
         <v>34</v>
       </c>
@@ -41960,7 +42024,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="966" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="27" t="s">
         <v>545</v>
       </c>
@@ -41990,7 +42054,7 @@
       </c>
       <c r="J966" s="27"/>
     </row>
-    <row r="967" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="27" t="s">
         <v>545</v>
       </c>
@@ -42018,7 +42082,7 @@
       </c>
       <c r="J967" s="27"/>
     </row>
-    <row r="968" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="27" t="s">
         <v>545</v>
       </c>
@@ -42046,7 +42110,7 @@
       </c>
       <c r="J968" s="27"/>
     </row>
-    <row r="969" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="27" t="s">
         <v>545</v>
       </c>
@@ -42074,7 +42138,7 @@
       </c>
       <c r="J969" s="27"/>
     </row>
-    <row r="970" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="27" t="s">
         <v>545</v>
       </c>
@@ -42102,7 +42166,7 @@
       </c>
       <c r="J970" s="27"/>
     </row>
-    <row r="971" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="27" t="s">
         <v>796</v>
       </c>
@@ -42130,7 +42194,7 @@
       </c>
       <c r="J971" s="27"/>
     </row>
-    <row r="972" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="27" t="s">
         <v>796</v>
       </c>
@@ -42156,7 +42220,7 @@
       <c r="I972" s="47"/>
       <c r="J972" s="27"/>
     </row>
-    <row r="973" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="27" t="s">
         <v>861</v>
       </c>
@@ -42182,7 +42246,7 @@
       </c>
       <c r="J973" s="27"/>
     </row>
-    <row r="974" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="27" t="s">
         <v>193</v>
       </c>
@@ -42210,7 +42274,7 @@
       </c>
       <c r="J974" s="27"/>
     </row>
-    <row r="975" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="27" t="s">
         <v>193</v>
       </c>
@@ -42236,7 +42300,7 @@
       <c r="I975" s="47"/>
       <c r="J975" s="27"/>
     </row>
-    <row r="976" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="27" t="s">
         <v>863</v>
       </c>
@@ -42262,7 +42326,7 @@
       </c>
       <c r="J976" s="27"/>
     </row>
-    <row r="977" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="27" t="s">
         <v>23</v>
       </c>
@@ -42290,7 +42354,7 @@
       <c r="I977" s="47"/>
       <c r="J977" s="27"/>
     </row>
-    <row r="978" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="27" t="s">
         <v>23</v>
       </c>
@@ -42320,7 +42384,7 @@
       </c>
       <c r="J978" s="27"/>
     </row>
-    <row r="979" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="27" t="s">
         <v>23</v>
       </c>
@@ -42350,7 +42414,7 @@
       </c>
       <c r="J979" s="27"/>
     </row>
-    <row r="980" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="27" t="s">
         <v>23</v>
       </c>
@@ -42380,7 +42444,7 @@
       </c>
       <c r="J980" s="27"/>
     </row>
-    <row r="981" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="27" t="s">
         <v>23</v>
       </c>
@@ -42408,7 +42472,7 @@
       </c>
       <c r="J981" s="27"/>
     </row>
-    <row r="982" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="27" t="s">
         <v>23</v>
       </c>
@@ -42436,7 +42500,7 @@
       </c>
       <c r="J982" s="27"/>
     </row>
-    <row r="983" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="27" t="s">
         <v>23</v>
       </c>
@@ -42464,7 +42528,7 @@
       </c>
       <c r="J983" s="27"/>
     </row>
-    <row r="984" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="27" t="s">
         <v>23</v>
       </c>
@@ -42492,7 +42556,7 @@
       </c>
       <c r="J984" s="27"/>
     </row>
-    <row r="985" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="27" t="s">
         <v>23</v>
       </c>
@@ -42520,7 +42584,7 @@
       </c>
       <c r="J985" s="27"/>
     </row>
-    <row r="986" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="27" t="s">
         <v>23</v>
       </c>
@@ -42546,7 +42610,7 @@
       <c r="I986" s="47"/>
       <c r="J986" s="27"/>
     </row>
-    <row r="987" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="27" t="s">
         <v>23</v>
       </c>
@@ -42572,7 +42636,7 @@
       <c r="I987" s="47"/>
       <c r="J987" s="27"/>
     </row>
-    <row r="988" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="27" t="s">
         <v>23</v>
       </c>
@@ -42600,7 +42664,7 @@
       </c>
       <c r="J988" s="27"/>
     </row>
-    <row r="989" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="27" t="s">
         <v>23</v>
       </c>
@@ -42628,7 +42692,7 @@
       </c>
       <c r="J989" s="27"/>
     </row>
-    <row r="990" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="27" t="s">
         <v>23</v>
       </c>
@@ -42656,7 +42720,7 @@
       </c>
       <c r="J990" s="27"/>
     </row>
-    <row r="991" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="27" t="s">
         <v>23</v>
       </c>
@@ -42684,7 +42748,7 @@
       <c r="I991" s="47"/>
       <c r="J991" s="27"/>
     </row>
-    <row r="992" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="27" t="s">
         <v>23</v>
       </c>
@@ -42712,7 +42776,7 @@
       <c r="I992" s="47"/>
       <c r="J992" s="27"/>
     </row>
-    <row r="993" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="27" t="s">
         <v>23</v>
       </c>
@@ -42740,7 +42804,7 @@
       <c r="I993" s="47"/>
       <c r="J993" s="27"/>
     </row>
-    <row r="994" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="27" t="s">
         <v>23</v>
       </c>
@@ -42768,7 +42832,7 @@
       </c>
       <c r="J994" s="27"/>
     </row>
-    <row r="995" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="27" t="s">
         <v>23</v>
       </c>
@@ -42796,7 +42860,7 @@
       </c>
       <c r="J995" s="27"/>
     </row>
-    <row r="996" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="27" t="s">
         <v>23</v>
       </c>
@@ -42824,7 +42888,7 @@
       </c>
       <c r="J996" s="27"/>
     </row>
-    <row r="997" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="27" t="s">
         <v>678</v>
       </c>
@@ -42852,7 +42916,7 @@
       </c>
       <c r="J997" s="27"/>
     </row>
-    <row r="998" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="27" t="s">
         <v>680</v>
       </c>
@@ -42880,7 +42944,7 @@
       </c>
       <c r="J998" s="27"/>
     </row>
-    <row r="999" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="27" t="s">
         <v>867</v>
       </c>
@@ -42906,7 +42970,7 @@
       </c>
       <c r="J999" s="27"/>
     </row>
-    <row r="1000" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="27" t="s">
         <v>867</v>
       </c>
@@ -42934,7 +42998,7 @@
       </c>
       <c r="J1000" s="27"/>
     </row>
-    <row r="1001" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1001" s="27" t="s">
         <v>616</v>
       </c>
@@ -42962,7 +43026,7 @@
       </c>
       <c r="J1001" s="27"/>
     </row>
-    <row r="1002" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1002" s="27" t="s">
         <v>682</v>
       </c>
@@ -42990,7 +43054,7 @@
       </c>
       <c r="J1002" s="27"/>
     </row>
-    <row r="1003" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1003" s="27" t="s">
         <v>26</v>
       </c>
@@ -43020,7 +43084,7 @@
       </c>
       <c r="J1003" s="27"/>
     </row>
-    <row r="1004" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1004" s="27" t="s">
         <v>26</v>
       </c>
@@ -43048,7 +43112,7 @@
       <c r="I1004" s="47"/>
       <c r="J1004" s="27"/>
     </row>
-    <row r="1005" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1005" s="27" t="s">
         <v>26</v>
       </c>
@@ -43078,7 +43142,7 @@
       </c>
       <c r="J1005" s="27"/>
     </row>
-    <row r="1006" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1006" s="27" t="s">
         <v>26</v>
       </c>
@@ -43108,7 +43172,7 @@
       </c>
       <c r="J1006" s="27"/>
     </row>
-    <row r="1007" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1007" s="27" t="s">
         <v>26</v>
       </c>
@@ -43138,7 +43202,7 @@
       </c>
       <c r="J1007" s="27"/>
     </row>
-    <row r="1008" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1008" s="27" t="s">
         <v>26</v>
       </c>
@@ -43166,7 +43230,7 @@
       </c>
       <c r="J1008" s="27"/>
     </row>
-    <row r="1009" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1009" s="27" t="s">
         <v>26</v>
       </c>
@@ -43194,7 +43258,7 @@
       </c>
       <c r="J1009" s="27"/>
     </row>
-    <row r="1010" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1010" s="27" t="s">
         <v>26</v>
       </c>
@@ -43222,7 +43286,7 @@
       </c>
       <c r="J1010" s="27"/>
     </row>
-    <row r="1011" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1011" s="27" t="s">
         <v>26</v>
       </c>
@@ -43250,7 +43314,7 @@
       </c>
       <c r="J1011" s="27"/>
     </row>
-    <row r="1012" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1012" s="27" t="s">
         <v>26</v>
       </c>
@@ -43278,7 +43342,7 @@
       </c>
       <c r="J1012" s="27"/>
     </row>
-    <row r="1013" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1013" s="27" t="s">
         <v>26</v>
       </c>
@@ -43306,7 +43370,7 @@
       </c>
       <c r="J1013" s="27"/>
     </row>
-    <row r="1014" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1014" s="27" t="s">
         <v>26</v>
       </c>
@@ -43332,7 +43396,7 @@
       <c r="I1014" s="47"/>
       <c r="J1014" s="27"/>
     </row>
-    <row r="1015" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1015" s="27" t="s">
         <v>26</v>
       </c>
@@ -43360,7 +43424,7 @@
       </c>
       <c r="J1015" s="27"/>
     </row>
-    <row r="1016" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1016" s="27" t="s">
         <v>26</v>
       </c>
@@ -43388,7 +43452,7 @@
       </c>
       <c r="J1016" s="27"/>
     </row>
-    <row r="1017" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1017" s="27" t="s">
         <v>26</v>
       </c>
@@ -43416,7 +43480,7 @@
       </c>
       <c r="J1017" s="27"/>
     </row>
-    <row r="1018" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1018" s="27" t="s">
         <v>26</v>
       </c>
@@ -43444,7 +43508,7 @@
       </c>
       <c r="J1018" s="27"/>
     </row>
-    <row r="1019" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1019" s="27" t="s">
         <v>26</v>
       </c>
@@ -43472,7 +43536,7 @@
       </c>
       <c r="J1019" s="27"/>
     </row>
-    <row r="1020" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1020" s="27" t="s">
         <v>26</v>
       </c>
@@ -43498,7 +43562,7 @@
       <c r="I1020" s="47"/>
       <c r="J1020" s="27"/>
     </row>
-    <row r="1021" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1021" s="27" t="s">
         <v>26</v>
       </c>
@@ -43524,7 +43588,7 @@
       <c r="I1021" s="47"/>
       <c r="J1021" s="27"/>
     </row>
-    <row r="1022" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1022" s="27" t="s">
         <v>26</v>
       </c>
@@ -43552,7 +43616,7 @@
       </c>
       <c r="J1022" s="27"/>
     </row>
-    <row r="1023" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1023" s="27" t="s">
         <v>26</v>
       </c>
@@ -43580,7 +43644,7 @@
       </c>
       <c r="J1023" s="27"/>
     </row>
-    <row r="1024" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1024" s="27" t="s">
         <v>26</v>
       </c>
@@ -43610,7 +43674,7 @@
       </c>
       <c r="J1024" s="27"/>
     </row>
-    <row r="1025" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1025" s="27" t="s">
         <v>26</v>
       </c>
@@ -43638,7 +43702,7 @@
       </c>
       <c r="J1025" s="27"/>
     </row>
-    <row r="1026" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1026" s="27" t="s">
         <v>26</v>
       </c>
@@ -43666,7 +43730,7 @@
       </c>
       <c r="J1026" s="27"/>
     </row>
-    <row r="1027" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1027" s="27" t="s">
         <v>26</v>
       </c>
@@ -43694,7 +43758,7 @@
       </c>
       <c r="J1027" s="27"/>
     </row>
-    <row r="1028" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1028" s="27" t="s">
         <v>26</v>
       </c>
@@ -43722,7 +43786,7 @@
       </c>
       <c r="J1028" s="27"/>
     </row>
-    <row r="1029" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1029" s="27" t="s">
         <v>26</v>
       </c>
@@ -43750,7 +43814,7 @@
       </c>
       <c r="J1029" s="27"/>
     </row>
-    <row r="1030" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1030" s="27" t="s">
         <v>30</v>
       </c>
@@ -43780,7 +43844,7 @@
       </c>
       <c r="J1030" s="27"/>
     </row>
-    <row r="1031" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1031" s="27" t="s">
         <v>692</v>
       </c>
@@ -43808,7 +43872,7 @@
       </c>
       <c r="J1031" s="27"/>
     </row>
-    <row r="1032" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1032" s="27" t="s">
         <v>694</v>
       </c>
@@ -43836,7 +43900,7 @@
       </c>
       <c r="J1032" s="27"/>
     </row>
-    <row r="1033" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1033" s="27" t="s">
         <v>566</v>
       </c>
@@ -43864,126 +43928,176 @@
       </c>
       <c r="J1033" s="27"/>
     </row>
+    <row r="1034" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1034" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1034" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1034" s="27" t="s">
+        <v>2836</v>
+      </c>
+      <c r="D1034" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1034" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1034" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1034" s="27"/>
+      <c r="H1034" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1034" s="47">
+        <v>45485</v>
+      </c>
+      <c r="J1034" s="27"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J1033" xr:uid="{11F9BBD1-A794-482F-8733-C6568E26B364}"/>
+  <autoFilter ref="A1:J1033" xr:uid="{11F9BBD1-A794-482F-8733-C6568E26B364}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Needs ID"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:J1033">
     <sortCondition ref="D2:D1033"/>
     <sortCondition ref="A2:A1033"/>
   </sortState>
   <conditionalFormatting sqref="C205:C206">
-    <cfRule type="duplicateValues" dxfId="87" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C205:C206">
-    <cfRule type="duplicateValues" dxfId="86" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C205:C206">
-    <cfRule type="duplicateValues" dxfId="85" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C205:C206">
-    <cfRule type="duplicateValues" dxfId="84" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C219:C222">
-    <cfRule type="duplicateValues" dxfId="83" priority="157"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C219:C222">
-    <cfRule type="duplicateValues" dxfId="81" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C205:C218">
-    <cfRule type="duplicateValues" dxfId="80" priority="1258"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="1264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C366">
+    <cfRule type="duplicateValues" dxfId="85" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C366">
+    <cfRule type="duplicateValues" dxfId="83" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C374">
+    <cfRule type="duplicateValues" dxfId="82" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C374">
+    <cfRule type="duplicateValues" dxfId="80" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C381">
     <cfRule type="duplicateValues" dxfId="79" priority="30"/>
     <cfRule type="duplicateValues" dxfId="78" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C366">
+  <conditionalFormatting sqref="C381">
     <cfRule type="duplicateValues" dxfId="77" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C374">
-    <cfRule type="duplicateValues" dxfId="76" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C374">
-    <cfRule type="duplicateValues" dxfId="74" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C381">
-    <cfRule type="duplicateValues" dxfId="73" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C381">
-    <cfRule type="duplicateValues" dxfId="71" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1034:C1048576 C1:C394">
-    <cfRule type="duplicateValues" dxfId="70" priority="23"/>
+  <conditionalFormatting sqref="C1035:C1048576 C1:C394">
+    <cfRule type="duplicateValues" dxfId="76" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C223:C360">
-    <cfRule type="duplicateValues" dxfId="69" priority="1714"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="1715"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="1720"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="1721"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C223:C360">
-    <cfRule type="duplicateValues" dxfId="67" priority="1718"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="1724"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1034:C1048576 C224:C360 C1:C218">
-    <cfRule type="duplicateValues" dxfId="66" priority="1719"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="1720"/>
+  <conditionalFormatting sqref="C1035:C1048576 C224:C360 C1:C218">
+    <cfRule type="duplicateValues" dxfId="72" priority="1725"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="1726"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1034:C1048576 C224:C360 C1:C204">
-    <cfRule type="duplicateValues" dxfId="64" priority="1727"/>
+  <conditionalFormatting sqref="C1035:C1048576 C224:C360 C1:C204">
+    <cfRule type="duplicateValues" dxfId="70" priority="1733"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1034:C1048576 C224:C360">
-    <cfRule type="duplicateValues" dxfId="63" priority="1731"/>
+  <conditionalFormatting sqref="C1035:C1048576 C224:C360">
+    <cfRule type="duplicateValues" dxfId="69" priority="1737"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1034:C1048576 C224:C360 C1:C218">
-    <cfRule type="duplicateValues" dxfId="62" priority="1734"/>
+  <conditionalFormatting sqref="C1035:C1048576 C224:C360 C1:C218">
+    <cfRule type="duplicateValues" dxfId="68" priority="1740"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1034:C1048576 C1:C360">
-    <cfRule type="duplicateValues" dxfId="61" priority="1738"/>
+  <conditionalFormatting sqref="C1035:C1048576 C1:C360">
+    <cfRule type="duplicateValues" dxfId="67" priority="1744"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C361:C365 C367:C373 C375:C380 C382:C394">
-    <cfRule type="duplicateValues" dxfId="60" priority="1741"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="1742"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="1747"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="1748"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C361:C365 C367:C373 C375:C380 C382:C394">
-    <cfRule type="duplicateValues" dxfId="58" priority="1749"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="1755"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C395">
-    <cfRule type="duplicateValues" dxfId="57" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C395">
-    <cfRule type="duplicateValues" dxfId="56" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C395">
-    <cfRule type="duplicateValues" dxfId="54" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="53" priority="5"/>
+  <conditionalFormatting sqref="C1:C1033 C1035:C1048576">
+    <cfRule type="duplicateValues" dxfId="59" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C396:C404">
-    <cfRule type="duplicateValues" dxfId="52" priority="1807"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="1813"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C396:C404">
-    <cfRule type="duplicateValues" dxfId="51" priority="1808"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="1809"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="1814"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="1815"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1031:C1032">
-    <cfRule type="duplicateValues" dxfId="49" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1033">
-    <cfRule type="duplicateValues" dxfId="48" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C405:C1033">
-    <cfRule type="duplicateValues" dxfId="47" priority="1835"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="1841"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C405:C1033">
-    <cfRule type="duplicateValues" dxfId="46" priority="1837"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="1838"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="1843"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="1844"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C412:C1030">
-    <cfRule type="duplicateValues" dxfId="44" priority="1844"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="1850"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C412:C1033">
-    <cfRule type="duplicateValues" dxfId="43" priority="1846"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="1852"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1034">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1034">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1034">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1034">
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1034">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -44255,8 +44369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDC6CD0-BBAC-F848-A64B-A20370559F7C}">
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -46944,89 +47058,89 @@
     <sortCondition ref="B2:B201"/>
   </sortState>
   <conditionalFormatting sqref="A202:A1048576 A91:A106 A1:A84">
-    <cfRule type="duplicateValues" dxfId="42" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202:A1048576 A1:A106">
-    <cfRule type="duplicateValues" dxfId="41" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202:A1048576 A1:A106">
-    <cfRule type="duplicateValues" dxfId="39" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202:A1048576 A1:A119">
-    <cfRule type="duplicateValues" dxfId="38" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A193 A202:A1048576">
-    <cfRule type="duplicateValues" dxfId="37" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="duplicateValues" dxfId="35" priority="1246"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="1246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="duplicateValues" dxfId="34" priority="1247"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="1248"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="1247"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="1248"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:A119">
-    <cfRule type="duplicateValues" dxfId="32" priority="1441"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="1441"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149:C159">
-    <cfRule type="duplicateValues" dxfId="31" priority="1457"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="1457"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149:A193 A124:A141">
-    <cfRule type="duplicateValues" dxfId="30" priority="1668"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="1668"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A193">
-    <cfRule type="duplicateValues" dxfId="29" priority="1671"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="1672"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="1671"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="1672"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A193">
-    <cfRule type="duplicateValues" dxfId="27" priority="1675"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="1675"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="26" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="24" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="23" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="21" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A195">
-    <cfRule type="duplicateValues" dxfId="20" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A195">
-    <cfRule type="duplicateValues" dxfId="18" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A195">
-    <cfRule type="duplicateValues" dxfId="17" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A195">
-    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A196">
-    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A196">
-    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A196">
-    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A196">
-    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -84824,16 +84938,16 @@
     <sortCondition ref="E2:E621"/>
   </sortState>
   <conditionalFormatting sqref="C1:C621 C625:C1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C622:C623">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C624">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -85212,10 +85326,10 @@
   </sheetData>
   <autoFilter ref="B1:C31" xr:uid="{FB598717-82D7-48E5-A54E-FB6A5DEF5ACB}"/>
   <conditionalFormatting sqref="C30">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -86560,10 +86674,10 @@
     <sortCondition ref="D2:D75"/>
   </sortState>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input/binomial-crosswalk.xlsx
+++ b/input/binomial-crosswalk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\wildlife-cameras\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E96044-ECC3-4BF5-9809-E52E1C52A248}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC9A0FD-B63D-4BD7-B944-035C22A9E5F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="2475" windowWidth="20085" windowHeight="7050" tabRatio="648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="2475" windowWidth="20085" windowHeight="7050" tabRatio="648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="photo-type_binomial_DEN" sheetId="12" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'error-dictionary'!$A$1:$C$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">legacy!$A$1:$H$624</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'legacy_2023-11-01'!$A$1:$I$798</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'photo-type_binomial'!$A$1:$J$1033</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'photo-type_binomial'!$A$1:$J$1034</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'photo-type_binomial_DEN'!$A$1:$J$124</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -14035,9 +14035,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J1034"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1035" sqref="I1035"/>
+      <selection pane="bottomLeft" activeCell="A1035" sqref="A1035:XFD1035"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18756,7 +18756,7 @@
       </c>
       <c r="J178" s="27"/>
     </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="27" t="s">
         <v>2</v>
       </c>
@@ -35096,7 +35096,7 @@
       <c r="I739" s="47"/>
       <c r="J739" s="27"/>
     </row>
-    <row r="740" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="27" t="s">
         <v>50</v>
       </c>
@@ -43928,7 +43928,7 @@
       </c>
       <c r="J1033" s="27"/>
     </row>
-    <row r="1034" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1034" s="27" t="s">
         <v>50</v>
       </c>
@@ -43957,10 +43957,10 @@
       <c r="J1034" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1033" xr:uid="{11F9BBD1-A794-482F-8733-C6568E26B364}">
-    <filterColumn colId="0">
+  <autoFilter ref="A1:J1034" xr:uid="{11F9BBD1-A794-482F-8733-C6568E26B364}">
+    <filterColumn colId="2">
       <filters>
-        <filter val="Needs ID"/>
+        <filter val="Animal_Rodent species"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -44084,20 +44084,20 @@
     <cfRule type="duplicateValues" dxfId="49" priority="1852"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1034">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1034">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1034">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1034">
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1034">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -44369,7 +44369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDC6CD0-BBAC-F848-A64B-A20370559F7C}">
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
@@ -47058,89 +47058,89 @@
     <sortCondition ref="B2:B201"/>
   </sortState>
   <conditionalFormatting sqref="A202:A1048576 A91:A106 A1:A84">
-    <cfRule type="duplicateValues" dxfId="48" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202:A1048576 A1:A106">
-    <cfRule type="duplicateValues" dxfId="47" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202:A1048576 A1:A106">
-    <cfRule type="duplicateValues" dxfId="45" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202:A1048576 A1:A119">
-    <cfRule type="duplicateValues" dxfId="44" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A193 A202:A1048576">
-    <cfRule type="duplicateValues" dxfId="43" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="duplicateValues" dxfId="41" priority="1246"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="1246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="duplicateValues" dxfId="40" priority="1247"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="1248"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="1247"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="1248"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:A119">
-    <cfRule type="duplicateValues" dxfId="38" priority="1441"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="1441"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149:C159">
-    <cfRule type="duplicateValues" dxfId="37" priority="1457"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="1457"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149:A193 A124:A141">
-    <cfRule type="duplicateValues" dxfId="36" priority="1668"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="1668"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A193">
-    <cfRule type="duplicateValues" dxfId="35" priority="1671"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="1672"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="1671"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="1672"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A193">
-    <cfRule type="duplicateValues" dxfId="33" priority="1675"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="1675"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="32" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="30" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="29" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="27" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A195">
-    <cfRule type="duplicateValues" dxfId="26" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A195">
-    <cfRule type="duplicateValues" dxfId="24" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A195">
-    <cfRule type="duplicateValues" dxfId="23" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A195">
-    <cfRule type="duplicateValues" dxfId="21" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A196">
-    <cfRule type="duplicateValues" dxfId="20" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A196">
-    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A196">
-    <cfRule type="duplicateValues" dxfId="17" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A196">
-    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -84938,16 +84938,16 @@
     <sortCondition ref="E2:E621"/>
   </sortState>
   <conditionalFormatting sqref="C1:C621 C625:C1048576">
-    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C622:C623">
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C624">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -85326,10 +85326,10 @@
   </sheetData>
   <autoFilter ref="B1:C31" xr:uid="{FB598717-82D7-48E5-A54E-FB6A5DEF5ACB}"/>
   <conditionalFormatting sqref="C30">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -86674,10 +86674,10 @@
     <sortCondition ref="D2:D75"/>
   </sortState>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input/binomial-crosswalk.xlsx
+++ b/input/binomial-crosswalk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\wildlife-cameras\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC9A0FD-B63D-4BD7-B944-035C22A9E5F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D54C7D6-EB63-4F90-B1C0-5921051BB0E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="2475" windowWidth="20085" windowHeight="7050" tabRatio="648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="2475" windowWidth="20085" windowHeight="7050" tabRatio="648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="photo-type_binomial_DEN" sheetId="12" r:id="rId1"/>
@@ -10713,11 +10713,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA0E98F-B7AC-403B-B8A6-7CBA949C628F}">
   <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G101" sqref="G101:G124"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14032,10 +14032,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J1034"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1035" sqref="A1035:XFD1035"/>
     </sheetView>
@@ -14086,7 +14085,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>203</v>
       </c>
@@ -14110,7 +14109,7 @@
       <c r="I2" s="47"/>
       <c r="J2" s="27"/>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>633</v>
       </c>
@@ -14136,7 +14135,7 @@
       </c>
       <c r="J3" s="27"/>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
@@ -14162,7 +14161,7 @@
       <c r="I4" s="47"/>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>2</v>
       </c>
@@ -14188,7 +14187,7 @@
       <c r="I5" s="47"/>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>2</v>
       </c>
@@ -14214,7 +14213,7 @@
       <c r="I6" s="47"/>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>2</v>
       </c>
@@ -14242,7 +14241,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>2</v>
       </c>
@@ -14268,7 +14267,7 @@
       <c r="I8" s="47"/>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>2</v>
       </c>
@@ -14294,7 +14293,7 @@
       <c r="I9" s="47"/>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>2</v>
       </c>
@@ -14322,7 +14321,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>2</v>
       </c>
@@ -14348,7 +14347,7 @@
       <c r="I11" s="47"/>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>2</v>
       </c>
@@ -14376,7 +14375,7 @@
       </c>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>2</v>
       </c>
@@ -14404,7 +14403,7 @@
       </c>
       <c r="J13" s="27"/>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>2</v>
       </c>
@@ -14430,7 +14429,7 @@
       <c r="I14" s="47"/>
       <c r="J14" s="27"/>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>2</v>
       </c>
@@ -14458,7 +14457,7 @@
       </c>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>2</v>
       </c>
@@ -14486,7 +14485,7 @@
       </c>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>2</v>
       </c>
@@ -14514,7 +14513,7 @@
       <c r="I17" s="47"/>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>2</v>
       </c>
@@ -14544,7 +14543,7 @@
       </c>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>2</v>
       </c>
@@ -14572,7 +14571,7 @@
       </c>
       <c r="J19" s="27"/>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>2</v>
       </c>
@@ -14598,7 +14597,7 @@
       <c r="I20" s="47"/>
       <c r="J20" s="27"/>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>2</v>
       </c>
@@ -14624,7 +14623,7 @@
       <c r="I21" s="47"/>
       <c r="J21" s="27"/>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>2</v>
       </c>
@@ -14652,7 +14651,7 @@
       </c>
       <c r="J22" s="27"/>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>2</v>
       </c>
@@ -14676,7 +14675,7 @@
       <c r="I23" s="47"/>
       <c r="J23" s="27"/>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>2</v>
       </c>
@@ -14700,7 +14699,7 @@
       <c r="I24" s="47"/>
       <c r="J24" s="27"/>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>2</v>
       </c>
@@ -14726,7 +14725,7 @@
       <c r="I25" s="47"/>
       <c r="J25" s="27"/>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>2</v>
       </c>
@@ -14752,7 +14751,7 @@
       <c r="I26" s="47"/>
       <c r="J26" s="27"/>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>2</v>
       </c>
@@ -14780,7 +14779,7 @@
       </c>
       <c r="J27" s="27"/>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>2</v>
       </c>
@@ -14806,7 +14805,7 @@
       <c r="I28" s="47"/>
       <c r="J28" s="27"/>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>2</v>
       </c>
@@ -14834,7 +14833,7 @@
       </c>
       <c r="J29" s="27"/>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>2</v>
       </c>
@@ -14862,7 +14861,7 @@
       </c>
       <c r="J30" s="27"/>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>2</v>
       </c>
@@ -14888,7 +14887,7 @@
       <c r="I31" s="47"/>
       <c r="J31" s="27"/>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>2</v>
       </c>
@@ -14914,7 +14913,7 @@
       <c r="I32" s="47"/>
       <c r="J32" s="27"/>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
         <v>2</v>
       </c>
@@ -14942,7 +14941,7 @@
       </c>
       <c r="J33" s="27"/>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>2</v>
       </c>
@@ -14968,7 +14967,7 @@
       <c r="I34" s="47"/>
       <c r="J34" s="27"/>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
         <v>2</v>
       </c>
@@ -14996,7 +14995,7 @@
       </c>
       <c r="J35" s="27"/>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
         <v>2</v>
       </c>
@@ -15022,7 +15021,7 @@
       <c r="I36" s="47"/>
       <c r="J36" s="27"/>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
         <v>2</v>
       </c>
@@ -15050,7 +15049,7 @@
       </c>
       <c r="J37" s="27"/>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
         <v>2</v>
       </c>
@@ -15076,7 +15075,7 @@
       <c r="I38" s="47"/>
       <c r="J38" s="27"/>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
         <v>2</v>
       </c>
@@ -15102,7 +15101,7 @@
       <c r="I39" s="47"/>
       <c r="J39" s="27"/>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
         <v>2</v>
       </c>
@@ -15128,7 +15127,7 @@
       <c r="I40" s="47"/>
       <c r="J40" s="27"/>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
         <v>2</v>
       </c>
@@ -15156,7 +15155,7 @@
       </c>
       <c r="J41" s="27"/>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
         <v>2</v>
       </c>
@@ -15184,7 +15183,7 @@
       </c>
       <c r="J42" s="27"/>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
         <v>2</v>
       </c>
@@ -15210,7 +15209,7 @@
       <c r="I43" s="47"/>
       <c r="J43" s="27"/>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
         <v>2</v>
       </c>
@@ -15236,7 +15235,7 @@
       <c r="I44" s="47"/>
       <c r="J44" s="27"/>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
         <v>2</v>
       </c>
@@ -15262,7 +15261,7 @@
       <c r="I45" s="47"/>
       <c r="J45" s="27"/>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
         <v>2</v>
       </c>
@@ -15288,7 +15287,7 @@
       <c r="I46" s="47"/>
       <c r="J46" s="27"/>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
         <v>2</v>
       </c>
@@ -15314,7 +15313,7 @@
       <c r="I47" s="47"/>
       <c r="J47" s="27"/>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
         <v>2</v>
       </c>
@@ -15340,7 +15339,7 @@
       <c r="I48" s="47"/>
       <c r="J48" s="27"/>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="27" t="s">
         <v>2</v>
       </c>
@@ -15368,7 +15367,7 @@
       </c>
       <c r="J49" s="27"/>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
         <v>2</v>
       </c>
@@ -15394,7 +15393,7 @@
       <c r="I50" s="47"/>
       <c r="J50" s="27"/>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="27" t="s">
         <v>2</v>
       </c>
@@ -15422,7 +15421,7 @@
       </c>
       <c r="J51" s="27"/>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
         <v>2</v>
       </c>
@@ -15448,7 +15447,7 @@
       <c r="I52" s="47"/>
       <c r="J52" s="27"/>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="27" t="s">
         <v>2</v>
       </c>
@@ -15478,7 +15477,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
         <v>2</v>
       </c>
@@ -15506,7 +15505,7 @@
       </c>
       <c r="J54" s="27"/>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="27" t="s">
         <v>2</v>
       </c>
@@ -15534,7 +15533,7 @@
       </c>
       <c r="J55" s="27"/>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
         <v>2</v>
       </c>
@@ -15562,7 +15561,7 @@
       </c>
       <c r="J56" s="27"/>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="27" t="s">
         <v>2</v>
       </c>
@@ -15590,7 +15589,7 @@
       </c>
       <c r="J57" s="27"/>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="27" t="s">
         <v>2</v>
       </c>
@@ -15616,7 +15615,7 @@
       <c r="I58" s="47"/>
       <c r="J58" s="27"/>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="27" t="s">
         <v>2</v>
       </c>
@@ -15642,7 +15641,7 @@
       <c r="I59" s="47"/>
       <c r="J59" s="27"/>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="27" t="s">
         <v>2</v>
       </c>
@@ -15670,7 +15669,7 @@
       </c>
       <c r="J60" s="27"/>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="27" t="s">
         <v>2</v>
       </c>
@@ -15698,7 +15697,7 @@
       </c>
       <c r="J61" s="27"/>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="27" t="s">
         <v>2</v>
       </c>
@@ -15726,7 +15725,7 @@
       </c>
       <c r="J62" s="27"/>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="27" t="s">
         <v>2</v>
       </c>
@@ -15752,7 +15751,7 @@
       <c r="I63" s="47"/>
       <c r="J63" s="27"/>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
         <v>2</v>
       </c>
@@ -15778,7 +15777,7 @@
       <c r="I64" s="47"/>
       <c r="J64" s="27"/>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="27" t="s">
         <v>2</v>
       </c>
@@ -15804,7 +15803,7 @@
       <c r="I65" s="47"/>
       <c r="J65" s="27"/>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="27" t="s">
         <v>2</v>
       </c>
@@ -15830,7 +15829,7 @@
       <c r="I66" s="47"/>
       <c r="J66" s="27"/>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="27" t="s">
         <v>2</v>
       </c>
@@ -15856,7 +15855,7 @@
       <c r="I67" s="47"/>
       <c r="J67" s="27"/>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
         <v>2</v>
       </c>
@@ -15882,7 +15881,7 @@
       <c r="I68" s="47"/>
       <c r="J68" s="27"/>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="27" t="s">
         <v>2</v>
       </c>
@@ -15908,7 +15907,7 @@
       <c r="I69" s="47"/>
       <c r="J69" s="27"/>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="27" t="s">
         <v>2</v>
       </c>
@@ -15934,7 +15933,7 @@
       <c r="I70" s="47"/>
       <c r="J70" s="27"/>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
         <v>2</v>
       </c>
@@ -15962,7 +15961,7 @@
       </c>
       <c r="J71" s="27"/>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="27" t="s">
         <v>2</v>
       </c>
@@ -15988,7 +15987,7 @@
       <c r="I72" s="47"/>
       <c r="J72" s="27"/>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="27" t="s">
         <v>2</v>
       </c>
@@ -16014,7 +16013,7 @@
       <c r="I73" s="47"/>
       <c r="J73" s="27"/>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="27" t="s">
         <v>2</v>
       </c>
@@ -16040,7 +16039,7 @@
       <c r="I74" s="47"/>
       <c r="J74" s="27"/>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="27" t="s">
         <v>2</v>
       </c>
@@ -16066,7 +16065,7 @@
       <c r="I75" s="47"/>
       <c r="J75" s="27"/>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="27" t="s">
         <v>2</v>
       </c>
@@ -16092,7 +16091,7 @@
       <c r="I76" s="47"/>
       <c r="J76" s="27"/>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="27" t="s">
         <v>2</v>
       </c>
@@ -16118,7 +16117,7 @@
       <c r="I77" s="47"/>
       <c r="J77" s="27"/>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="27" t="s">
         <v>2</v>
       </c>
@@ -16144,7 +16143,7 @@
       <c r="I78" s="47"/>
       <c r="J78" s="27"/>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="27" t="s">
         <v>2</v>
       </c>
@@ -16170,7 +16169,7 @@
       <c r="I79" s="47"/>
       <c r="J79" s="27"/>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="27" t="s">
         <v>2</v>
       </c>
@@ -16196,7 +16195,7 @@
       <c r="I80" s="47"/>
       <c r="J80" s="27"/>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="27" t="s">
         <v>2</v>
       </c>
@@ -16222,7 +16221,7 @@
       <c r="I81" s="47"/>
       <c r="J81" s="27"/>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="27" t="s">
         <v>2</v>
       </c>
@@ -16248,7 +16247,7 @@
       <c r="I82" s="47"/>
       <c r="J82" s="27"/>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="27" t="s">
         <v>2</v>
       </c>
@@ -16276,7 +16275,7 @@
       </c>
       <c r="J83" s="27"/>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="27" t="s">
         <v>2</v>
       </c>
@@ -16304,7 +16303,7 @@
       </c>
       <c r="J84" s="27"/>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="27" t="s">
         <v>2</v>
       </c>
@@ -16332,7 +16331,7 @@
       </c>
       <c r="J85" s="27"/>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="27" t="s">
         <v>2</v>
       </c>
@@ -16360,7 +16359,7 @@
       </c>
       <c r="J86" s="27"/>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="27" t="s">
         <v>2</v>
       </c>
@@ -16388,7 +16387,7 @@
       </c>
       <c r="J87" s="27"/>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="27" t="s">
         <v>2</v>
       </c>
@@ -16416,7 +16415,7 @@
       </c>
       <c r="J88" s="27"/>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
         <v>820</v>
       </c>
@@ -16444,7 +16443,7 @@
       </c>
       <c r="J89" s="27"/>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="27" t="s">
         <v>2</v>
       </c>
@@ -16470,7 +16469,7 @@
       <c r="I90" s="47"/>
       <c r="J90" s="27"/>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="27" t="s">
         <v>2</v>
       </c>
@@ -16498,7 +16497,7 @@
       </c>
       <c r="J91" s="27"/>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
         <v>2</v>
       </c>
@@ -16524,7 +16523,7 @@
       <c r="I92" s="47"/>
       <c r="J92" s="27"/>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="27" t="s">
         <v>2</v>
       </c>
@@ -16550,7 +16549,7 @@
       <c r="I93" s="47"/>
       <c r="J93" s="27"/>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="27" t="s">
         <v>2</v>
       </c>
@@ -16574,7 +16573,7 @@
       <c r="I94" s="47"/>
       <c r="J94" s="27"/>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="27" t="s">
         <v>2</v>
       </c>
@@ -16600,7 +16599,7 @@
       </c>
       <c r="J95" s="27"/>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="27" t="s">
         <v>2</v>
       </c>
@@ -16626,7 +16625,7 @@
       </c>
       <c r="J96" s="27"/>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="27" t="s">
         <v>2</v>
       </c>
@@ -16650,7 +16649,7 @@
       <c r="I97" s="47"/>
       <c r="J97" s="27"/>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="27" t="s">
         <v>2</v>
       </c>
@@ -16674,7 +16673,7 @@
       <c r="I98" s="47"/>
       <c r="J98" s="27"/>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="27" t="s">
         <v>2</v>
       </c>
@@ -16700,7 +16699,7 @@
       </c>
       <c r="J99" s="27"/>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="27" t="s">
         <v>2</v>
       </c>
@@ -16726,7 +16725,7 @@
       </c>
       <c r="J100" s="27"/>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="27" t="s">
         <v>2</v>
       </c>
@@ -16750,7 +16749,7 @@
       <c r="I101" s="47"/>
       <c r="J101" s="27"/>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="27" t="s">
         <v>2</v>
       </c>
@@ -16778,7 +16777,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="27" t="s">
         <v>2</v>
       </c>
@@ -16804,7 +16803,7 @@
       </c>
       <c r="J103" s="27"/>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="27" t="s">
         <v>2</v>
       </c>
@@ -16830,7 +16829,7 @@
       </c>
       <c r="J104" s="27"/>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="27" t="s">
         <v>2</v>
       </c>
@@ -16856,7 +16855,7 @@
       </c>
       <c r="J105" s="27"/>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="27" t="s">
         <v>2</v>
       </c>
@@ -16882,7 +16881,7 @@
       </c>
       <c r="J106" s="27"/>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="27" t="s">
         <v>2</v>
       </c>
@@ -16908,7 +16907,7 @@
       </c>
       <c r="J107" s="27"/>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="27" t="s">
         <v>820</v>
       </c>
@@ -16934,7 +16933,7 @@
       </c>
       <c r="J108" s="27"/>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="27" t="s">
         <v>2</v>
       </c>
@@ -16960,7 +16959,7 @@
       </c>
       <c r="J109" s="27"/>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="27" t="s">
         <v>2</v>
       </c>
@@ -16984,7 +16983,7 @@
       <c r="I110" s="47"/>
       <c r="J110" s="27"/>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="27" t="s">
         <v>2</v>
       </c>
@@ -17010,7 +17009,7 @@
       </c>
       <c r="J111" s="27"/>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="27" t="s">
         <v>2</v>
       </c>
@@ -17036,7 +17035,7 @@
       </c>
       <c r="J112" s="27"/>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="27" t="s">
         <v>2</v>
       </c>
@@ -17060,7 +17059,7 @@
       <c r="I113" s="47"/>
       <c r="J113" s="27"/>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="27" t="s">
         <v>2</v>
       </c>
@@ -17084,7 +17083,7 @@
       <c r="I114" s="47"/>
       <c r="J114" s="27"/>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="27" t="s">
         <v>2</v>
       </c>
@@ -17112,7 +17111,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="27" t="s">
         <v>2</v>
       </c>
@@ -17136,7 +17135,7 @@
       <c r="I116" s="47"/>
       <c r="J116" s="27"/>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="27" t="s">
         <v>2</v>
       </c>
@@ -17160,7 +17159,7 @@
       <c r="I117" s="47"/>
       <c r="J117" s="27"/>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="27" t="s">
         <v>2</v>
       </c>
@@ -17188,7 +17187,7 @@
       </c>
       <c r="J118" s="27"/>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="27" t="s">
         <v>2</v>
       </c>
@@ -17216,7 +17215,7 @@
       </c>
       <c r="J119" s="27"/>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="27" t="s">
         <v>2</v>
       </c>
@@ -17244,7 +17243,7 @@
       </c>
       <c r="J120" s="27"/>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="27" t="s">
         <v>2</v>
       </c>
@@ -17272,7 +17271,7 @@
       </c>
       <c r="J121" s="27"/>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="27" t="s">
         <v>2</v>
       </c>
@@ -17300,7 +17299,7 @@
       </c>
       <c r="J122" s="27"/>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="27" t="s">
         <v>2</v>
       </c>
@@ -17326,7 +17325,7 @@
       </c>
       <c r="J123" s="27"/>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="27" t="s">
         <v>2</v>
       </c>
@@ -17352,7 +17351,7 @@
       </c>
       <c r="J124" s="27"/>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="27" t="s">
         <v>2</v>
       </c>
@@ -17378,7 +17377,7 @@
       </c>
       <c r="J125" s="27"/>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="27" t="s">
         <v>2</v>
       </c>
@@ -17404,7 +17403,7 @@
       </c>
       <c r="J126" s="27"/>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="27" t="s">
         <v>2</v>
       </c>
@@ -17430,7 +17429,7 @@
       </c>
       <c r="J127" s="27"/>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="27" t="s">
         <v>2</v>
       </c>
@@ -17454,7 +17453,7 @@
       <c r="I128" s="47"/>
       <c r="J128" s="27"/>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="27" t="s">
         <v>2</v>
       </c>
@@ -17478,7 +17477,7 @@
       <c r="I129" s="47"/>
       <c r="J129" s="27"/>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="27" t="s">
         <v>2</v>
       </c>
@@ -17504,7 +17503,7 @@
       </c>
       <c r="J130" s="27"/>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="27" t="s">
         <v>2</v>
       </c>
@@ -17528,7 +17527,7 @@
       <c r="I131" s="47"/>
       <c r="J131" s="27"/>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="27" t="s">
         <v>2</v>
       </c>
@@ -17552,7 +17551,7 @@
       <c r="I132" s="47"/>
       <c r="J132" s="27"/>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="27" t="s">
         <v>2</v>
       </c>
@@ -17578,7 +17577,7 @@
       </c>
       <c r="J133" s="27"/>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="27" t="s">
         <v>2</v>
       </c>
@@ -17602,7 +17601,7 @@
       <c r="I134" s="47"/>
       <c r="J134" s="27"/>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="27" t="s">
         <v>2</v>
       </c>
@@ -17630,7 +17629,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="27" t="s">
         <v>2</v>
       </c>
@@ -17658,7 +17657,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="27" t="s">
         <v>2</v>
       </c>
@@ -17682,7 +17681,7 @@
       <c r="I137" s="47"/>
       <c r="J137" s="27"/>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="27" t="s">
         <v>2</v>
       </c>
@@ -17708,7 +17707,7 @@
       </c>
       <c r="J138" s="27"/>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="27" t="s">
         <v>2</v>
       </c>
@@ -17734,7 +17733,7 @@
       </c>
       <c r="J139" s="27"/>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="27" t="s">
         <v>2</v>
       </c>
@@ -17760,7 +17759,7 @@
       </c>
       <c r="J140" s="27"/>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="27" t="s">
         <v>2</v>
       </c>
@@ -17786,7 +17785,7 @@
       </c>
       <c r="J141" s="27"/>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="27" t="s">
         <v>2</v>
       </c>
@@ -17812,7 +17811,7 @@
       </c>
       <c r="J142" s="27"/>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="27" t="s">
         <v>2</v>
       </c>
@@ -17838,7 +17837,7 @@
       </c>
       <c r="J143" s="27"/>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="27" t="s">
         <v>2</v>
       </c>
@@ -17862,7 +17861,7 @@
       <c r="I144" s="47"/>
       <c r="J144" s="27"/>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="27" t="s">
         <v>2</v>
       </c>
@@ -17886,7 +17885,7 @@
       <c r="I145" s="47"/>
       <c r="J145" s="27"/>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="27" t="s">
         <v>2</v>
       </c>
@@ -17910,7 +17909,7 @@
       <c r="I146" s="47"/>
       <c r="J146" s="27"/>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="27" t="s">
         <v>2</v>
       </c>
@@ -17940,7 +17939,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="27" t="s">
         <v>2</v>
       </c>
@@ -17966,7 +17965,7 @@
       </c>
       <c r="J148" s="27"/>
     </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="27" t="s">
         <v>2</v>
       </c>
@@ -17992,7 +17991,7 @@
       </c>
       <c r="J149" s="27"/>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="27" t="s">
         <v>2</v>
       </c>
@@ -18018,7 +18017,7 @@
       </c>
       <c r="J150" s="27"/>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="27" t="s">
         <v>2</v>
       </c>
@@ -18044,7 +18043,7 @@
       </c>
       <c r="J151" s="27"/>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="27" t="s">
         <v>2</v>
       </c>
@@ -18070,7 +18069,7 @@
       </c>
       <c r="J152" s="27"/>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="27" t="s">
         <v>2</v>
       </c>
@@ -18096,7 +18095,7 @@
       </c>
       <c r="J153" s="27"/>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="27" t="s">
         <v>2</v>
       </c>
@@ -18122,7 +18121,7 @@
       </c>
       <c r="J154" s="27"/>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="27" t="s">
         <v>2</v>
       </c>
@@ -18148,7 +18147,7 @@
       </c>
       <c r="J155" s="27"/>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="27" t="s">
         <v>2</v>
       </c>
@@ -18174,7 +18173,7 @@
       </c>
       <c r="J156" s="27"/>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="27" t="s">
         <v>2</v>
       </c>
@@ -18200,7 +18199,7 @@
       </c>
       <c r="J157" s="27"/>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="27" t="s">
         <v>2</v>
       </c>
@@ -18224,7 +18223,7 @@
       <c r="I158" s="47"/>
       <c r="J158" s="27"/>
     </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="27" t="s">
         <v>2</v>
       </c>
@@ -18248,7 +18247,7 @@
       <c r="I159" s="47"/>
       <c r="J159" s="27"/>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="27" t="s">
         <v>2</v>
       </c>
@@ -18274,7 +18273,7 @@
       </c>
       <c r="J160" s="27"/>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="27" t="s">
         <v>2</v>
       </c>
@@ -18302,7 +18301,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="27" t="s">
         <v>2</v>
       </c>
@@ -18330,7 +18329,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="27" t="s">
         <v>2</v>
       </c>
@@ -18358,7 +18357,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="27" t="s">
         <v>2</v>
       </c>
@@ -18384,7 +18383,7 @@
       </c>
       <c r="J164" s="27"/>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="27" t="s">
         <v>2</v>
       </c>
@@ -18410,7 +18409,7 @@
       </c>
       <c r="J165" s="27"/>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="27" t="s">
         <v>2</v>
       </c>
@@ -18434,7 +18433,7 @@
       <c r="I166" s="47"/>
       <c r="J166" s="27"/>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="27" t="s">
         <v>2</v>
       </c>
@@ -18458,7 +18457,7 @@
       <c r="I167" s="47"/>
       <c r="J167" s="27"/>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="27" t="s">
         <v>2</v>
       </c>
@@ -18484,7 +18483,7 @@
       </c>
       <c r="J168" s="27"/>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="27" t="s">
         <v>2</v>
       </c>
@@ -18510,7 +18509,7 @@
       </c>
       <c r="J169" s="27"/>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="27" t="s">
         <v>2</v>
       </c>
@@ -18534,7 +18533,7 @@
       <c r="I170" s="47"/>
       <c r="J170" s="27"/>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="27" t="s">
         <v>2</v>
       </c>
@@ -18562,7 +18561,7 @@
       </c>
       <c r="J171" s="27"/>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="27" t="s">
         <v>2</v>
       </c>
@@ -18590,7 +18589,7 @@
       </c>
       <c r="J172" s="27"/>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="27" t="s">
         <v>2</v>
       </c>
@@ -18618,7 +18617,7 @@
       </c>
       <c r="J173" s="27"/>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="27" t="s">
         <v>2</v>
       </c>
@@ -18646,7 +18645,7 @@
       </c>
       <c r="J174" s="27"/>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="27" t="s">
         <v>2</v>
       </c>
@@ -18674,7 +18673,7 @@
       </c>
       <c r="J175" s="27"/>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="27" t="s">
         <v>2</v>
       </c>
@@ -18700,7 +18699,7 @@
       <c r="I176" s="47"/>
       <c r="J176" s="27"/>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="27" t="s">
         <v>2</v>
       </c>
@@ -18728,7 +18727,7 @@
       </c>
       <c r="J177" s="27"/>
     </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="27" t="s">
         <v>2</v>
       </c>
@@ -18780,7 +18779,7 @@
       <c r="I179" s="47"/>
       <c r="J179" s="27"/>
     </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="27" t="s">
         <v>2</v>
       </c>
@@ -18808,7 +18807,7 @@
       </c>
       <c r="J180" s="27"/>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="27" t="s">
         <v>2</v>
       </c>
@@ -18836,7 +18835,7 @@
       </c>
       <c r="J181" s="27"/>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="27" t="s">
         <v>2</v>
       </c>
@@ -18862,7 +18861,7 @@
       </c>
       <c r="J182" s="27"/>
     </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="27" t="s">
         <v>2</v>
       </c>
@@ -18888,7 +18887,7 @@
       </c>
       <c r="J183" s="27"/>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="27" t="s">
         <v>2</v>
       </c>
@@ -18914,7 +18913,7 @@
       </c>
       <c r="J184" s="27"/>
     </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="27" t="s">
         <v>2</v>
       </c>
@@ -18940,7 +18939,7 @@
       </c>
       <c r="J185" s="27"/>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="27" t="s">
         <v>2</v>
       </c>
@@ -18964,7 +18963,7 @@
       <c r="I186" s="47"/>
       <c r="J186" s="27"/>
     </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="27" t="s">
         <v>2</v>
       </c>
@@ -18988,7 +18987,7 @@
       <c r="I187" s="47"/>
       <c r="J187" s="27"/>
     </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="27" t="s">
         <v>2</v>
       </c>
@@ -19012,7 +19011,7 @@
       <c r="I188" s="47"/>
       <c r="J188" s="27"/>
     </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="27" t="s">
         <v>2</v>
       </c>
@@ -19036,7 +19035,7 @@
       <c r="I189" s="47"/>
       <c r="J189" s="27"/>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="27" t="s">
         <v>2</v>
       </c>
@@ -19060,7 +19059,7 @@
       <c r="I190" s="47"/>
       <c r="J190" s="27"/>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="27" t="s">
         <v>2</v>
       </c>
@@ -19086,7 +19085,7 @@
       </c>
       <c r="J191" s="27"/>
     </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="27" t="s">
         <v>2</v>
       </c>
@@ -19112,7 +19111,7 @@
       </c>
       <c r="J192" s="27"/>
     </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="27" t="s">
         <v>2</v>
       </c>
@@ -19138,7 +19137,7 @@
       </c>
       <c r="J193" s="27"/>
     </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="27" t="s">
         <v>2</v>
       </c>
@@ -19162,7 +19161,7 @@
       <c r="I194" s="47"/>
       <c r="J194" s="27"/>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="27" t="s">
         <v>2</v>
       </c>
@@ -19186,7 +19185,7 @@
       <c r="I195" s="47"/>
       <c r="J195" s="27"/>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="27" t="s">
         <v>2</v>
       </c>
@@ -19212,7 +19211,7 @@
       </c>
       <c r="J196" s="27"/>
     </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="27" t="s">
         <v>2</v>
       </c>
@@ -19236,7 +19235,7 @@
       <c r="I197" s="47"/>
       <c r="J197" s="27"/>
     </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="27" t="s">
         <v>2</v>
       </c>
@@ -19262,7 +19261,7 @@
       </c>
       <c r="J198" s="27"/>
     </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="27" t="s">
         <v>2</v>
       </c>
@@ -19288,7 +19287,7 @@
       </c>
       <c r="J199" s="27"/>
     </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="27" t="s">
         <v>2</v>
       </c>
@@ -19314,7 +19313,7 @@
       </c>
       <c r="J200" s="27"/>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="27" t="s">
         <v>2</v>
       </c>
@@ -19340,7 +19339,7 @@
       </c>
       <c r="J201" s="27"/>
     </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="27" t="s">
         <v>2</v>
       </c>
@@ -19366,7 +19365,7 @@
       </c>
       <c r="J202" s="27"/>
     </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="27" t="s">
         <v>2</v>
       </c>
@@ -19392,7 +19391,7 @@
       </c>
       <c r="J203" s="27"/>
     </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="27" t="s">
         <v>2</v>
       </c>
@@ -19418,7 +19417,7 @@
       </c>
       <c r="J204" s="27"/>
     </row>
-    <row r="205" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="27" t="s">
         <v>2</v>
       </c>
@@ -19444,7 +19443,7 @@
       </c>
       <c r="J205" s="27"/>
     </row>
-    <row r="206" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="27" t="s">
         <v>2</v>
       </c>
@@ -19470,7 +19469,7 @@
       </c>
       <c r="J206" s="27"/>
     </row>
-    <row r="207" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="27" t="s">
         <v>2</v>
       </c>
@@ -19496,7 +19495,7 @@
       </c>
       <c r="J207" s="27"/>
     </row>
-    <row r="208" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="27" t="s">
         <v>2</v>
       </c>
@@ -19522,7 +19521,7 @@
       </c>
       <c r="J208" s="27"/>
     </row>
-    <row r="209" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="27" t="s">
         <v>2</v>
       </c>
@@ -19548,7 +19547,7 @@
       </c>
       <c r="J209" s="27"/>
     </row>
-    <row r="210" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="27" t="s">
         <v>2</v>
       </c>
@@ -19574,7 +19573,7 @@
       </c>
       <c r="J210" s="27"/>
     </row>
-    <row r="211" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="27" t="s">
         <v>2</v>
       </c>
@@ -19600,7 +19599,7 @@
       </c>
       <c r="J211" s="27"/>
     </row>
-    <row r="212" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="27" t="s">
         <v>2</v>
       </c>
@@ -19626,7 +19625,7 @@
       </c>
       <c r="J212" s="27"/>
     </row>
-    <row r="213" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="27" t="s">
         <v>2</v>
       </c>
@@ -19652,7 +19651,7 @@
       </c>
       <c r="J213" s="27"/>
     </row>
-    <row r="214" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="27" t="s">
         <v>820</v>
       </c>
@@ -19678,7 +19677,7 @@
       </c>
       <c r="J214" s="27"/>
     </row>
-    <row r="215" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="27" t="s">
         <v>2</v>
       </c>
@@ -19704,7 +19703,7 @@
       </c>
       <c r="J215" s="27"/>
     </row>
-    <row r="216" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="27" t="s">
         <v>2</v>
       </c>
@@ -19728,7 +19727,7 @@
       <c r="I216" s="47"/>
       <c r="J216" s="27"/>
     </row>
-    <row r="217" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="27" t="s">
         <v>2</v>
       </c>
@@ -19752,7 +19751,7 @@
       <c r="I217" s="47"/>
       <c r="J217" s="27"/>
     </row>
-    <row r="218" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="27" t="s">
         <v>2</v>
       </c>
@@ -19776,7 +19775,7 @@
       <c r="I218" s="47"/>
       <c r="J218" s="27"/>
     </row>
-    <row r="219" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="27" t="s">
         <v>2</v>
       </c>
@@ -19800,7 +19799,7 @@
       <c r="I219" s="47"/>
       <c r="J219" s="27"/>
     </row>
-    <row r="220" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="27" t="s">
         <v>2</v>
       </c>
@@ -19824,7 +19823,7 @@
       <c r="I220" s="47"/>
       <c r="J220" s="27"/>
     </row>
-    <row r="221" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="27" t="s">
         <v>2</v>
       </c>
@@ -19848,7 +19847,7 @@
       <c r="I221" s="47"/>
       <c r="J221" s="27"/>
     </row>
-    <row r="222" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="27" t="s">
         <v>2</v>
       </c>
@@ -19872,7 +19871,7 @@
       <c r="I222" s="47"/>
       <c r="J222" s="27"/>
     </row>
-    <row r="223" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="27" t="s">
         <v>2</v>
       </c>
@@ -19896,7 +19895,7 @@
       <c r="I223" s="47"/>
       <c r="J223" s="27"/>
     </row>
-    <row r="224" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="27" t="s">
         <v>2</v>
       </c>
@@ -19920,7 +19919,7 @@
       <c r="I224" s="47"/>
       <c r="J224" s="27"/>
     </row>
-    <row r="225" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="27" t="s">
         <v>2</v>
       </c>
@@ -19946,7 +19945,7 @@
       </c>
       <c r="J225" s="27"/>
     </row>
-    <row r="226" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="27" t="s">
         <v>2</v>
       </c>
@@ -19972,7 +19971,7 @@
       </c>
       <c r="J226" s="27"/>
     </row>
-    <row r="227" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="27" t="s">
         <v>2</v>
       </c>
@@ -19998,7 +19997,7 @@
       </c>
       <c r="J227" s="27"/>
     </row>
-    <row r="228" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="27" t="s">
         <v>2</v>
       </c>
@@ -20024,7 +20023,7 @@
       </c>
       <c r="J228" s="27"/>
     </row>
-    <row r="229" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="27" t="s">
         <v>2</v>
       </c>
@@ -20052,7 +20051,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="230" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="27" t="s">
         <v>2</v>
       </c>
@@ -20080,7 +20079,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="231" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="27" t="s">
         <v>2</v>
       </c>
@@ -20108,7 +20107,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="232" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="27" t="s">
         <v>591</v>
       </c>
@@ -20136,7 +20135,7 @@
       </c>
       <c r="J232" s="27"/>
     </row>
-    <row r="233" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="27" t="s">
         <v>668</v>
       </c>
@@ -20164,7 +20163,7 @@
       </c>
       <c r="J233" s="27"/>
     </row>
-    <row r="234" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="27" t="s">
         <v>35</v>
       </c>
@@ -20192,7 +20191,7 @@
       </c>
       <c r="J234" s="27"/>
     </row>
-    <row r="235" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="27" t="s">
         <v>35</v>
       </c>
@@ -20218,7 +20217,7 @@
       </c>
       <c r="J235" s="27"/>
     </row>
-    <row r="236" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="27" t="s">
         <v>35</v>
       </c>
@@ -20244,7 +20243,7 @@
       </c>
       <c r="J236" s="27"/>
     </row>
-    <row r="237" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="27" t="s">
         <v>35</v>
       </c>
@@ -20270,7 +20269,7 @@
       </c>
       <c r="J237" s="27"/>
     </row>
-    <row r="238" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="27" t="s">
         <v>35</v>
       </c>
@@ -20296,7 +20295,7 @@
       </c>
       <c r="J238" s="27"/>
     </row>
-    <row r="239" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="27" t="s">
         <v>786</v>
       </c>
@@ -20320,7 +20319,7 @@
       <c r="I239" s="47"/>
       <c r="J239" s="27"/>
     </row>
-    <row r="240" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="27" t="s">
         <v>49</v>
       </c>
@@ -20346,7 +20345,7 @@
       </c>
       <c r="J240" s="27"/>
     </row>
-    <row r="241" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="27" t="s">
         <v>34</v>
       </c>
@@ -20376,7 +20375,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="27" t="s">
         <v>34</v>
       </c>
@@ -20408,7 +20407,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="243" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="27" t="s">
         <v>34</v>
       </c>
@@ -20438,7 +20437,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="244" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="27" t="s">
         <v>34</v>
       </c>
@@ -20468,7 +20467,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="27" t="s">
         <v>34</v>
       </c>
@@ -20498,7 +20497,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="27" t="s">
         <v>34</v>
       </c>
@@ -20528,7 +20527,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="27" t="s">
         <v>34</v>
       </c>
@@ -20558,7 +20557,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="27" t="s">
         <v>34</v>
       </c>
@@ -20588,7 +20587,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="27" t="s">
         <v>34</v>
       </c>
@@ -20618,7 +20617,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="27" t="s">
         <v>34</v>
       </c>
@@ -20650,7 +20649,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="27" t="s">
         <v>34</v>
       </c>
@@ -20680,7 +20679,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="27" t="s">
         <v>34</v>
       </c>
@@ -20710,7 +20709,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="253" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="27" t="s">
         <v>34</v>
       </c>
@@ -20740,7 +20739,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="27" t="s">
         <v>34</v>
       </c>
@@ -20770,7 +20769,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="27" t="s">
         <v>34</v>
       </c>
@@ -20800,7 +20799,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="27" t="s">
         <v>34</v>
       </c>
@@ -20830,7 +20829,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="27" t="s">
         <v>34</v>
       </c>
@@ -20860,7 +20859,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="27" t="s">
         <v>34</v>
       </c>
@@ -20892,7 +20891,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="27" t="s">
         <v>34</v>
       </c>
@@ -20924,7 +20923,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="27" t="s">
         <v>34</v>
       </c>
@@ -20956,7 +20955,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="27" t="s">
         <v>34</v>
       </c>
@@ -20988,7 +20987,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="27" t="s">
         <v>34</v>
       </c>
@@ -21020,7 +21019,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="27" t="s">
         <v>34</v>
       </c>
@@ -21048,7 +21047,7 @@
       </c>
       <c r="J263" s="27"/>
     </row>
-    <row r="264" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="27" t="s">
         <v>34</v>
       </c>
@@ -21076,7 +21075,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="27" t="s">
         <v>34</v>
       </c>
@@ -21104,7 +21103,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="27" t="s">
         <v>34</v>
       </c>
@@ -21132,7 +21131,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="27" t="s">
         <v>34</v>
       </c>
@@ -21162,7 +21161,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="27" t="s">
         <v>34</v>
       </c>
@@ -21192,7 +21191,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="27" t="s">
         <v>34</v>
       </c>
@@ -21222,7 +21221,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="27" t="s">
         <v>34</v>
       </c>
@@ -21252,7 +21251,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="27" t="s">
         <v>34</v>
       </c>
@@ -21282,7 +21281,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="27" t="s">
         <v>34</v>
       </c>
@@ -21312,7 +21311,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="27" t="s">
         <v>34</v>
       </c>
@@ -21342,7 +21341,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="27" t="s">
         <v>34</v>
       </c>
@@ -21372,7 +21371,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="27" t="s">
         <v>34</v>
       </c>
@@ -21402,7 +21401,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="27" t="s">
         <v>34</v>
       </c>
@@ -21432,7 +21431,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="27" t="s">
         <v>34</v>
       </c>
@@ -21462,7 +21461,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="278" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="27" t="s">
         <v>34</v>
       </c>
@@ -21492,7 +21491,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="279" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="27" t="s">
         <v>34</v>
       </c>
@@ -21522,7 +21521,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="27" t="s">
         <v>34</v>
       </c>
@@ -21552,7 +21551,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="27" t="s">
         <v>34</v>
       </c>
@@ -21582,7 +21581,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="27" t="s">
         <v>34</v>
       </c>
@@ -21612,7 +21611,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="27" t="s">
         <v>34</v>
       </c>
@@ -21642,7 +21641,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="27" t="s">
         <v>34</v>
       </c>
@@ -21672,7 +21671,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="285" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="27" t="s">
         <v>34</v>
       </c>
@@ -21702,7 +21701,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="286" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="27" t="s">
         <v>34</v>
       </c>
@@ -21732,7 +21731,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="27" t="s">
         <v>34</v>
       </c>
@@ -21762,7 +21761,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="288" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="27" t="s">
         <v>34</v>
       </c>
@@ -21792,7 +21791,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="289" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="27" t="s">
         <v>34</v>
       </c>
@@ -21822,7 +21821,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="290" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="27" t="s">
         <v>34</v>
       </c>
@@ -21852,7 +21851,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="27" t="s">
         <v>34</v>
       </c>
@@ -21882,7 +21881,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="27" t="s">
         <v>34</v>
       </c>
@@ -21912,7 +21911,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="27" t="s">
         <v>34</v>
       </c>
@@ -21942,7 +21941,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="27" t="s">
         <v>34</v>
       </c>
@@ -21972,7 +21971,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="27" t="s">
         <v>34</v>
       </c>
@@ -22002,7 +22001,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="27" t="s">
         <v>34</v>
       </c>
@@ -22032,7 +22031,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="27" t="s">
         <v>34</v>
       </c>
@@ -22062,7 +22061,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="27" t="s">
         <v>34</v>
       </c>
@@ -22092,7 +22091,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="27" t="s">
         <v>34</v>
       </c>
@@ -22122,7 +22121,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="27" t="s">
         <v>34</v>
       </c>
@@ -22152,7 +22151,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="301" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="27" t="s">
         <v>34</v>
       </c>
@@ -22182,7 +22181,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="27" t="s">
         <v>34</v>
       </c>
@@ -22212,7 +22211,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="27" t="s">
         <v>34</v>
       </c>
@@ -22242,7 +22241,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="27" t="s">
         <v>34</v>
       </c>
@@ -22272,7 +22271,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="27" t="s">
         <v>34</v>
       </c>
@@ -22302,7 +22301,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="27" t="s">
         <v>34</v>
       </c>
@@ -22332,7 +22331,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="27" t="s">
         <v>34</v>
       </c>
@@ -22362,7 +22361,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="308" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="27" t="s">
         <v>34</v>
       </c>
@@ -22392,7 +22391,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="27" t="s">
         <v>34</v>
       </c>
@@ -22422,7 +22421,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="27" t="s">
         <v>34</v>
       </c>
@@ -22452,7 +22451,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="27" t="s">
         <v>34</v>
       </c>
@@ -22482,7 +22481,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="27" t="s">
         <v>34</v>
       </c>
@@ -22512,7 +22511,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="27" t="s">
         <v>34</v>
       </c>
@@ -22542,7 +22541,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="314" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="27" t="s">
         <v>34</v>
       </c>
@@ -22572,7 +22571,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="315" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="27" t="s">
         <v>34</v>
       </c>
@@ -22602,7 +22601,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="316" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="27" t="s">
         <v>34</v>
       </c>
@@ -22632,7 +22631,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="317" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="27" t="s">
         <v>34</v>
       </c>
@@ -22662,7 +22661,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="27" t="s">
         <v>34</v>
       </c>
@@ -22692,7 +22691,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="27" t="s">
         <v>34</v>
       </c>
@@ -22722,7 +22721,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="320" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="27" t="s">
         <v>34</v>
       </c>
@@ -22752,7 +22751,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="321" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="27" t="s">
         <v>34</v>
       </c>
@@ -22782,7 +22781,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="27" t="s">
         <v>34</v>
       </c>
@@ -22812,7 +22811,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="323" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="27" t="s">
         <v>34</v>
       </c>
@@ -22842,7 +22841,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="324" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="27" t="s">
         <v>34</v>
       </c>
@@ -22872,7 +22871,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="325" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="27" t="s">
         <v>34</v>
       </c>
@@ -22902,7 +22901,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="326" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="27" t="s">
         <v>34</v>
       </c>
@@ -22932,7 +22931,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="327" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="27" t="s">
         <v>34</v>
       </c>
@@ -22962,7 +22961,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="328" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="27" t="s">
         <v>34</v>
       </c>
@@ -22992,7 +22991,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="329" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="27" t="s">
         <v>34</v>
       </c>
@@ -23022,7 +23021,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="330" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="27" t="s">
         <v>34</v>
       </c>
@@ -23052,7 +23051,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="27" t="s">
         <v>34</v>
       </c>
@@ -23082,7 +23081,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="332" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="27" t="s">
         <v>34</v>
       </c>
@@ -23112,7 +23111,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="27" t="s">
         <v>34</v>
       </c>
@@ -23142,7 +23141,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="334" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="27" t="s">
         <v>34</v>
       </c>
@@ -23172,7 +23171,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="335" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="27" t="s">
         <v>34</v>
       </c>
@@ -23202,7 +23201,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="336" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="27" t="s">
         <v>34</v>
       </c>
@@ -23232,7 +23231,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="337" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="27" t="s">
         <v>34</v>
       </c>
@@ -23262,7 +23261,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="27" t="s">
         <v>34</v>
       </c>
@@ -23292,7 +23291,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="339" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="27" t="s">
         <v>34</v>
       </c>
@@ -23322,7 +23321,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="340" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="27" t="s">
         <v>34</v>
       </c>
@@ -23352,7 +23351,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="341" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="27" t="s">
         <v>34</v>
       </c>
@@ -23382,7 +23381,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="342" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="27" t="s">
         <v>34</v>
       </c>
@@ -23412,7 +23411,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="343" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="27" t="s">
         <v>34</v>
       </c>
@@ -23442,7 +23441,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="344" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="27" t="s">
         <v>34</v>
       </c>
@@ -23472,7 +23471,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="345" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="27" t="s">
         <v>34</v>
       </c>
@@ -23502,7 +23501,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="346" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="27" t="s">
         <v>34</v>
       </c>
@@ -23532,7 +23531,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="347" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="27" t="s">
         <v>34</v>
       </c>
@@ -23562,7 +23561,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="348" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="27" t="s">
         <v>34</v>
       </c>
@@ -23592,7 +23591,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="349" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="27" t="s">
         <v>34</v>
       </c>
@@ -23622,7 +23621,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="350" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="27" t="s">
         <v>34</v>
       </c>
@@ -23652,7 +23651,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="351" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="27" t="s">
         <v>34</v>
       </c>
@@ -23682,7 +23681,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="352" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="27" t="s">
         <v>34</v>
       </c>
@@ -23712,7 +23711,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="353" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="27" t="s">
         <v>34</v>
       </c>
@@ -23742,7 +23741,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="354" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="27" t="s">
         <v>34</v>
       </c>
@@ -23772,7 +23771,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="355" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="27" t="s">
         <v>34</v>
       </c>
@@ -23802,7 +23801,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="356" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="27" t="s">
         <v>34</v>
       </c>
@@ -23832,7 +23831,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="357" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="27" t="s">
         <v>34</v>
       </c>
@@ -23862,7 +23861,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="358" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="27" t="s">
         <v>34</v>
       </c>
@@ -23892,7 +23891,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="359" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="27" t="s">
         <v>34</v>
       </c>
@@ -23922,7 +23921,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="360" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="27" t="s">
         <v>34</v>
       </c>
@@ -23948,7 +23947,7 @@
       </c>
       <c r="J360" s="27"/>
     </row>
-    <row r="361" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="27" t="s">
         <v>34</v>
       </c>
@@ -23976,7 +23975,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="362" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="27" t="s">
         <v>34</v>
       </c>
@@ -24004,7 +24003,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="363" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="27" t="s">
         <v>34</v>
       </c>
@@ -24034,7 +24033,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="364" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="27" t="s">
         <v>34</v>
       </c>
@@ -24064,7 +24063,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="365" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="27" t="s">
         <v>34</v>
       </c>
@@ -24094,7 +24093,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="366" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="27" t="s">
         <v>34</v>
       </c>
@@ -24124,7 +24123,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="367" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="27" t="s">
         <v>34</v>
       </c>
@@ -24154,7 +24153,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="368" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="27" t="s">
         <v>34</v>
       </c>
@@ -24184,7 +24183,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="369" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="27" t="s">
         <v>34</v>
       </c>
@@ -24214,7 +24213,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="370" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="27" t="s">
         <v>34</v>
       </c>
@@ -24244,7 +24243,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="371" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="27" t="s">
         <v>34</v>
       </c>
@@ -24274,7 +24273,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="372" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="27" t="s">
         <v>34</v>
       </c>
@@ -24304,7 +24303,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="373" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="27" t="s">
         <v>34</v>
       </c>
@@ -24334,7 +24333,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="374" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="27" t="s">
         <v>34</v>
       </c>
@@ -24364,7 +24363,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="375" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="27" t="s">
         <v>34</v>
       </c>
@@ -24394,7 +24393,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="376" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="27" t="s">
         <v>34</v>
       </c>
@@ -24424,7 +24423,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="377" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="27" t="s">
         <v>34</v>
       </c>
@@ -24454,7 +24453,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="378" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="27" t="s">
         <v>34</v>
       </c>
@@ -24484,7 +24483,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="379" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="27" t="s">
         <v>34</v>
       </c>
@@ -24514,7 +24513,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="380" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="27" t="s">
         <v>34</v>
       </c>
@@ -24542,7 +24541,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="381" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="27" t="s">
         <v>34</v>
       </c>
@@ -24570,7 +24569,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="382" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="27" t="s">
         <v>34</v>
       </c>
@@ -24600,7 +24599,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="383" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="27" t="s">
         <v>34</v>
       </c>
@@ -24630,7 +24629,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="384" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="27" t="s">
         <v>34</v>
       </c>
@@ -24660,7 +24659,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="385" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="27" t="s">
         <v>34</v>
       </c>
@@ -24690,7 +24689,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="386" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="27" t="s">
         <v>34</v>
       </c>
@@ -24720,7 +24719,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="387" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="27" t="s">
         <v>34</v>
       </c>
@@ -24750,7 +24749,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="388" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="27" t="s">
         <v>34</v>
       </c>
@@ -24780,7 +24779,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="389" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="27" t="s">
         <v>34</v>
       </c>
@@ -24810,7 +24809,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="390" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="27" t="s">
         <v>34</v>
       </c>
@@ -24840,7 +24839,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="391" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="27" t="s">
         <v>34</v>
       </c>
@@ -24870,7 +24869,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="392" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="27" t="s">
         <v>34</v>
       </c>
@@ -24900,7 +24899,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="393" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="27" t="s">
         <v>34</v>
       </c>
@@ -24930,7 +24929,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="394" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="27" t="s">
         <v>34</v>
       </c>
@@ -24960,7 +24959,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="395" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="27" t="s">
         <v>34</v>
       </c>
@@ -24988,7 +24987,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="396" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="27" t="s">
         <v>34</v>
       </c>
@@ -25018,7 +25017,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="397" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="27" t="s">
         <v>34</v>
       </c>
@@ -25048,7 +25047,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="398" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="27" t="s">
         <v>34</v>
       </c>
@@ -25078,7 +25077,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="399" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="27" t="s">
         <v>34</v>
       </c>
@@ -25108,7 +25107,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="400" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="27" t="s">
         <v>34</v>
       </c>
@@ -25138,7 +25137,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="401" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="27" t="s">
         <v>34</v>
       </c>
@@ -25168,7 +25167,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="402" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="27" t="s">
         <v>34</v>
       </c>
@@ -25198,7 +25197,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="403" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="27" t="s">
         <v>34</v>
       </c>
@@ -25228,7 +25227,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="404" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="27" t="s">
         <v>34</v>
       </c>
@@ -25258,7 +25257,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="405" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="27" t="s">
         <v>34</v>
       </c>
@@ -25288,7 +25287,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="406" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="27" t="s">
         <v>34</v>
       </c>
@@ -25318,7 +25317,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="407" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="27" t="s">
         <v>34</v>
       </c>
@@ -25348,7 +25347,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="408" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="27" t="s">
         <v>34</v>
       </c>
@@ -25378,7 +25377,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="409" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="27" t="s">
         <v>34</v>
       </c>
@@ -25408,7 +25407,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="410" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="27" t="s">
         <v>34</v>
       </c>
@@ -25438,7 +25437,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="411" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="27" t="s">
         <v>34</v>
       </c>
@@ -25468,7 +25467,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="412" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="27" t="s">
         <v>34</v>
       </c>
@@ -25498,7 +25497,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="413" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="27" t="s">
         <v>34</v>
       </c>
@@ -25528,7 +25527,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="414" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="27" t="s">
         <v>34</v>
       </c>
@@ -25558,7 +25557,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="415" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="27" t="s">
         <v>34</v>
       </c>
@@ -25588,7 +25587,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="416" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="27" t="s">
         <v>34</v>
       </c>
@@ -25618,7 +25617,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="417" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="27" t="s">
         <v>34</v>
       </c>
@@ -25648,7 +25647,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="418" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="27" t="s">
         <v>34</v>
       </c>
@@ -25678,7 +25677,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="419" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="27" t="s">
         <v>34</v>
       </c>
@@ -25708,7 +25707,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="420" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="27" t="s">
         <v>34</v>
       </c>
@@ -25738,7 +25737,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="421" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="27" t="s">
         <v>34</v>
       </c>
@@ -25768,7 +25767,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="422" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="27" t="s">
         <v>34</v>
       </c>
@@ -25798,7 +25797,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="423" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="27" t="s">
         <v>34</v>
       </c>
@@ -25828,7 +25827,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="424" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="27" t="s">
         <v>34</v>
       </c>
@@ -25858,7 +25857,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="425" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="27" t="s">
         <v>34</v>
       </c>
@@ -25888,7 +25887,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="426" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="27" t="s">
         <v>34</v>
       </c>
@@ -25918,7 +25917,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="427" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="27" t="s">
         <v>34</v>
       </c>
@@ -25948,7 +25947,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="428" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="27" t="s">
         <v>34</v>
       </c>
@@ -25978,7 +25977,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="429" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="27" t="s">
         <v>34</v>
       </c>
@@ -26008,7 +26007,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="430" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="27" t="s">
         <v>34</v>
       </c>
@@ -26038,7 +26037,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="431" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="27" t="s">
         <v>34</v>
       </c>
@@ -26068,7 +26067,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="432" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="27" t="s">
         <v>34</v>
       </c>
@@ -26098,7 +26097,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="433" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="27" t="s">
         <v>34</v>
       </c>
@@ -26128,7 +26127,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="434" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="27" t="s">
         <v>34</v>
       </c>
@@ -26158,7 +26157,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="435" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="27" t="s">
         <v>34</v>
       </c>
@@ -26188,7 +26187,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="436" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="27" t="s">
         <v>34</v>
       </c>
@@ -26218,7 +26217,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="437" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="27" t="s">
         <v>34</v>
       </c>
@@ -26248,7 +26247,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="438" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="27" t="s">
         <v>34</v>
       </c>
@@ -26278,7 +26277,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="439" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="27" t="s">
         <v>34</v>
       </c>
@@ -26308,7 +26307,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="440" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="27" t="s">
         <v>34</v>
       </c>
@@ -26338,7 +26337,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="441" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="27" t="s">
         <v>34</v>
       </c>
@@ -26368,7 +26367,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="442" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="27" t="s">
         <v>34</v>
       </c>
@@ -26398,7 +26397,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="443" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="27" t="s">
         <v>34</v>
       </c>
@@ -26428,7 +26427,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="444" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="27" t="s">
         <v>34</v>
       </c>
@@ -26456,7 +26455,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="445" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="27" t="s">
         <v>34</v>
       </c>
@@ -26484,7 +26483,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="446" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="27" t="s">
         <v>34</v>
       </c>
@@ -26512,7 +26511,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="447" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="27" t="s">
         <v>34</v>
       </c>
@@ -26542,7 +26541,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="448" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="27" t="s">
         <v>34</v>
       </c>
@@ -26572,7 +26571,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="449" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="27" t="s">
         <v>34</v>
       </c>
@@ -26602,7 +26601,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="450" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="27" t="s">
         <v>34</v>
       </c>
@@ -26630,7 +26629,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="451" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="27" t="s">
         <v>34</v>
       </c>
@@ -26660,7 +26659,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="452" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="27" t="s">
         <v>34</v>
       </c>
@@ -26690,7 +26689,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="453" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="27" t="s">
         <v>34</v>
       </c>
@@ -26720,7 +26719,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="454" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="27" t="s">
         <v>34</v>
       </c>
@@ -26750,7 +26749,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="455" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="27" t="s">
         <v>34</v>
       </c>
@@ -26780,7 +26779,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="456" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="27" t="s">
         <v>34</v>
       </c>
@@ -26810,7 +26809,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="457" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="27" t="s">
         <v>34</v>
       </c>
@@ -26840,7 +26839,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="458" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="27" t="s">
         <v>34</v>
       </c>
@@ -26870,7 +26869,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="459" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="27" t="s">
         <v>34</v>
       </c>
@@ -26900,7 +26899,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="460" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="27" t="s">
         <v>34</v>
       </c>
@@ -26930,7 +26929,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="461" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="27" t="s">
         <v>34</v>
       </c>
@@ -26960,7 +26959,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="462" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="27" t="s">
         <v>34</v>
       </c>
@@ -26990,7 +26989,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="463" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="27" t="s">
         <v>34</v>
       </c>
@@ -27020,7 +27019,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="464" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="27" t="s">
         <v>34</v>
       </c>
@@ -27050,7 +27049,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="465" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="27" t="s">
         <v>34</v>
       </c>
@@ -27080,7 +27079,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="466" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="27" t="s">
         <v>34</v>
       </c>
@@ -27110,7 +27109,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="467" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="27" t="s">
         <v>34</v>
       </c>
@@ -27140,7 +27139,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="468" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="27" t="s">
         <v>34</v>
       </c>
@@ -27170,7 +27169,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="469" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="27" t="s">
         <v>34</v>
       </c>
@@ -27200,7 +27199,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="470" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="27" t="s">
         <v>34</v>
       </c>
@@ -27230,7 +27229,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="471" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="27" t="s">
         <v>34</v>
       </c>
@@ -27260,7 +27259,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="472" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="27" t="s">
         <v>34</v>
       </c>
@@ -27290,7 +27289,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="473" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="27" t="s">
         <v>34</v>
       </c>
@@ -27320,7 +27319,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="474" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="27" t="s">
         <v>34</v>
       </c>
@@ -27350,7 +27349,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="475" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="27" t="s">
         <v>34</v>
       </c>
@@ -27380,7 +27379,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="476" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="27" t="s">
         <v>34</v>
       </c>
@@ -27410,7 +27409,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="477" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="27" t="s">
         <v>34</v>
       </c>
@@ -27440,7 +27439,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="478" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="27" t="s">
         <v>34</v>
       </c>
@@ -27470,7 +27469,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="479" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="27" t="s">
         <v>34</v>
       </c>
@@ -27500,7 +27499,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="480" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="27" t="s">
         <v>34</v>
       </c>
@@ -27530,7 +27529,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="481" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="27" t="s">
         <v>34</v>
       </c>
@@ -27560,7 +27559,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="482" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="27" t="s">
         <v>34</v>
       </c>
@@ -27590,7 +27589,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="483" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="27" t="s">
         <v>34</v>
       </c>
@@ -27620,7 +27619,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="484" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="27" t="s">
         <v>34</v>
       </c>
@@ -27650,7 +27649,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="485" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="27" t="s">
         <v>34</v>
       </c>
@@ -27680,7 +27679,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="486" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="27" t="s">
         <v>34</v>
       </c>
@@ -27710,7 +27709,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="487" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="27" t="s">
         <v>34</v>
       </c>
@@ -27740,7 +27739,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="488" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="27" t="s">
         <v>34</v>
       </c>
@@ -27770,7 +27769,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="489" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="27" t="s">
         <v>34</v>
       </c>
@@ -27798,7 +27797,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="490" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="27" t="s">
         <v>34</v>
       </c>
@@ -27828,7 +27827,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="491" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="27" t="s">
         <v>34</v>
       </c>
@@ -27858,7 +27857,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="492" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="27" t="s">
         <v>34</v>
       </c>
@@ -27888,7 +27887,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="493" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="27" t="s">
         <v>34</v>
       </c>
@@ -27918,7 +27917,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="494" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="27" t="s">
         <v>34</v>
       </c>
@@ -27948,7 +27947,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="495" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="27" t="s">
         <v>34</v>
       </c>
@@ -27978,7 +27977,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="496" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="27" t="s">
         <v>34</v>
       </c>
@@ -28008,7 +28007,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="497" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="27" t="s">
         <v>34</v>
       </c>
@@ -28038,7 +28037,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="498" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="27" t="s">
         <v>34</v>
       </c>
@@ -28068,7 +28067,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="499" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="27" t="s">
         <v>34</v>
       </c>
@@ -28098,7 +28097,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="500" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="27" t="s">
         <v>34</v>
       </c>
@@ -28128,7 +28127,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="501" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="27" t="s">
         <v>34</v>
       </c>
@@ -28158,7 +28157,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="502" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="27" t="s">
         <v>34</v>
       </c>
@@ -28188,7 +28187,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="503" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="27" t="s">
         <v>34</v>
       </c>
@@ -28218,7 +28217,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="504" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="27" t="s">
         <v>34</v>
       </c>
@@ -28248,7 +28247,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="505" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="27" t="s">
         <v>34</v>
       </c>
@@ -28278,7 +28277,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="506" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="27" t="s">
         <v>34</v>
       </c>
@@ -28308,7 +28307,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="507" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="27" t="s">
         <v>34</v>
       </c>
@@ -28338,7 +28337,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="508" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="27" t="s">
         <v>34</v>
       </c>
@@ -28368,7 +28367,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="509" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="27" t="s">
         <v>34</v>
       </c>
@@ -28398,7 +28397,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="510" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="27" t="s">
         <v>34</v>
       </c>
@@ -28428,7 +28427,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="511" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="27" t="s">
         <v>34</v>
       </c>
@@ -28458,7 +28457,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="512" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="27" t="s">
         <v>34</v>
       </c>
@@ -28488,7 +28487,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="513" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="27" t="s">
         <v>34</v>
       </c>
@@ -28518,7 +28517,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="514" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="27" t="s">
         <v>34</v>
       </c>
@@ -28548,7 +28547,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="515" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="27" t="s">
         <v>34</v>
       </c>
@@ -28578,7 +28577,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="516" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="27" t="s">
         <v>34</v>
       </c>
@@ -28608,7 +28607,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="517" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="27" t="s">
         <v>34</v>
       </c>
@@ -28638,7 +28637,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="518" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="27" t="s">
         <v>34</v>
       </c>
@@ -28666,7 +28665,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="519" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="27" t="s">
         <v>34</v>
       </c>
@@ -28696,7 +28695,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="520" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="27" t="s">
         <v>34</v>
       </c>
@@ -28726,7 +28725,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="521" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="27" t="s">
         <v>34</v>
       </c>
@@ -28756,7 +28755,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="522" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="27" t="s">
         <v>34</v>
       </c>
@@ -28786,7 +28785,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="523" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="27" t="s">
         <v>34</v>
       </c>
@@ -28816,7 +28815,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="524" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="27" t="s">
         <v>34</v>
       </c>
@@ -28846,7 +28845,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="525" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="27" t="s">
         <v>34</v>
       </c>
@@ -28876,7 +28875,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="526" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="27" t="s">
         <v>34</v>
       </c>
@@ -28906,7 +28905,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="527" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="27" t="s">
         <v>34</v>
       </c>
@@ -28936,7 +28935,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="528" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="27" t="s">
         <v>34</v>
       </c>
@@ -28966,7 +28965,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="529" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="27" t="s">
         <v>34</v>
       </c>
@@ -28996,7 +28995,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="530" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="27" t="s">
         <v>34</v>
       </c>
@@ -29026,7 +29025,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="531" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="27" t="s">
         <v>34</v>
       </c>
@@ -29056,7 +29055,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="532" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="27" t="s">
         <v>34</v>
       </c>
@@ -29086,7 +29085,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="533" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="27" t="s">
         <v>34</v>
       </c>
@@ -29116,7 +29115,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="534" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="27" t="s">
         <v>34</v>
       </c>
@@ -29146,7 +29145,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="535" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="27" t="s">
         <v>34</v>
       </c>
@@ -29176,7 +29175,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="536" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="27" t="s">
         <v>34</v>
       </c>
@@ -29206,7 +29205,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="537" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="27" t="s">
         <v>34</v>
       </c>
@@ -29236,7 +29235,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="538" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="27" t="s">
         <v>34</v>
       </c>
@@ -29266,7 +29265,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="539" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="27" t="s">
         <v>34</v>
       </c>
@@ -29296,7 +29295,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="540" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="27" t="s">
         <v>34</v>
       </c>
@@ -29326,7 +29325,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="541" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="27" t="s">
         <v>34</v>
       </c>
@@ -29356,7 +29355,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="542" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="27" t="s">
         <v>34</v>
       </c>
@@ -29386,7 +29385,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="543" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="27" t="s">
         <v>34</v>
       </c>
@@ -29416,7 +29415,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="544" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="27" t="s">
         <v>34</v>
       </c>
@@ -29446,7 +29445,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="545" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="27" t="s">
         <v>34</v>
       </c>
@@ -29476,7 +29475,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="546" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="27" t="s">
         <v>34</v>
       </c>
@@ -29506,7 +29505,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="547" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="27" t="s">
         <v>34</v>
       </c>
@@ -29534,7 +29533,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="548" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="27" t="s">
         <v>34</v>
       </c>
@@ -29564,7 +29563,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="549" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="27" t="s">
         <v>34</v>
       </c>
@@ -29594,7 +29593,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="550" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="27" t="s">
         <v>34</v>
       </c>
@@ -29624,7 +29623,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="551" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="27" t="s">
         <v>34</v>
       </c>
@@ -29654,7 +29653,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="552" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="27" t="s">
         <v>34</v>
       </c>
@@ -29684,7 +29683,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="553" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="27" t="s">
         <v>34</v>
       </c>
@@ -29714,7 +29713,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="554" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="27" t="s">
         <v>34</v>
       </c>
@@ -29744,7 +29743,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="555" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="27" t="s">
         <v>34</v>
       </c>
@@ -29774,7 +29773,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="556" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="27" t="s">
         <v>34</v>
       </c>
@@ -29804,7 +29803,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="557" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="27" t="s">
         <v>34</v>
       </c>
@@ -29828,7 +29827,7 @@
       <c r="I557" s="47"/>
       <c r="J557" s="27"/>
     </row>
-    <row r="558" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="27" t="s">
         <v>34</v>
       </c>
@@ -29856,7 +29855,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="559" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="27" t="s">
         <v>34</v>
       </c>
@@ -29884,7 +29883,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="560" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="27" t="s">
         <v>34</v>
       </c>
@@ -29914,7 +29913,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="561" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="27" t="s">
         <v>34</v>
       </c>
@@ -29944,7 +29943,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="562" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="27" t="s">
         <v>34</v>
       </c>
@@ -29974,7 +29973,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="563" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="27" t="s">
         <v>34</v>
       </c>
@@ -30004,7 +30003,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="564" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="27" t="s">
         <v>34</v>
       </c>
@@ -30034,7 +30033,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="565" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="27" t="s">
         <v>34</v>
       </c>
@@ -30062,7 +30061,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="566" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="27" t="s">
         <v>34</v>
       </c>
@@ -30090,7 +30089,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="567" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="27" t="s">
         <v>34</v>
       </c>
@@ -30120,7 +30119,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="568" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="27" t="s">
         <v>34</v>
       </c>
@@ -30150,7 +30149,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="569" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="27" t="s">
         <v>34</v>
       </c>
@@ -30180,7 +30179,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="570" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="27" t="s">
         <v>34</v>
       </c>
@@ -30210,7 +30209,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="571" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="27" t="s">
         <v>34</v>
       </c>
@@ -30240,7 +30239,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="572" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="27" t="s">
         <v>34</v>
       </c>
@@ -30270,7 +30269,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="573" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="27" t="s">
         <v>34</v>
       </c>
@@ -30300,7 +30299,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="574" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="27" t="s">
         <v>34</v>
       </c>
@@ -30330,7 +30329,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="575" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="27" t="s">
         <v>34</v>
       </c>
@@ -30360,7 +30359,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="576" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="27" t="s">
         <v>34</v>
       </c>
@@ -30390,7 +30389,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="577" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="27" t="s">
         <v>34</v>
       </c>
@@ -30420,7 +30419,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="578" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="27" t="s">
         <v>34</v>
       </c>
@@ -30450,7 +30449,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="579" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="27" t="s">
         <v>34</v>
       </c>
@@ -30480,7 +30479,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="580" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="27" t="s">
         <v>34</v>
       </c>
@@ -30510,7 +30509,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="581" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="27" t="s">
         <v>34</v>
       </c>
@@ -30540,7 +30539,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="582" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="27" t="s">
         <v>34</v>
       </c>
@@ -30570,7 +30569,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="583" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="27" t="s">
         <v>34</v>
       </c>
@@ -30600,7 +30599,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="584" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="27" t="s">
         <v>34</v>
       </c>
@@ -30630,7 +30629,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="585" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="27" t="s">
         <v>34</v>
       </c>
@@ -30660,7 +30659,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="586" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="27" t="s">
         <v>34</v>
       </c>
@@ -30690,7 +30689,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="587" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="27" t="s">
         <v>34</v>
       </c>
@@ -30720,7 +30719,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="588" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="27" t="s">
         <v>34</v>
       </c>
@@ -30750,7 +30749,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="589" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="27" t="s">
         <v>34</v>
       </c>
@@ -30780,7 +30779,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="590" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="27" t="s">
         <v>34</v>
       </c>
@@ -30810,7 +30809,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="591" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="27" t="s">
         <v>34</v>
       </c>
@@ -30840,7 +30839,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="592" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="27" t="s">
         <v>34</v>
       </c>
@@ -30870,7 +30869,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="593" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="27" t="s">
         <v>34</v>
       </c>
@@ -30900,7 +30899,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="594" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="27" t="s">
         <v>34</v>
       </c>
@@ -30926,7 +30925,7 @@
       </c>
       <c r="J594" s="27"/>
     </row>
-    <row r="595" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="27" t="s">
         <v>34</v>
       </c>
@@ -30954,7 +30953,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="596" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="27" t="s">
         <v>34</v>
       </c>
@@ -30982,7 +30981,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="597" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="27" t="s">
         <v>34</v>
       </c>
@@ -31010,7 +31009,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="598" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="27" t="s">
         <v>191</v>
       </c>
@@ -31036,7 +31035,7 @@
       <c r="I598" s="47"/>
       <c r="J598" s="27"/>
     </row>
-    <row r="599" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="27" t="s">
         <v>23</v>
       </c>
@@ -31064,7 +31063,7 @@
       </c>
       <c r="J599" s="27"/>
     </row>
-    <row r="600" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="27" t="s">
         <v>23</v>
       </c>
@@ -31090,7 +31089,7 @@
       <c r="I600" s="47"/>
       <c r="J600" s="27"/>
     </row>
-    <row r="601" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="27" t="s">
         <v>26</v>
       </c>
@@ -31118,7 +31117,7 @@
       </c>
       <c r="J601" s="27"/>
     </row>
-    <row r="602" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="27" t="s">
         <v>26</v>
       </c>
@@ -31146,7 +31145,7 @@
       </c>
       <c r="J602" s="27"/>
     </row>
-    <row r="603" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="27" t="s">
         <v>26</v>
       </c>
@@ -31174,7 +31173,7 @@
       </c>
       <c r="J603" s="27"/>
     </row>
-    <row r="604" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="27" t="s">
         <v>26</v>
       </c>
@@ -31202,7 +31201,7 @@
       </c>
       <c r="J604" s="27"/>
     </row>
-    <row r="605" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="27" t="s">
         <v>26</v>
       </c>
@@ -31230,7 +31229,7 @@
       </c>
       <c r="J605" s="27"/>
     </row>
-    <row r="606" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="27" t="s">
         <v>254</v>
       </c>
@@ -31256,7 +31255,7 @@
       </c>
       <c r="J606" s="27"/>
     </row>
-    <row r="607" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="27" t="s">
         <v>254</v>
       </c>
@@ -31284,7 +31283,7 @@
       </c>
       <c r="J607" s="27"/>
     </row>
-    <row r="608" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="27" t="s">
         <v>254</v>
       </c>
@@ -31312,7 +31311,7 @@
       </c>
       <c r="J608" s="27"/>
     </row>
-    <row r="609" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="27" t="s">
         <v>254</v>
       </c>
@@ -31338,7 +31337,7 @@
       <c r="I609" s="47"/>
       <c r="J609" s="27"/>
     </row>
-    <row r="610" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="27" t="s">
         <v>254</v>
       </c>
@@ -31364,7 +31363,7 @@
       </c>
       <c r="J610" s="27"/>
     </row>
-    <row r="611" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="27" t="s">
         <v>665</v>
       </c>
@@ -31390,7 +31389,7 @@
       </c>
       <c r="J611" s="27"/>
     </row>
-    <row r="612" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="27" t="s">
         <v>169</v>
       </c>
@@ -31416,7 +31415,7 @@
       </c>
       <c r="J612" s="27"/>
     </row>
-    <row r="613" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="27" t="s">
         <v>35</v>
       </c>
@@ -31442,7 +31441,7 @@
       </c>
       <c r="J613" s="27"/>
     </row>
-    <row r="614" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="27" t="s">
         <v>35</v>
       </c>
@@ -31466,7 +31465,7 @@
       <c r="I614" s="47"/>
       <c r="J614" s="27"/>
     </row>
-    <row r="615" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="27" t="s">
         <v>169</v>
       </c>
@@ -31490,7 +31489,7 @@
       <c r="I615" s="47"/>
       <c r="J615" s="27"/>
     </row>
-    <row r="616" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="27" t="s">
         <v>35</v>
       </c>
@@ -31518,7 +31517,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="617" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="27" t="s">
         <v>201</v>
       </c>
@@ -31544,7 +31543,7 @@
       </c>
       <c r="J617" s="27"/>
     </row>
-    <row r="618" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="27" t="s">
         <v>49</v>
       </c>
@@ -31570,7 +31569,7 @@
       </c>
       <c r="J618" s="27"/>
     </row>
-    <row r="619" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="27" t="s">
         <v>34</v>
       </c>
@@ -31602,7 +31601,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="620" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="27" t="s">
         <v>34</v>
       </c>
@@ -31634,7 +31633,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="621" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="27" t="s">
         <v>34</v>
       </c>
@@ -31666,7 +31665,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="622" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="27" t="s">
         <v>34</v>
       </c>
@@ -31698,7 +31697,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="623" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="27" t="s">
         <v>34</v>
       </c>
@@ -31730,7 +31729,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="624" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="27" t="s">
         <v>34</v>
       </c>
@@ -31762,7 +31761,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="625" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="27" t="s">
         <v>34</v>
       </c>
@@ -31794,7 +31793,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="626" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="27" t="s">
         <v>34</v>
       </c>
@@ -31826,7 +31825,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="627" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="27" t="s">
         <v>34</v>
       </c>
@@ -31858,7 +31857,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="628" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="27" t="s">
         <v>34</v>
       </c>
@@ -31890,7 +31889,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="629" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="27" t="s">
         <v>34</v>
       </c>
@@ -31922,7 +31921,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="630" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="27" t="s">
         <v>34</v>
       </c>
@@ -31954,7 +31953,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="631" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="27" t="s">
         <v>34</v>
       </c>
@@ -31986,7 +31985,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="632" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="27" t="s">
         <v>34</v>
       </c>
@@ -32018,7 +32017,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="633" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="27" t="s">
         <v>34</v>
       </c>
@@ -32050,7 +32049,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="634" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="27" t="s">
         <v>34</v>
       </c>
@@ -32082,7 +32081,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="635" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="27" t="s">
         <v>34</v>
       </c>
@@ -32114,7 +32113,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="636" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="27" t="s">
         <v>34</v>
       </c>
@@ -32146,7 +32145,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="637" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="27" t="s">
         <v>34</v>
       </c>
@@ -32178,7 +32177,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="638" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="27" t="s">
         <v>34</v>
       </c>
@@ -32208,7 +32207,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="639" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="27" t="s">
         <v>34</v>
       </c>
@@ -32238,7 +32237,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="640" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="27" t="s">
         <v>34</v>
       </c>
@@ -32268,7 +32267,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="641" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="27" t="s">
         <v>34</v>
       </c>
@@ -32298,7 +32297,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="642" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="27" t="s">
         <v>34</v>
       </c>
@@ -32328,7 +32327,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="643" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="27" t="s">
         <v>34</v>
       </c>
@@ -32358,7 +32357,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="644" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="27" t="s">
         <v>34</v>
       </c>
@@ -32388,7 +32387,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="645" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="27" t="s">
         <v>34</v>
       </c>
@@ -32418,7 +32417,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="646" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="27" t="s">
         <v>34</v>
       </c>
@@ -32448,7 +32447,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="647" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="27" t="s">
         <v>34</v>
       </c>
@@ -32478,7 +32477,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="648" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="27" t="s">
         <v>34</v>
       </c>
@@ -32508,7 +32507,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="649" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="27" t="s">
         <v>34</v>
       </c>
@@ -32538,7 +32537,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="650" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="27" t="s">
         <v>34</v>
       </c>
@@ -32568,7 +32567,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="651" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="27" t="s">
         <v>34</v>
       </c>
@@ -32598,7 +32597,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="652" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="27" t="s">
         <v>34</v>
       </c>
@@ -32628,7 +32627,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="653" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="27" t="s">
         <v>34</v>
       </c>
@@ -32658,7 +32657,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="654" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="27" t="s">
         <v>34</v>
       </c>
@@ -32688,7 +32687,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="655" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="27" t="s">
         <v>34</v>
       </c>
@@ -32712,7 +32711,7 @@
       <c r="I655" s="47"/>
       <c r="J655" s="27"/>
     </row>
-    <row r="656" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="27" t="s">
         <v>34</v>
       </c>
@@ -32740,7 +32739,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="657" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="27" t="s">
         <v>34</v>
       </c>
@@ -32768,7 +32767,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="658" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="27" t="s">
         <v>34</v>
       </c>
@@ -32796,7 +32795,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="659" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="27" t="s">
         <v>34</v>
       </c>
@@ -32824,7 +32823,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="660" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="27" t="s">
         <v>152</v>
       </c>
@@ -32852,7 +32851,7 @@
       </c>
       <c r="J660" s="27"/>
     </row>
-    <row r="661" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="27" t="s">
         <v>152</v>
       </c>
@@ -32878,7 +32877,7 @@
       <c r="I661" s="47"/>
       <c r="J661" s="27"/>
     </row>
-    <row r="662" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="27" t="s">
         <v>34</v>
       </c>
@@ -32908,7 +32907,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="663" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="27" t="s">
         <v>36</v>
       </c>
@@ -32934,7 +32933,7 @@
       <c r="I663" s="47"/>
       <c r="J663" s="27"/>
     </row>
-    <row r="664" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="27" t="s">
         <v>36</v>
       </c>
@@ -32962,7 +32961,7 @@
       </c>
       <c r="J664" s="27"/>
     </row>
-    <row r="665" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="27" t="s">
         <v>36</v>
       </c>
@@ -32990,7 +32989,7 @@
       </c>
       <c r="J665" s="27"/>
     </row>
-    <row r="666" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="27" t="s">
         <v>36</v>
       </c>
@@ -33016,7 +33015,7 @@
       </c>
       <c r="J666" s="27"/>
     </row>
-    <row r="667" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="27" t="s">
         <v>36</v>
       </c>
@@ -33042,7 +33041,7 @@
       </c>
       <c r="J667" s="27"/>
     </row>
-    <row r="668" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="27" t="s">
         <v>36</v>
       </c>
@@ -33068,7 +33067,7 @@
       </c>
       <c r="J668" s="27"/>
     </row>
-    <row r="669" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="27" t="s">
         <v>36</v>
       </c>
@@ -33094,7 +33093,7 @@
       </c>
       <c r="J669" s="27"/>
     </row>
-    <row r="670" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="27" t="s">
         <v>36</v>
       </c>
@@ -33122,7 +33121,7 @@
       </c>
       <c r="J670" s="27"/>
     </row>
-    <row r="671" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="27" t="s">
         <v>36</v>
       </c>
@@ -33148,7 +33147,7 @@
       <c r="I671" s="47"/>
       <c r="J671" s="27"/>
     </row>
-    <row r="672" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="27" t="s">
         <v>36</v>
       </c>
@@ -33174,7 +33173,7 @@
       </c>
       <c r="J672" s="27"/>
     </row>
-    <row r="673" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="27" t="s">
         <v>36</v>
       </c>
@@ -33200,7 +33199,7 @@
       </c>
       <c r="J673" s="27"/>
     </row>
-    <row r="674" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="27" t="s">
         <v>36</v>
       </c>
@@ -33226,7 +33225,7 @@
       </c>
       <c r="J674" s="27"/>
     </row>
-    <row r="675" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="27" t="s">
         <v>36</v>
       </c>
@@ -33250,7 +33249,7 @@
       <c r="I675" s="47"/>
       <c r="J675" s="27"/>
     </row>
-    <row r="676" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="27" t="s">
         <v>36</v>
       </c>
@@ -33274,7 +33273,7 @@
       <c r="I676" s="47"/>
       <c r="J676" s="27"/>
     </row>
-    <row r="677" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="27" t="s">
         <v>36</v>
       </c>
@@ -33300,7 +33299,7 @@
       </c>
       <c r="J677" s="27"/>
     </row>
-    <row r="678" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="27" t="s">
         <v>36</v>
       </c>
@@ -33326,7 +33325,7 @@
       </c>
       <c r="J678" s="27"/>
     </row>
-    <row r="679" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="27" t="s">
         <v>36</v>
       </c>
@@ -33350,7 +33349,7 @@
       <c r="I679" s="47"/>
       <c r="J679" s="27"/>
     </row>
-    <row r="680" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="27" t="s">
         <v>36</v>
       </c>
@@ -33374,7 +33373,7 @@
       <c r="I680" s="47"/>
       <c r="J680" s="27"/>
     </row>
-    <row r="681" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="27" t="s">
         <v>36</v>
       </c>
@@ -33398,7 +33397,7 @@
       <c r="I681" s="47"/>
       <c r="J681" s="27"/>
     </row>
-    <row r="682" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="27" t="s">
         <v>36</v>
       </c>
@@ -33424,7 +33423,7 @@
       </c>
       <c r="J682" s="27"/>
     </row>
-    <row r="683" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="27" t="s">
         <v>728</v>
       </c>
@@ -33450,7 +33449,7 @@
       </c>
       <c r="J683" s="27"/>
     </row>
-    <row r="684" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="27" t="s">
         <v>531</v>
       </c>
@@ -33478,7 +33477,7 @@
       </c>
       <c r="J684" s="27"/>
     </row>
-    <row r="685" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="27" t="s">
         <v>531</v>
       </c>
@@ -33506,7 +33505,7 @@
       </c>
       <c r="J685" s="27"/>
     </row>
-    <row r="686" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="27" t="s">
         <v>1154</v>
       </c>
@@ -33534,7 +33533,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="687" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="27" t="s">
         <v>1153</v>
       </c>
@@ -33562,7 +33561,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="688" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="27" t="s">
         <v>1153</v>
       </c>
@@ -33590,7 +33589,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="689" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="27" t="s">
         <v>1154</v>
       </c>
@@ -33618,7 +33617,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="690" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="27" t="s">
         <v>34</v>
       </c>
@@ -33648,7 +33647,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="691" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="27" t="s">
         <v>34</v>
       </c>
@@ -33678,7 +33677,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="692" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="27" t="s">
         <v>34</v>
       </c>
@@ -33708,7 +33707,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="693" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="27" t="s">
         <v>34</v>
       </c>
@@ -33738,7 +33737,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="694" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="27" t="s">
         <v>34</v>
       </c>
@@ -33768,7 +33767,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="695" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="27" t="s">
         <v>34</v>
       </c>
@@ -33798,7 +33797,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="696" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="27" t="s">
         <v>34</v>
       </c>
@@ -33828,7 +33827,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="697" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="27" t="s">
         <v>34</v>
       </c>
@@ -33856,7 +33855,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="698" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="27" t="s">
         <v>34</v>
       </c>
@@ -33884,7 +33883,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="699" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="27" t="s">
         <v>34</v>
       </c>
@@ -33912,7 +33911,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="700" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="27" t="s">
         <v>34</v>
       </c>
@@ -33940,7 +33939,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="701" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="27" t="s">
         <v>34</v>
       </c>
@@ -33968,7 +33967,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="702" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="27" t="s">
         <v>34</v>
       </c>
@@ -33996,7 +33995,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="703" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="27" t="s">
         <v>34</v>
       </c>
@@ -34026,7 +34025,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="704" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="27" t="s">
         <v>34</v>
       </c>
@@ -34054,7 +34053,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="705" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="27" t="s">
         <v>34</v>
       </c>
@@ -34082,7 +34081,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="706" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="27" t="s">
         <v>34</v>
       </c>
@@ -34110,7 +34109,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="707" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="27" t="s">
         <v>34</v>
       </c>
@@ -34138,7 +34137,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="708" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="27" t="s">
         <v>34</v>
       </c>
@@ -34166,7 +34165,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="709" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="27" t="s">
         <v>34</v>
       </c>
@@ -34196,7 +34195,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="710" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="27" t="s">
         <v>34</v>
       </c>
@@ -34226,7 +34225,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="711" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="27" t="s">
         <v>34</v>
       </c>
@@ -34256,7 +34255,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="712" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="27" t="s">
         <v>34</v>
       </c>
@@ -34286,7 +34285,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="713" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="27" t="s">
         <v>34</v>
       </c>
@@ -34316,7 +34315,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="714" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="27" t="s">
         <v>34</v>
       </c>
@@ -34346,7 +34345,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="715" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="27" t="s">
         <v>34</v>
       </c>
@@ -34376,7 +34375,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="716" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="27" t="s">
         <v>2</v>
       </c>
@@ -34406,7 +34405,7 @@
       </c>
       <c r="J716" s="27"/>
     </row>
-    <row r="717" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="27" t="s">
         <v>35</v>
       </c>
@@ -34436,7 +34435,7 @@
       </c>
       <c r="J717" s="27"/>
     </row>
-    <row r="718" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="27" t="s">
         <v>35</v>
       </c>
@@ -34464,7 +34463,7 @@
       <c r="I718" s="47"/>
       <c r="J718" s="27"/>
     </row>
-    <row r="719" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="27" t="s">
         <v>35</v>
       </c>
@@ -34494,7 +34493,7 @@
       </c>
       <c r="J719" s="27"/>
     </row>
-    <row r="720" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="27" t="s">
         <v>35</v>
       </c>
@@ -34524,7 +34523,7 @@
       </c>
       <c r="J720" s="27"/>
     </row>
-    <row r="721" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="27" t="s">
         <v>35</v>
       </c>
@@ -34552,7 +34551,7 @@
       <c r="I721" s="47"/>
       <c r="J721" s="27"/>
     </row>
-    <row r="722" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="27" t="s">
         <v>35</v>
       </c>
@@ -34582,7 +34581,7 @@
       </c>
       <c r="J722" s="27"/>
     </row>
-    <row r="723" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="27" t="s">
         <v>35</v>
       </c>
@@ -34612,7 +34611,7 @@
       </c>
       <c r="J723" s="27"/>
     </row>
-    <row r="724" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="27" t="s">
         <v>35</v>
       </c>
@@ -34642,7 +34641,7 @@
       </c>
       <c r="J724" s="27"/>
     </row>
-    <row r="725" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="27" t="s">
         <v>35</v>
       </c>
@@ -34672,7 +34671,7 @@
       </c>
       <c r="J725" s="27"/>
     </row>
-    <row r="726" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="27" t="s">
         <v>35</v>
       </c>
@@ -34702,7 +34701,7 @@
       </c>
       <c r="J726" s="27"/>
     </row>
-    <row r="727" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="27" t="s">
         <v>35</v>
       </c>
@@ -34732,7 +34731,7 @@
       </c>
       <c r="J727" s="27"/>
     </row>
-    <row r="728" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="27" t="s">
         <v>35</v>
       </c>
@@ -34762,7 +34761,7 @@
       </c>
       <c r="J728" s="27"/>
     </row>
-    <row r="729" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="27" t="s">
         <v>35</v>
       </c>
@@ -34790,7 +34789,7 @@
       </c>
       <c r="J729" s="27"/>
     </row>
-    <row r="730" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="27" t="s">
         <v>35</v>
       </c>
@@ -34818,7 +34817,7 @@
       </c>
       <c r="J730" s="27"/>
     </row>
-    <row r="731" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="27" t="s">
         <v>49</v>
       </c>
@@ -34846,7 +34845,7 @@
       </c>
       <c r="J731" s="27"/>
     </row>
-    <row r="732" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="27" t="s">
         <v>34</v>
       </c>
@@ -34878,7 +34877,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="733" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="27" t="s">
         <v>34</v>
       </c>
@@ -34910,7 +34909,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="734" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="27" t="s">
         <v>34</v>
       </c>
@@ -34942,7 +34941,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="735" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="27" t="s">
         <v>34</v>
       </c>
@@ -34974,7 +34973,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="736" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="27" t="s">
         <v>34</v>
       </c>
@@ -35006,7 +35005,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="737" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="27" t="s">
         <v>34</v>
       </c>
@@ -35038,7 +35037,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="738" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="27" t="s">
         <v>34</v>
       </c>
@@ -35070,7 +35069,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="739" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="27" t="s">
         <v>34</v>
       </c>
@@ -35096,7 +35095,7 @@
       <c r="I739" s="47"/>
       <c r="J739" s="27"/>
     </row>
-    <row r="740" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="27" t="s">
         <v>50</v>
       </c>
@@ -35122,7 +35121,7 @@
       <c r="I740" s="47"/>
       <c r="J740" s="27"/>
     </row>
-    <row r="741" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="27" t="s">
         <v>612</v>
       </c>
@@ -35150,7 +35149,7 @@
       </c>
       <c r="J741" s="27"/>
     </row>
-    <row r="742" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="27" t="s">
         <v>23</v>
       </c>
@@ -35178,7 +35177,7 @@
       <c r="I742" s="47"/>
       <c r="J742" s="27"/>
     </row>
-    <row r="743" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="27" t="s">
         <v>34</v>
       </c>
@@ -35208,7 +35207,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="744" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="27" t="s">
         <v>34</v>
       </c>
@@ -35238,7 +35237,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="745" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="27" t="s">
         <v>34</v>
       </c>
@@ -35268,7 +35267,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="746" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="27" t="s">
         <v>34</v>
       </c>
@@ -35298,7 +35297,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="747" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="27" t="s">
         <v>553</v>
       </c>
@@ -35324,7 +35323,7 @@
       </c>
       <c r="J747" s="27"/>
     </row>
-    <row r="748" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="27" t="s">
         <v>37</v>
       </c>
@@ -35350,7 +35349,7 @@
       <c r="I748" s="47"/>
       <c r="J748" s="27"/>
     </row>
-    <row r="749" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="27" t="s">
         <v>37</v>
       </c>
@@ -35376,7 +35375,7 @@
       </c>
       <c r="J749" s="27"/>
     </row>
-    <row r="750" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="27" t="s">
         <v>37</v>
       </c>
@@ -35404,7 +35403,7 @@
       </c>
       <c r="J750" s="27"/>
     </row>
-    <row r="751" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="27" t="s">
         <v>37</v>
       </c>
@@ -35430,7 +35429,7 @@
       <c r="I751" s="47"/>
       <c r="J751" s="27"/>
     </row>
-    <row r="752" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="27" t="s">
         <v>37</v>
       </c>
@@ -35456,7 +35455,7 @@
       </c>
       <c r="J752" s="27"/>
     </row>
-    <row r="753" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="27" t="s">
         <v>37</v>
       </c>
@@ -35480,7 +35479,7 @@
       <c r="I753" s="47"/>
       <c r="J753" s="27"/>
     </row>
-    <row r="754" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="27" t="s">
         <v>859</v>
       </c>
@@ -35504,7 +35503,7 @@
       </c>
       <c r="J754" s="27"/>
     </row>
-    <row r="755" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="27" t="s">
         <v>34</v>
       </c>
@@ -35534,7 +35533,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="756" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="27" t="s">
         <v>34</v>
       </c>
@@ -35564,7 +35563,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="757" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="27" t="s">
         <v>34</v>
       </c>
@@ -35594,7 +35593,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="758" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="27" t="s">
         <v>34</v>
       </c>
@@ -35624,7 +35623,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="759" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="27" t="s">
         <v>34</v>
       </c>
@@ -35654,7 +35653,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="760" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="27" t="s">
         <v>34</v>
       </c>
@@ -35684,7 +35683,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="761" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="27" t="s">
         <v>34</v>
       </c>
@@ -35712,7 +35711,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="762" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="27" t="s">
         <v>555</v>
       </c>
@@ -35738,7 +35737,7 @@
       </c>
       <c r="J762" s="27"/>
     </row>
-    <row r="763" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="27" t="s">
         <v>557</v>
       </c>
@@ -35764,7 +35763,7 @@
       </c>
       <c r="J763" s="27"/>
     </row>
-    <row r="764" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="27" t="s">
         <v>38</v>
       </c>
@@ -35792,7 +35791,7 @@
       </c>
       <c r="J764" s="27"/>
     </row>
-    <row r="765" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="27" t="s">
         <v>38</v>
       </c>
@@ -35820,7 +35819,7 @@
       </c>
       <c r="J765" s="27"/>
     </row>
-    <row r="766" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="27" t="s">
         <v>38</v>
       </c>
@@ -35848,7 +35847,7 @@
       </c>
       <c r="J766" s="27"/>
     </row>
-    <row r="767" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="27" t="s">
         <v>38</v>
       </c>
@@ -35872,7 +35871,7 @@
       <c r="I767" s="47"/>
       <c r="J767" s="27"/>
     </row>
-    <row r="768" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="27" t="s">
         <v>273</v>
       </c>
@@ -35898,7 +35897,7 @@
       </c>
       <c r="J768" s="27"/>
     </row>
-    <row r="769" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="27" t="s">
         <v>38</v>
       </c>
@@ -35924,7 +35923,7 @@
       </c>
       <c r="J769" s="27"/>
     </row>
-    <row r="770" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="27" t="s">
         <v>856</v>
       </c>
@@ -35948,7 +35947,7 @@
       </c>
       <c r="J770" s="27"/>
     </row>
-    <row r="771" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="27" t="s">
         <v>38</v>
       </c>
@@ -35972,7 +35971,7 @@
       <c r="I771" s="47"/>
       <c r="J771" s="27"/>
     </row>
-    <row r="772" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="27" t="s">
         <v>2</v>
       </c>
@@ -35998,7 +35997,7 @@
       </c>
       <c r="J772" s="27"/>
     </row>
-    <row r="773" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="27" t="s">
         <v>34</v>
       </c>
@@ -36028,7 +36027,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="774" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="27" t="s">
         <v>34</v>
       </c>
@@ -36058,7 +36057,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="775" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="27" t="s">
         <v>34</v>
       </c>
@@ -36088,7 +36087,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="776" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="27" t="s">
         <v>34</v>
       </c>
@@ -36118,7 +36117,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="777" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="27" t="s">
         <v>34</v>
       </c>
@@ -36148,7 +36147,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="778" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="27" t="s">
         <v>34</v>
       </c>
@@ -36178,7 +36177,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="779" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="27" t="s">
         <v>34</v>
       </c>
@@ -36208,7 +36207,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="780" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="27" t="s">
         <v>191</v>
       </c>
@@ -36236,7 +36235,7 @@
       </c>
       <c r="J780" s="27"/>
     </row>
-    <row r="781" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="27" t="s">
         <v>191</v>
       </c>
@@ -36262,7 +36261,7 @@
       </c>
       <c r="J781" s="27"/>
     </row>
-    <row r="782" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="27" t="s">
         <v>191</v>
       </c>
@@ -36288,7 +36287,7 @@
       </c>
       <c r="J782" s="27"/>
     </row>
-    <row r="783" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="27" t="s">
         <v>191</v>
       </c>
@@ -36314,7 +36313,7 @@
       </c>
       <c r="J783" s="27"/>
     </row>
-    <row r="784" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="27" t="s">
         <v>512</v>
       </c>
@@ -36340,7 +36339,7 @@
       </c>
       <c r="J784" s="27"/>
     </row>
-    <row r="785" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="27" t="s">
         <v>39</v>
       </c>
@@ -36368,7 +36367,7 @@
       </c>
       <c r="J785" s="27"/>
     </row>
-    <row r="786" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="27" t="s">
         <v>39</v>
       </c>
@@ -36396,7 +36395,7 @@
       </c>
       <c r="J786" s="27"/>
     </row>
-    <row r="787" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="27" t="s">
         <v>39</v>
       </c>
@@ -36422,7 +36421,7 @@
       </c>
       <c r="J787" s="27"/>
     </row>
-    <row r="788" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="27" t="s">
         <v>39</v>
       </c>
@@ -36446,7 +36445,7 @@
       <c r="I788" s="47"/>
       <c r="J788" s="27"/>
     </row>
-    <row r="789" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="27" t="s">
         <v>2</v>
       </c>
@@ -36476,7 +36475,7 @@
       </c>
       <c r="J789" s="27"/>
     </row>
-    <row r="790" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="27" t="s">
         <v>2</v>
       </c>
@@ -36506,7 +36505,7 @@
       </c>
       <c r="J790" s="27"/>
     </row>
-    <row r="791" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="27" t="s">
         <v>2</v>
       </c>
@@ -36536,7 +36535,7 @@
       </c>
       <c r="J791" s="27"/>
     </row>
-    <row r="792" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="27" t="s">
         <v>2</v>
       </c>
@@ -36564,7 +36563,7 @@
       <c r="I792" s="47"/>
       <c r="J792" s="27"/>
     </row>
-    <row r="793" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="27" t="s">
         <v>2</v>
       </c>
@@ -36594,7 +36593,7 @@
       </c>
       <c r="J793" s="27"/>
     </row>
-    <row r="794" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="27" t="s">
         <v>2</v>
       </c>
@@ -36620,7 +36619,7 @@
       <c r="I794" s="47"/>
       <c r="J794" s="27"/>
     </row>
-    <row r="795" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="27" t="s">
         <v>2</v>
       </c>
@@ -36646,7 +36645,7 @@
       <c r="I795" s="47"/>
       <c r="J795" s="27"/>
     </row>
-    <row r="796" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="27" t="s">
         <v>2</v>
       </c>
@@ -36672,7 +36671,7 @@
       <c r="I796" s="47"/>
       <c r="J796" s="27"/>
     </row>
-    <row r="797" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="27" t="s">
         <v>2</v>
       </c>
@@ -36698,7 +36697,7 @@
       <c r="I797" s="47"/>
       <c r="J797" s="27"/>
     </row>
-    <row r="798" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="27" t="s">
         <v>2</v>
       </c>
@@ -36724,7 +36723,7 @@
       <c r="I798" s="47"/>
       <c r="J798" s="27"/>
     </row>
-    <row r="799" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="27" t="s">
         <v>2</v>
       </c>
@@ -36752,7 +36751,7 @@
       </c>
       <c r="J799" s="27"/>
     </row>
-    <row r="800" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="27" t="s">
         <v>2</v>
       </c>
@@ -36780,7 +36779,7 @@
       </c>
       <c r="J800" s="27"/>
     </row>
-    <row r="801" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="27" t="s">
         <v>2</v>
       </c>
@@ -36806,7 +36805,7 @@
       <c r="I801" s="47"/>
       <c r="J801" s="27"/>
     </row>
-    <row r="802" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="27" t="s">
         <v>2</v>
       </c>
@@ -36832,7 +36831,7 @@
       <c r="I802" s="47"/>
       <c r="J802" s="27"/>
     </row>
-    <row r="803" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="27" t="s">
         <v>2</v>
       </c>
@@ -36858,7 +36857,7 @@
       <c r="I803" s="47"/>
       <c r="J803" s="27"/>
     </row>
-    <row r="804" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="27" t="s">
         <v>2</v>
       </c>
@@ -36884,7 +36883,7 @@
       <c r="I804" s="47"/>
       <c r="J804" s="27"/>
     </row>
-    <row r="805" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="27" t="s">
         <v>2</v>
       </c>
@@ -36912,7 +36911,7 @@
       </c>
       <c r="J805" s="27"/>
     </row>
-    <row r="806" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="27" t="s">
         <v>34</v>
       </c>
@@ -36944,7 +36943,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="807" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="27" t="s">
         <v>34</v>
       </c>
@@ -36976,7 +36975,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="808" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="27" t="s">
         <v>34</v>
       </c>
@@ -37008,7 +37007,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="809" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="27" t="s">
         <v>34</v>
       </c>
@@ -37040,7 +37039,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="810" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="27" t="s">
         <v>34</v>
       </c>
@@ -37072,7 +37071,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="811" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="27" t="s">
         <v>34</v>
       </c>
@@ -37104,7 +37103,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="812" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="27" t="s">
         <v>34</v>
       </c>
@@ -37136,7 +37135,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="813" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="27" t="s">
         <v>34</v>
       </c>
@@ -37168,7 +37167,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="814" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="27" t="s">
         <v>34</v>
       </c>
@@ -37200,7 +37199,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="815" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="27" t="s">
         <v>34</v>
       </c>
@@ -37232,7 +37231,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="816" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="27" t="s">
         <v>34</v>
       </c>
@@ -37264,7 +37263,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="817" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="27" t="s">
         <v>34</v>
       </c>
@@ -37296,7 +37295,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="818" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="27" t="s">
         <v>34</v>
       </c>
@@ -37328,7 +37327,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="819" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="27" t="s">
         <v>34</v>
       </c>
@@ -37360,7 +37359,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="820" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="27" t="s">
         <v>34</v>
       </c>
@@ -37392,7 +37391,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="821" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="27" t="s">
         <v>34</v>
       </c>
@@ -37424,7 +37423,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="822" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="27" t="s">
         <v>34</v>
       </c>
@@ -37456,7 +37455,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="823" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="27" t="s">
         <v>34</v>
       </c>
@@ -37488,7 +37487,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="824" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="27" t="s">
         <v>34</v>
       </c>
@@ -37520,7 +37519,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="825" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="27" t="s">
         <v>34</v>
       </c>
@@ -37552,7 +37551,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="826" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="27" t="s">
         <v>34</v>
       </c>
@@ -37584,7 +37583,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="827" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="27" t="s">
         <v>34</v>
       </c>
@@ -37616,7 +37615,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="828" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="27" t="s">
         <v>34</v>
       </c>
@@ -37648,7 +37647,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="829" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="27" t="s">
         <v>34</v>
       </c>
@@ -37680,7 +37679,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="830" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="27" t="s">
         <v>34</v>
       </c>
@@ -37712,7 +37711,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="831" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="27" t="s">
         <v>34</v>
       </c>
@@ -37744,7 +37743,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="832" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="27" t="s">
         <v>34</v>
       </c>
@@ -37776,7 +37775,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="833" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="27" t="s">
         <v>34</v>
       </c>
@@ -37808,7 +37807,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="834" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="27" t="s">
         <v>34</v>
       </c>
@@ -37840,7 +37839,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="835" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="27" t="s">
         <v>34</v>
       </c>
@@ -37872,7 +37871,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="836" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="27" t="s">
         <v>34</v>
       </c>
@@ -37904,7 +37903,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="837" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="27" t="s">
         <v>34</v>
       </c>
@@ -37936,7 +37935,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="838" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="27" t="s">
         <v>34</v>
       </c>
@@ -37968,7 +37967,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="839" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="27" t="s">
         <v>34</v>
       </c>
@@ -38000,7 +37999,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="840" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="27" t="s">
         <v>34</v>
       </c>
@@ -38032,7 +38031,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="841" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="27" t="s">
         <v>34</v>
       </c>
@@ -38064,7 +38063,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="842" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="27" t="s">
         <v>34</v>
       </c>
@@ -38096,7 +38095,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="843" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="27" t="s">
         <v>34</v>
       </c>
@@ -38128,7 +38127,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="844" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="27" t="s">
         <v>34</v>
       </c>
@@ -38160,7 +38159,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="845" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="27" t="s">
         <v>34</v>
       </c>
@@ -38192,7 +38191,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="846" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="27" t="s">
         <v>34</v>
       </c>
@@ -38224,7 +38223,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="847" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="27" t="s">
         <v>34</v>
       </c>
@@ -38256,7 +38255,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="848" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="27" t="s">
         <v>34</v>
       </c>
@@ -38288,7 +38287,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="849" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="27" t="s">
         <v>34</v>
       </c>
@@ -38320,7 +38319,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="850" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="27" t="s">
         <v>34</v>
       </c>
@@ -38352,7 +38351,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="851" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="27" t="s">
         <v>34</v>
       </c>
@@ -38384,7 +38383,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="852" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="27" t="s">
         <v>34</v>
       </c>
@@ -38416,7 +38415,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="853" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="27" t="s">
         <v>34</v>
       </c>
@@ -38448,7 +38447,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="854" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="27" t="s">
         <v>34</v>
       </c>
@@ -38480,7 +38479,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="855" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="27" t="s">
         <v>34</v>
       </c>
@@ -38512,7 +38511,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="856" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="27" t="s">
         <v>34</v>
       </c>
@@ -38544,7 +38543,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="857" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="27" t="s">
         <v>34</v>
       </c>
@@ -38576,7 +38575,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="858" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="27" t="s">
         <v>34</v>
       </c>
@@ -38608,7 +38607,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="859" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="27" t="s">
         <v>34</v>
       </c>
@@ -38640,7 +38639,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="860" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="27" t="s">
         <v>34</v>
       </c>
@@ -38672,7 +38671,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="861" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="27" t="s">
         <v>34</v>
       </c>
@@ -38704,7 +38703,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="862" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="27" t="s">
         <v>34</v>
       </c>
@@ -38736,7 +38735,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="863" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="27" t="s">
         <v>34</v>
       </c>
@@ -38768,7 +38767,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="864" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="27" t="s">
         <v>34</v>
       </c>
@@ -38800,7 +38799,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="865" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="27" t="s">
         <v>34</v>
       </c>
@@ -38832,7 +38831,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="866" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="27" t="s">
         <v>34</v>
       </c>
@@ -38864,7 +38863,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="867" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="27" t="s">
         <v>34</v>
       </c>
@@ -38896,7 +38895,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="868" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="27" t="s">
         <v>34</v>
       </c>
@@ -38928,7 +38927,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="869" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="27" t="s">
         <v>34</v>
       </c>
@@ -38960,7 +38959,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="870" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="27" t="s">
         <v>34</v>
       </c>
@@ -38992,7 +38991,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="871" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="27" t="s">
         <v>34</v>
       </c>
@@ -39024,7 +39023,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="872" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="27" t="s">
         <v>34</v>
       </c>
@@ -39056,7 +39055,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="873" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="27" t="s">
         <v>34</v>
       </c>
@@ -39088,7 +39087,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="874" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="27" t="s">
         <v>34</v>
       </c>
@@ -39120,7 +39119,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="875" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="27" t="s">
         <v>34</v>
       </c>
@@ -39152,7 +39151,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="876" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="27" t="s">
         <v>34</v>
       </c>
@@ -39184,7 +39183,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="877" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="27" t="s">
         <v>34</v>
       </c>
@@ -39216,7 +39215,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="878" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="27" t="s">
         <v>34</v>
       </c>
@@ -39248,7 +39247,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="879" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="27" t="s">
         <v>34</v>
       </c>
@@ -39280,7 +39279,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="880" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="27" t="s">
         <v>34</v>
       </c>
@@ -39312,7 +39311,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="881" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="27" t="s">
         <v>34</v>
       </c>
@@ -39344,7 +39343,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="882" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="27" t="s">
         <v>34</v>
       </c>
@@ -39376,7 +39375,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="883" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="27" t="s">
         <v>34</v>
       </c>
@@ -39408,7 +39407,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="884" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="27" t="s">
         <v>34</v>
       </c>
@@ -39440,7 +39439,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="885" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="27" t="s">
         <v>34</v>
       </c>
@@ -39472,7 +39471,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="886" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="27" t="s">
         <v>34</v>
       </c>
@@ -39504,7 +39503,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="887" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="27" t="s">
         <v>34</v>
       </c>
@@ -39536,7 +39535,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="888" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="27" t="s">
         <v>34</v>
       </c>
@@ -39568,7 +39567,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="889" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="27" t="s">
         <v>34</v>
       </c>
@@ -39600,7 +39599,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="890" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="27" t="s">
         <v>34</v>
       </c>
@@ -39632,7 +39631,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="891" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="27" t="s">
         <v>34</v>
       </c>
@@ -39664,7 +39663,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="892" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="27" t="s">
         <v>34</v>
       </c>
@@ -39696,7 +39695,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="893" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="27" t="s">
         <v>34</v>
       </c>
@@ -39728,7 +39727,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="894" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="27" t="s">
         <v>34</v>
       </c>
@@ -39760,7 +39759,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="895" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="27" t="s">
         <v>34</v>
       </c>
@@ -39792,7 +39791,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="896" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="27" t="s">
         <v>34</v>
       </c>
@@ -39824,7 +39823,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="897" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="27" t="s">
         <v>34</v>
       </c>
@@ -39856,7 +39855,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="898" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="27" t="s">
         <v>34</v>
       </c>
@@ -39888,7 +39887,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="899" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="27" t="s">
         <v>34</v>
       </c>
@@ -39920,7 +39919,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="900" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="27" t="s">
         <v>34</v>
       </c>
@@ -39952,7 +39951,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="901" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="27" t="s">
         <v>34</v>
       </c>
@@ -39984,7 +39983,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="902" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="27" t="s">
         <v>34</v>
       </c>
@@ -40016,7 +40015,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="903" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="27" t="s">
         <v>34</v>
       </c>
@@ -40048,7 +40047,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="904" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="27" t="s">
         <v>34</v>
       </c>
@@ -40080,7 +40079,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="905" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="27" t="s">
         <v>34</v>
       </c>
@@ -40112,7 +40111,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="906" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="27" t="s">
         <v>34</v>
       </c>
@@ -40144,7 +40143,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="907" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="27" t="s">
         <v>34</v>
       </c>
@@ -40176,7 +40175,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="908" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="27" t="s">
         <v>34</v>
       </c>
@@ -40208,7 +40207,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="909" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="27" t="s">
         <v>34</v>
       </c>
@@ -40240,7 +40239,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="910" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="27" t="s">
         <v>34</v>
       </c>
@@ -40272,7 +40271,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="911" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="27" t="s">
         <v>34</v>
       </c>
@@ -40304,7 +40303,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="912" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="27" t="s">
         <v>34</v>
       </c>
@@ -40336,7 +40335,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="913" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="27" t="s">
         <v>34</v>
       </c>
@@ -40368,7 +40367,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="914" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="27" t="s">
         <v>34</v>
       </c>
@@ -40400,7 +40399,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="915" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="27" t="s">
         <v>34</v>
       </c>
@@ -40432,7 +40431,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="916" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="27" t="s">
         <v>34</v>
       </c>
@@ -40464,7 +40463,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="917" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="27" t="s">
         <v>34</v>
       </c>
@@ -40496,7 +40495,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="918" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="27" t="s">
         <v>34</v>
       </c>
@@ -40528,7 +40527,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="919" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="27" t="s">
         <v>34</v>
       </c>
@@ -40560,7 +40559,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="920" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="27" t="s">
         <v>34</v>
       </c>
@@ -40592,7 +40591,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="921" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="27" t="s">
         <v>34</v>
       </c>
@@ -40624,7 +40623,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="922" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="27" t="s">
         <v>34</v>
       </c>
@@ -40656,7 +40655,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="923" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="27" t="s">
         <v>34</v>
       </c>
@@ -40688,7 +40687,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="924" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="27" t="s">
         <v>34</v>
       </c>
@@ -40720,7 +40719,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="925" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="27" t="s">
         <v>34</v>
       </c>
@@ -40752,7 +40751,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="926" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="27" t="s">
         <v>34</v>
       </c>
@@ -40784,7 +40783,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="927" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="27" t="s">
         <v>34</v>
       </c>
@@ -40816,7 +40815,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="928" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="27" t="s">
         <v>34</v>
       </c>
@@ -40848,7 +40847,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="929" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="27" t="s">
         <v>34</v>
       </c>
@@ -40880,7 +40879,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="930" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="27" t="s">
         <v>34</v>
       </c>
@@ -40912,7 +40911,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="931" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="27" t="s">
         <v>34</v>
       </c>
@@ -40944,7 +40943,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="932" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="27" t="s">
         <v>34</v>
       </c>
@@ -40976,7 +40975,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="933" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="27" t="s">
         <v>34</v>
       </c>
@@ -41008,7 +41007,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="934" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="27" t="s">
         <v>34</v>
       </c>
@@ -41040,7 +41039,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="935" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="27" t="s">
         <v>34</v>
       </c>
@@ -41072,7 +41071,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="936" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="27" t="s">
         <v>34</v>
       </c>
@@ -41104,7 +41103,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="937" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="27" t="s">
         <v>34</v>
       </c>
@@ -41136,7 +41135,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="938" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="27" t="s">
         <v>34</v>
       </c>
@@ -41168,7 +41167,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="939" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="27" t="s">
         <v>34</v>
       </c>
@@ -41200,7 +41199,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="940" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="27" t="s">
         <v>34</v>
       </c>
@@ -41232,7 +41231,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="941" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="27" t="s">
         <v>34</v>
       </c>
@@ -41264,7 +41263,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="942" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="27" t="s">
         <v>34</v>
       </c>
@@ -41296,7 +41295,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="943" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="27" t="s">
         <v>34</v>
       </c>
@@ -41328,7 +41327,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="944" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="27" t="s">
         <v>34</v>
       </c>
@@ -41360,7 +41359,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="945" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="27" t="s">
         <v>34</v>
       </c>
@@ -41392,7 +41391,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="946" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="27" t="s">
         <v>34</v>
       </c>
@@ -41424,7 +41423,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="947" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="27" t="s">
         <v>34</v>
       </c>
@@ -41456,7 +41455,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="948" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="27" t="s">
         <v>34</v>
       </c>
@@ -41488,7 +41487,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="949" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="27" t="s">
         <v>34</v>
       </c>
@@ -41520,7 +41519,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="950" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="27" t="s">
         <v>34</v>
       </c>
@@ -41552,7 +41551,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="951" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="27" t="s">
         <v>34</v>
       </c>
@@ -41584,7 +41583,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="952" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="27" t="s">
         <v>34</v>
       </c>
@@ -41616,7 +41615,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="953" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="27" t="s">
         <v>34</v>
       </c>
@@ -41648,7 +41647,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="954" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="27" t="s">
         <v>34</v>
       </c>
@@ -41680,7 +41679,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="955" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="27" t="s">
         <v>34</v>
       </c>
@@ -41712,7 +41711,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="956" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="27" t="s">
         <v>34</v>
       </c>
@@ -41744,7 +41743,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="957" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="27" t="s">
         <v>34</v>
       </c>
@@ -41776,7 +41775,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="958" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="27" t="s">
         <v>34</v>
       </c>
@@ -41808,7 +41807,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="959" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="27" t="s">
         <v>34</v>
       </c>
@@ -41840,7 +41839,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="960" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="27" t="s">
         <v>34</v>
       </c>
@@ -41872,7 +41871,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="961" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="27" t="s">
         <v>34</v>
       </c>
@@ -41904,7 +41903,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="962" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="27" t="s">
         <v>34</v>
       </c>
@@ -41934,7 +41933,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="963" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="27" t="s">
         <v>34</v>
       </c>
@@ -41964,7 +41963,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="964" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="27" t="s">
         <v>34</v>
       </c>
@@ -41994,7 +41993,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="965" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="27" t="s">
         <v>34</v>
       </c>
@@ -42024,7 +42023,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="966" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="27" t="s">
         <v>545</v>
       </c>
@@ -42054,7 +42053,7 @@
       </c>
       <c r="J966" s="27"/>
     </row>
-    <row r="967" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="27" t="s">
         <v>545</v>
       </c>
@@ -42082,7 +42081,7 @@
       </c>
       <c r="J967" s="27"/>
     </row>
-    <row r="968" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="27" t="s">
         <v>545</v>
       </c>
@@ -42110,7 +42109,7 @@
       </c>
       <c r="J968" s="27"/>
     </row>
-    <row r="969" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="27" t="s">
         <v>545</v>
       </c>
@@ -42138,7 +42137,7 @@
       </c>
       <c r="J969" s="27"/>
     </row>
-    <row r="970" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="27" t="s">
         <v>545</v>
       </c>
@@ -42166,7 +42165,7 @@
       </c>
       <c r="J970" s="27"/>
     </row>
-    <row r="971" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="27" t="s">
         <v>796</v>
       </c>
@@ -42194,7 +42193,7 @@
       </c>
       <c r="J971" s="27"/>
     </row>
-    <row r="972" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="27" t="s">
         <v>796</v>
       </c>
@@ -42220,7 +42219,7 @@
       <c r="I972" s="47"/>
       <c r="J972" s="27"/>
     </row>
-    <row r="973" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="27" t="s">
         <v>861</v>
       </c>
@@ -42246,7 +42245,7 @@
       </c>
       <c r="J973" s="27"/>
     </row>
-    <row r="974" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="27" t="s">
         <v>193</v>
       </c>
@@ -42274,7 +42273,7 @@
       </c>
       <c r="J974" s="27"/>
     </row>
-    <row r="975" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="27" t="s">
         <v>193</v>
       </c>
@@ -42300,7 +42299,7 @@
       <c r="I975" s="47"/>
       <c r="J975" s="27"/>
     </row>
-    <row r="976" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="27" t="s">
         <v>863</v>
       </c>
@@ -42326,7 +42325,7 @@
       </c>
       <c r="J976" s="27"/>
     </row>
-    <row r="977" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="27" t="s">
         <v>23</v>
       </c>
@@ -42354,7 +42353,7 @@
       <c r="I977" s="47"/>
       <c r="J977" s="27"/>
     </row>
-    <row r="978" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="27" t="s">
         <v>23</v>
       </c>
@@ -42384,7 +42383,7 @@
       </c>
       <c r="J978" s="27"/>
     </row>
-    <row r="979" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="27" t="s">
         <v>23</v>
       </c>
@@ -42414,7 +42413,7 @@
       </c>
       <c r="J979" s="27"/>
     </row>
-    <row r="980" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="27" t="s">
         <v>23</v>
       </c>
@@ -42444,7 +42443,7 @@
       </c>
       <c r="J980" s="27"/>
     </row>
-    <row r="981" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="27" t="s">
         <v>23</v>
       </c>
@@ -42472,7 +42471,7 @@
       </c>
       <c r="J981" s="27"/>
     </row>
-    <row r="982" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="27" t="s">
         <v>23</v>
       </c>
@@ -42500,7 +42499,7 @@
       </c>
       <c r="J982" s="27"/>
     </row>
-    <row r="983" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="27" t="s">
         <v>23</v>
       </c>
@@ -42528,7 +42527,7 @@
       </c>
       <c r="J983" s="27"/>
     </row>
-    <row r="984" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="27" t="s">
         <v>23</v>
       </c>
@@ -42556,7 +42555,7 @@
       </c>
       <c r="J984" s="27"/>
     </row>
-    <row r="985" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="27" t="s">
         <v>23</v>
       </c>
@@ -42584,7 +42583,7 @@
       </c>
       <c r="J985" s="27"/>
     </row>
-    <row r="986" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="27" t="s">
         <v>23</v>
       </c>
@@ -42610,7 +42609,7 @@
       <c r="I986" s="47"/>
       <c r="J986" s="27"/>
     </row>
-    <row r="987" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="27" t="s">
         <v>23</v>
       </c>
@@ -42636,7 +42635,7 @@
       <c r="I987" s="47"/>
       <c r="J987" s="27"/>
     </row>
-    <row r="988" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="27" t="s">
         <v>23</v>
       </c>
@@ -42664,7 +42663,7 @@
       </c>
       <c r="J988" s="27"/>
     </row>
-    <row r="989" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="27" t="s">
         <v>23</v>
       </c>
@@ -42692,7 +42691,7 @@
       </c>
       <c r="J989" s="27"/>
     </row>
-    <row r="990" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="27" t="s">
         <v>23</v>
       </c>
@@ -42720,7 +42719,7 @@
       </c>
       <c r="J990" s="27"/>
     </row>
-    <row r="991" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="27" t="s">
         <v>23</v>
       </c>
@@ -42748,7 +42747,7 @@
       <c r="I991" s="47"/>
       <c r="J991" s="27"/>
     </row>
-    <row r="992" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="27" t="s">
         <v>23</v>
       </c>
@@ -42776,7 +42775,7 @@
       <c r="I992" s="47"/>
       <c r="J992" s="27"/>
     </row>
-    <row r="993" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="27" t="s">
         <v>23</v>
       </c>
@@ -42804,7 +42803,7 @@
       <c r="I993" s="47"/>
       <c r="J993" s="27"/>
     </row>
-    <row r="994" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="27" t="s">
         <v>23</v>
       </c>
@@ -42832,7 +42831,7 @@
       </c>
       <c r="J994" s="27"/>
     </row>
-    <row r="995" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="27" t="s">
         <v>23</v>
       </c>
@@ -42860,7 +42859,7 @@
       </c>
       <c r="J995" s="27"/>
     </row>
-    <row r="996" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="27" t="s">
         <v>23</v>
       </c>
@@ -42888,7 +42887,7 @@
       </c>
       <c r="J996" s="27"/>
     </row>
-    <row r="997" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="27" t="s">
         <v>678</v>
       </c>
@@ -42916,7 +42915,7 @@
       </c>
       <c r="J997" s="27"/>
     </row>
-    <row r="998" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="27" t="s">
         <v>680</v>
       </c>
@@ -42944,7 +42943,7 @@
       </c>
       <c r="J998" s="27"/>
     </row>
-    <row r="999" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="27" t="s">
         <v>867</v>
       </c>
@@ -42970,7 +42969,7 @@
       </c>
       <c r="J999" s="27"/>
     </row>
-    <row r="1000" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="27" t="s">
         <v>867</v>
       </c>
@@ -42998,7 +42997,7 @@
       </c>
       <c r="J1000" s="27"/>
     </row>
-    <row r="1001" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1001" s="27" t="s">
         <v>616</v>
       </c>
@@ -43026,7 +43025,7 @@
       </c>
       <c r="J1001" s="27"/>
     </row>
-    <row r="1002" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1002" s="27" t="s">
         <v>682</v>
       </c>
@@ -43054,7 +43053,7 @@
       </c>
       <c r="J1002" s="27"/>
     </row>
-    <row r="1003" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1003" s="27" t="s">
         <v>26</v>
       </c>
@@ -43084,7 +43083,7 @@
       </c>
       <c r="J1003" s="27"/>
     </row>
-    <row r="1004" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1004" s="27" t="s">
         <v>26</v>
       </c>
@@ -43112,7 +43111,7 @@
       <c r="I1004" s="47"/>
       <c r="J1004" s="27"/>
     </row>
-    <row r="1005" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1005" s="27" t="s">
         <v>26</v>
       </c>
@@ -43142,7 +43141,7 @@
       </c>
       <c r="J1005" s="27"/>
     </row>
-    <row r="1006" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1006" s="27" t="s">
         <v>26</v>
       </c>
@@ -43172,7 +43171,7 @@
       </c>
       <c r="J1006" s="27"/>
     </row>
-    <row r="1007" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1007" s="27" t="s">
         <v>26</v>
       </c>
@@ -43202,7 +43201,7 @@
       </c>
       <c r="J1007" s="27"/>
     </row>
-    <row r="1008" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1008" s="27" t="s">
         <v>26</v>
       </c>
@@ -43230,7 +43229,7 @@
       </c>
       <c r="J1008" s="27"/>
     </row>
-    <row r="1009" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1009" s="27" t="s">
         <v>26</v>
       </c>
@@ -43258,7 +43257,7 @@
       </c>
       <c r="J1009" s="27"/>
     </row>
-    <row r="1010" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1010" s="27" t="s">
         <v>26</v>
       </c>
@@ -43286,7 +43285,7 @@
       </c>
       <c r="J1010" s="27"/>
     </row>
-    <row r="1011" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1011" s="27" t="s">
         <v>26</v>
       </c>
@@ -43314,7 +43313,7 @@
       </c>
       <c r="J1011" s="27"/>
     </row>
-    <row r="1012" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1012" s="27" t="s">
         <v>26</v>
       </c>
@@ -43342,7 +43341,7 @@
       </c>
       <c r="J1012" s="27"/>
     </row>
-    <row r="1013" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1013" s="27" t="s">
         <v>26</v>
       </c>
@@ -43370,7 +43369,7 @@
       </c>
       <c r="J1013" s="27"/>
     </row>
-    <row r="1014" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1014" s="27" t="s">
         <v>26</v>
       </c>
@@ -43396,7 +43395,7 @@
       <c r="I1014" s="47"/>
       <c r="J1014" s="27"/>
     </row>
-    <row r="1015" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1015" s="27" t="s">
         <v>26</v>
       </c>
@@ -43424,7 +43423,7 @@
       </c>
       <c r="J1015" s="27"/>
     </row>
-    <row r="1016" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1016" s="27" t="s">
         <v>26</v>
       </c>
@@ -43452,7 +43451,7 @@
       </c>
       <c r="J1016" s="27"/>
     </row>
-    <row r="1017" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1017" s="27" t="s">
         <v>26</v>
       </c>
@@ -43480,7 +43479,7 @@
       </c>
       <c r="J1017" s="27"/>
     </row>
-    <row r="1018" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1018" s="27" t="s">
         <v>26</v>
       </c>
@@ -43508,7 +43507,7 @@
       </c>
       <c r="J1018" s="27"/>
     </row>
-    <row r="1019" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1019" s="27" t="s">
         <v>26</v>
       </c>
@@ -43536,7 +43535,7 @@
       </c>
       <c r="J1019" s="27"/>
     </row>
-    <row r="1020" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1020" s="27" t="s">
         <v>26</v>
       </c>
@@ -43562,7 +43561,7 @@
       <c r="I1020" s="47"/>
       <c r="J1020" s="27"/>
     </row>
-    <row r="1021" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1021" s="27" t="s">
         <v>26</v>
       </c>
@@ -43588,7 +43587,7 @@
       <c r="I1021" s="47"/>
       <c r="J1021" s="27"/>
     </row>
-    <row r="1022" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1022" s="27" t="s">
         <v>26</v>
       </c>
@@ -43616,7 +43615,7 @@
       </c>
       <c r="J1022" s="27"/>
     </row>
-    <row r="1023" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1023" s="27" t="s">
         <v>26</v>
       </c>
@@ -43644,7 +43643,7 @@
       </c>
       <c r="J1023" s="27"/>
     </row>
-    <row r="1024" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1024" s="27" t="s">
         <v>26</v>
       </c>
@@ -43674,7 +43673,7 @@
       </c>
       <c r="J1024" s="27"/>
     </row>
-    <row r="1025" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1025" s="27" t="s">
         <v>26</v>
       </c>
@@ -43702,7 +43701,7 @@
       </c>
       <c r="J1025" s="27"/>
     </row>
-    <row r="1026" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1026" s="27" t="s">
         <v>26</v>
       </c>
@@ -43730,7 +43729,7 @@
       </c>
       <c r="J1026" s="27"/>
     </row>
-    <row r="1027" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1027" s="27" t="s">
         <v>26</v>
       </c>
@@ -43758,7 +43757,7 @@
       </c>
       <c r="J1027" s="27"/>
     </row>
-    <row r="1028" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1028" s="27" t="s">
         <v>26</v>
       </c>
@@ -43786,7 +43785,7 @@
       </c>
       <c r="J1028" s="27"/>
     </row>
-    <row r="1029" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1029" s="27" t="s">
         <v>26</v>
       </c>
@@ -43814,7 +43813,7 @@
       </c>
       <c r="J1029" s="27"/>
     </row>
-    <row r="1030" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1030" s="27" t="s">
         <v>30</v>
       </c>
@@ -43844,7 +43843,7 @@
       </c>
       <c r="J1030" s="27"/>
     </row>
-    <row r="1031" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1031" s="27" t="s">
         <v>692</v>
       </c>
@@ -43872,7 +43871,7 @@
       </c>
       <c r="J1031" s="27"/>
     </row>
-    <row r="1032" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1032" s="27" t="s">
         <v>694</v>
       </c>
@@ -43900,7 +43899,7 @@
       </c>
       <c r="J1032" s="27"/>
     </row>
-    <row r="1033" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1033" s="27" t="s">
         <v>566</v>
       </c>
@@ -43928,7 +43927,7 @@
       </c>
       <c r="J1033" s="27"/>
     </row>
-    <row r="1034" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1034" s="27" t="s">
         <v>50</v>
       </c>
@@ -43957,13 +43956,7 @@
       <c r="J1034" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1034" xr:uid="{11F9BBD1-A794-482F-8733-C6568E26B364}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Animal_Rodent species"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J1034" xr:uid="{11F9BBD1-A794-482F-8733-C6568E26B364}"/>
   <sortState ref="A2:J1033">
     <sortCondition ref="D2:D1033"/>
     <sortCondition ref="A2:A1033"/>
